--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\NAP\Revised Annual 2019-2020\Web Release\Long Series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q4 2021\Time Series data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE1A58-327B-4FCC-A568-68D101C11F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1375B-3EDF-4D3A-A976-DCCC0E8DA2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <t>Old</t>
   </si>
@@ -355,27 +355,29 @@
     <t>Growth Rates, at Current Prices</t>
   </si>
   <si>
-    <t>1946 to 2020</t>
-  </si>
-  <si>
-    <t>1947 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>1946 to 2021</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>2020 - 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -502,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -567,8 +569,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,24 +875,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
@@ -4519,46 +4519,46 @@
   <sheetData>
     <row r="1" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="Q1" s="44" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Z1" s="45" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Z1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AE1" s="45" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AE1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
     </row>
     <row r="2" spans="1:34" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
@@ -4598,22 +4598,22 @@
       <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44" t="s">
+      <c r="T2" s="42"/>
+      <c r="U2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="44"/>
+      <c r="X2" s="42"/>
       <c r="Z2" s="7" t="s">
         <v>1</v>
       </c>
@@ -12635,8 +12635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV46" sqref="BV46:BX50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BY23" sqref="BY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12644,44 +12644,45 @@
     <col min="1" max="1" width="33" style="17" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" style="17" customWidth="1"/>
     <col min="3" max="76" width="13.54296875" style="18" customWidth="1"/>
-    <col min="77" max="16384" width="8.90625" style="18"/>
+    <col min="77" max="77" width="14.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="78" max="16384" width="8.90625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="18"/>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -12759,7 +12760,7 @@
       <c r="BW8" s="20"/>
       <c r="BX8" s="20"/>
     </row>
-    <row r="9" spans="1:76" s="35" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:77" s="35" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
@@ -12988,8 +12989,11 @@
       <c r="BX9" s="34">
         <v>2020</v>
       </c>
-    </row>
-    <row r="10" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY9" s="34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
@@ -13218,8 +13222,11 @@
       <c r="BX10" s="22">
         <v>1827010.1925432752</v>
       </c>
-    </row>
-    <row r="11" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY10" s="39">
+        <v>1953776.0783524239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>2</v>
       </c>
@@ -13448,8 +13455,11 @@
       <c r="BX11" s="22">
         <v>5094221.5462210681</v>
       </c>
-    </row>
-    <row r="12" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY11" s="39">
+        <v>5595945.8269927409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
@@ -13678,8 +13688,11 @@
       <c r="BX12" s="22">
         <v>11017350.685417993</v>
       </c>
-    </row>
-    <row r="13" spans="1:76" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY12" s="39">
+        <v>11837487.738385253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -13755,9 +13768,10 @@
       <c r="BU13" s="22"/>
       <c r="BV13" s="22"/>
       <c r="BW13" s="22"/>
-      <c r="BX13" s="20"/>
-    </row>
-    <row r="14" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BX13" s="22"/>
+      <c r="BY13" s="39"/>
+    </row>
+    <row r="14" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>22</v>
       </c>
@@ -13986,8 +14000,11 @@
       <c r="BX14" s="28">
         <v>17938582.424182337</v>
       </c>
-    </row>
-    <row r="15" spans="1:76" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY14" s="28">
+        <v>19387209.643730417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>19</v>
       </c>
@@ -14067,7 +14084,7 @@
       <c r="BW15" s="22"/>
       <c r="BX15" s="20"/>
     </row>
-    <row r="16" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -14466,7 +14483,7 @@
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -14707,7 +14724,7 @@
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -15170,7 +15187,10 @@
         <v>99</v>
       </c>
       <c r="BW27" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="BX27" s="32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -15399,6 +15419,9 @@
       <c r="BW28" s="38">
         <v>6.1265814729238457</v>
       </c>
+      <c r="BX28" s="38">
+        <v>6.9384334212544871</v>
+      </c>
     </row>
     <row r="29" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
@@ -15626,6 +15649,9 @@
       <c r="BW29" s="38">
         <v>-13.938515110253476</v>
       </c>
+      <c r="BX29" s="38">
+        <v>9.848890084960189</v>
+      </c>
     </row>
     <row r="30" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
@@ -15852,6 +15878,9 @@
       </c>
       <c r="BW30" s="38">
         <v>-7.2382686295487417</v>
+      </c>
+      <c r="BX30" s="38">
+        <v>7.4440496303049599</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -15930,6 +15959,7 @@
       <c r="BU31" s="30"/>
       <c r="BV31" s="30"/>
       <c r="BW31" s="38"/>
+      <c r="BX31" s="38"/>
     </row>
     <row r="32" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
@@ -16154,8 +16184,11 @@
       <c r="BV32" s="31">
         <v>6.8582527519006788</v>
       </c>
-      <c r="BW32" s="38">
+      <c r="BW32" s="31">
         <v>-8.0914633615785476</v>
+      </c>
+      <c r="BX32" s="31">
+        <v>8.0754832533212806</v>
       </c>
     </row>
     <row r="33" spans="1:77" x14ac:dyDescent="0.3">
@@ -16563,7 +16596,7 @@
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -16801,7 +16834,7 @@
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -17266,6 +17299,9 @@
       <c r="BX45" s="34">
         <v>2020</v>
       </c>
+      <c r="BY45" s="34">
+        <v>2021</v>
+      </c>
     </row>
     <row r="46" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
@@ -17496,6 +17532,9 @@
       <c r="BX46" s="38">
         <v>10.184808082049731</v>
       </c>
+      <c r="BY46" s="38">
+        <v>10.077654877911998</v>
+      </c>
     </row>
     <row r="47" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
@@ -17726,6 +17765,9 @@
       <c r="BX47" s="38">
         <v>28.398127710212695</v>
       </c>
+      <c r="BY47" s="38">
+        <v>28.864111596391595</v>
+      </c>
     </row>
     <row r="48" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
@@ -17956,8 +17998,11 @@
       <c r="BX48" s="38">
         <v>61.417064207737567</v>
       </c>
-    </row>
-    <row r="49" spans="1:76" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY48" s="38">
+        <v>61.058233525696402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -18034,8 +18079,9 @@
       <c r="BV49" s="30"/>
       <c r="BW49" s="30"/>
       <c r="BX49" s="38"/>
-    </row>
-    <row r="50" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY49" s="38"/>
+    </row>
+    <row r="50" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>22</v>
       </c>
@@ -18264,8 +18310,11 @@
       <c r="BX50" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY50" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
@@ -18344,7 +18393,7 @@
       <c r="BW51" s="26"/>
       <c r="BX51" s="26"/>
     </row>
-    <row r="52" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -18421,7 +18470,7 @@
       <c r="BW52" s="26"/>
       <c r="BX52" s="26"/>
     </row>
-    <row r="53" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -18498,7 +18547,7 @@
       <c r="BW53" s="26"/>
       <c r="BX53" s="26"/>
     </row>
-    <row r="54" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -18575,7 +18624,7 @@
       <c r="BW54" s="26"/>
       <c r="BX54" s="26"/>
     </row>
-    <row r="55" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -18652,7 +18701,7 @@
       <c r="BW55" s="26"/>
       <c r="BX55" s="26"/>
     </row>
-    <row r="56" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -18729,7 +18778,7 @@
       <c r="BW56" s="26"/>
       <c r="BX56" s="26"/>
     </row>
-    <row r="57" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -18806,7 +18855,7 @@
       <c r="BW57" s="26"/>
       <c r="BX57" s="26"/>
     </row>
-    <row r="58" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -18883,7 +18932,7 @@
       <c r="BW58" s="26"/>
       <c r="BX58" s="26"/>
     </row>
-    <row r="59" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -18960,7 +19009,7 @@
       <c r="BW59" s="26"/>
       <c r="BX59" s="26"/>
     </row>
-    <row r="60" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -19048,8 +19097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV46" sqref="BV46:BX50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BV58" sqref="BV58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19057,44 +19106,45 @@
     <col min="1" max="1" width="33" style="17" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" style="17" customWidth="1"/>
     <col min="3" max="76" width="13.54296875" style="18" customWidth="1"/>
-    <col min="77" max="16384" width="8.90625" style="18"/>
+    <col min="77" max="77" width="14.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="78" max="16384" width="8.90625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="18"/>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -19172,7 +19222,7 @@
       <c r="BW8" s="20"/>
       <c r="BX8" s="20"/>
     </row>
-    <row r="9" spans="1:76" s="35" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:77" s="35" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
@@ -19401,8 +19451,11 @@
       <c r="BX9" s="34">
         <v>2020</v>
       </c>
-    </row>
-    <row r="10" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY9" s="34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
@@ -19631,8 +19684,11 @@
       <c r="BX10" s="22">
         <v>1780544.4867078124</v>
       </c>
-    </row>
-    <row r="11" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY10" s="39">
+        <v>1775566.4208060256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>2</v>
       </c>
@@ -19861,8 +19917,11 @@
       <c r="BX11" s="22">
         <v>5112114.5948900562</v>
       </c>
-    </row>
-    <row r="12" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY11" s="39">
+        <v>5531828.6026823465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
@@ -20091,8 +20150,11 @@
       <c r="BX12" s="22">
         <v>10634575.023272617</v>
       </c>
-    </row>
-    <row r="13" spans="1:76" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY12" s="39">
+        <v>11201018.250514627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -20169,8 +20231,9 @@
       <c r="BV13" s="39"/>
       <c r="BW13" s="39"/>
       <c r="BX13" s="39"/>
-    </row>
-    <row r="14" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY13" s="39"/>
+    </row>
+    <row r="14" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>22</v>
       </c>
@@ -20387,20 +20450,23 @@
       <c r="BT14" s="28">
         <v>16062675.894969866</v>
       </c>
-      <c r="BU14" s="42">
+      <c r="BU14" s="40">
         <v>17175978.086071607</v>
       </c>
-      <c r="BV14" s="42">
+      <c r="BV14" s="40">
         <v>18265190.258161746</v>
       </c>
-      <c r="BW14" s="42">
+      <c r="BW14" s="40">
         <v>19382750.611423243</v>
       </c>
-      <c r="BX14" s="42">
+      <c r="BX14" s="28">
         <v>17527234.104870483</v>
       </c>
-    </row>
-    <row r="15" spans="1:76" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY14" s="28">
+        <v>18508413.274002999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>19</v>
       </c>
@@ -20480,7 +20546,7 @@
       <c r="BW15" s="22"/>
       <c r="BX15" s="20"/>
     </row>
-    <row r="16" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -20879,7 +20945,7 @@
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -21120,7 +21186,7 @@
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -21583,7 +21649,10 @@
         <v>99</v>
       </c>
       <c r="BW27" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="BX27" s="32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -21806,11 +21875,14 @@
       <c r="BU28" s="30">
         <v>1.1176535637619054</v>
       </c>
-      <c r="BV28" s="40">
+      <c r="BV28" s="30">
         <v>1.2049501817730714</v>
       </c>
-      <c r="BW28" s="41">
+      <c r="BW28" s="38">
         <v>-0.18559021204450232</v>
+      </c>
+      <c r="BX28" s="38">
+        <v>-0.2795811022386232</v>
       </c>
     </row>
     <row r="29" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -22033,11 +22105,14 @@
       <c r="BU29" s="30">
         <v>7.302984107180805</v>
       </c>
-      <c r="BV29" s="40">
+      <c r="BV29" s="30">
         <v>5.4696287387019566</v>
       </c>
-      <c r="BW29" s="41">
+      <c r="BW29" s="38">
         <v>-13.17546538371063</v>
+      </c>
+      <c r="BX29" s="38">
+        <v>8.210183868175136</v>
       </c>
     </row>
     <row r="30" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -22260,11 +22335,14 @@
       <c r="BU30" s="30">
         <v>6.742605900669929</v>
       </c>
-      <c r="BV30" s="40">
+      <c r="BV30" s="30">
         <v>7.2433588277661016</v>
       </c>
-      <c r="BW30" s="41">
+      <c r="BW30" s="38">
         <v>-9.1917793836271926</v>
+      </c>
+      <c r="BX30" s="38">
+        <v>5.3264303087091776</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -22341,8 +22419,9 @@
       <c r="BS31" s="30"/>
       <c r="BT31" s="30"/>
       <c r="BU31" s="30"/>
-      <c r="BV31" s="41"/>
-      <c r="BW31" s="41"/>
+      <c r="BV31" s="38"/>
+      <c r="BW31" s="38"/>
+      <c r="BX31" s="38"/>
     </row>
     <row r="32" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
@@ -22564,11 +22643,14 @@
       <c r="BU32" s="31">
         <v>6.3414855714878371</v>
       </c>
-      <c r="BV32" s="40">
+      <c r="BV32" s="31">
         <v>6.1185256625625186</v>
       </c>
-      <c r="BW32" s="41">
+      <c r="BW32" s="31">
         <v>-9.5730298746103131</v>
+      </c>
+      <c r="BX32" s="31">
+        <v>5.5980262673610497</v>
       </c>
     </row>
     <row r="33" spans="1:77" x14ac:dyDescent="0.3">
@@ -22976,7 +23058,7 @@
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -23214,7 +23296,7 @@
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -23679,6 +23761,9 @@
       <c r="BX45" s="34">
         <v>2020</v>
       </c>
+      <c r="BY45" s="34">
+        <v>2021</v>
+      </c>
     </row>
     <row r="46" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
@@ -23903,11 +23988,14 @@
       <c r="BV46" s="25">
         <v>9.6501403580565963</v>
       </c>
-      <c r="BW46" s="25">
+      <c r="BW46" s="30">
         <v>9.2033126929201607</v>
       </c>
-      <c r="BX46" s="25">
+      <c r="BX46" s="30">
         <v>10.158730556426089</v>
+      </c>
+      <c r="BY46" s="38">
+        <v>9.593293571524006</v>
       </c>
     </row>
     <row r="47" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -24133,11 +24221,14 @@
       <c r="BV47" s="25">
         <v>30.563740154978014</v>
       </c>
-      <c r="BW47" s="25">
+      <c r="BW47" s="30">
         <v>30.37684802804343</v>
       </c>
-      <c r="BX47" s="25">
+      <c r="BX47" s="30">
         <v>29.166693183321474</v>
+      </c>
+      <c r="BY47" s="38">
+        <v>29.888183934450925</v>
       </c>
     </row>
     <row r="48" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -24363,14 +24454,17 @@
       <c r="BV48" s="25">
         <v>59.786119486965397</v>
       </c>
-      <c r="BW48" s="25">
+      <c r="BW48" s="30">
         <v>60.419839279036417</v>
       </c>
-      <c r="BX48" s="25">
+      <c r="BX48" s="30">
         <v>60.674576260252444</v>
       </c>
-    </row>
-    <row r="49" spans="1:76" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY48" s="38">
+        <v>60.518522494025071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -24445,9 +24539,11 @@
       <c r="BT49" s="25"/>
       <c r="BU49" s="25"/>
       <c r="BV49" s="25"/>
-      <c r="BW49" s="25"/>
-    </row>
-    <row r="50" spans="1:76" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BW49" s="30"/>
+      <c r="BX49" s="38"/>
+      <c r="BY49" s="38"/>
+    </row>
+    <row r="50" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
         <v>22</v>
       </c>
@@ -24670,14 +24766,17 @@
       <c r="BV50" s="36">
         <v>100</v>
       </c>
-      <c r="BW50" s="36">
+      <c r="BW50" s="31">
         <v>100</v>
       </c>
-      <c r="BX50" s="36">
+      <c r="BX50" s="31">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY50" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
@@ -24756,7 +24855,7 @@
       <c r="BV51" s="26"/>
       <c r="BW51" s="26"/>
     </row>
-    <row r="52" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -24833,7 +24932,7 @@
       <c r="BW52" s="26"/>
       <c r="BX52" s="26"/>
     </row>
-    <row r="53" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -24910,7 +25009,7 @@
       <c r="BW53" s="26"/>
       <c r="BX53" s="26"/>
     </row>
-    <row r="54" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -24987,7 +25086,7 @@
       <c r="BW54" s="26"/>
       <c r="BX54" s="26"/>
     </row>
-    <row r="55" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -25064,7 +25163,7 @@
       <c r="BW55" s="26"/>
       <c r="BX55" s="26"/>
     </row>
-    <row r="56" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -25141,7 +25240,7 @@
       <c r="BW56" s="26"/>
       <c r="BX56" s="26"/>
     </row>
-    <row r="57" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -25218,7 +25317,7 @@
       <c r="BW57" s="26"/>
       <c r="BX57" s="26"/>
     </row>
-    <row r="58" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -25295,7 +25394,7 @@
       <c r="BW58" s="26"/>
       <c r="BX58" s="26"/>
     </row>
-    <row r="59" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -25372,7 +25471,7 @@
       <c r="BW59" s="26"/>
       <c r="BX59" s="26"/>
     </row>
-    <row r="60" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -25481,34 +25580,34 @@
   <sheetData>
     <row r="1" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="Q1" s="44" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
@@ -25551,22 +25650,22 @@
       <c r="P2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44" t="s">
+      <c r="T2" s="42"/>
+      <c r="U2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="44"/>
+      <c r="X2" s="42"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonny Gutierrez\Desktop\Web Release\Q4 2021\Time Series data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1375B-3EDF-4D3A-A976-DCCC0E8DA2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F2097-2D6E-415C-A5AB-D228291D6969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>1946 to 2021</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of April 2022</t>
   </si>
 </sst>
 </file>
@@ -12635,8 +12635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY23" sqref="BY23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12660,7 +12660,7 @@
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.3">
@@ -12673,7 +12673,7 @@
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.3">
@@ -13220,10 +13220,10 @@
         <v>1721538.7202586958</v>
       </c>
       <c r="BX10" s="22">
-        <v>1827010.1925432752</v>
+        <v>1828423.6032281048</v>
       </c>
       <c r="BY10" s="39">
-        <v>1953776.0783524239</v>
+        <v>1954344.6438962959</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -13453,10 +13453,10 @@
         <v>5919281.4913050616</v>
       </c>
       <c r="BX11" s="22">
-        <v>5094221.5462210681</v>
+        <v>5098232.0991026135</v>
       </c>
       <c r="BY11" s="39">
-        <v>5595945.8269927409</v>
+        <v>5607010.531934266</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -13686,10 +13686,10 @@
         <v>11877042.96011826</v>
       </c>
       <c r="BX12" s="22">
-        <v>11017350.685417993</v>
+        <v>11024917.867682004</v>
       </c>
       <c r="BY12" s="39">
-        <v>11837487.738385253</v>
+        <v>11849212.879294824</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -13998,10 +13998,10 @@
         <v>19517863.171682019</v>
       </c>
       <c r="BX14" s="28">
-        <v>17938582.424182337</v>
+        <v>17951573.570012722</v>
       </c>
       <c r="BY14" s="28">
-        <v>19387209.643730417</v>
+        <v>19410568.055125386</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -14483,7 +14483,7 @@
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -15190,7 +15190,7 @@
         <v>105</v>
       </c>
       <c r="BX27" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -15417,10 +15417,10 @@
         <v>-2.330499935733414</v>
       </c>
       <c r="BW28" s="38">
-        <v>6.1265814729238457</v>
+        <v>6.2086830642616775</v>
       </c>
       <c r="BX28" s="38">
-        <v>6.9384334212544871</v>
+        <v>6.886863659267803</v>
       </c>
     </row>
     <row r="29" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -15647,10 +15647,10 @@
         <v>6.0323273883342381</v>
       </c>
       <c r="BW29" s="38">
-        <v>-13.938515110253476</v>
+        <v>-13.870761061262286</v>
       </c>
       <c r="BX29" s="38">
-        <v>9.848890084960189</v>
+        <v>9.9795070711121099</v>
       </c>
     </row>
     <row r="30" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -15877,10 +15877,10 @@
         <v>8.7636468856581757</v>
       </c>
       <c r="BW30" s="38">
-        <v>-7.2382686295487417</v>
+        <v>-7.1745559504802117</v>
       </c>
       <c r="BX30" s="38">
-        <v>7.4440496303049599</v>
+        <v>7.4766544431965798</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -16185,10 +16185,10 @@
         <v>6.8582527519006788</v>
       </c>
       <c r="BW32" s="31">
-        <v>-8.0914633615785476</v>
+        <v>-8.0249030741325669</v>
       </c>
       <c r="BX32" s="31">
-        <v>8.0754832533212806</v>
+        <v>8.1273905010190788</v>
       </c>
     </row>
     <row r="33" spans="1:77" x14ac:dyDescent="0.3">
@@ -16596,7 +16596,7 @@
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -16834,7 +16834,7 @@
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -17530,10 +17530,10 @@
         <v>8.8203237471017495</v>
       </c>
       <c r="BX46" s="38">
-        <v>10.184808082049731</v>
+        <v>10.185311031910887</v>
       </c>
       <c r="BY46" s="38">
-        <v>10.077654877911998</v>
+        <v>10.068456720823523</v>
       </c>
     </row>
     <row r="47" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -17763,10 +17763,10 @@
         <v>30.327507879516236</v>
       </c>
       <c r="BX47" s="38">
-        <v>28.398127710212695</v>
+        <v>28.399917585046559</v>
       </c>
       <c r="BY47" s="38">
-        <v>28.864111596391595</v>
+        <v>28.88638042951931</v>
       </c>
     </row>
     <row r="48" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -17996,10 +17996,10 @@
         <v>60.852168373382007</v>
       </c>
       <c r="BX48" s="38">
-        <v>61.417064207737567</v>
+        <v>61.414771383042556</v>
       </c>
       <c r="BY48" s="38">
-        <v>61.058233525696402</v>
+        <v>61.045162849657167</v>
       </c>
     </row>
     <row r="49" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -19097,8 +19097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV58" sqref="BV58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ50" sqref="BQ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19122,7 +19122,7 @@
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.3">
@@ -19135,7 +19135,7 @@
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.3">
@@ -19682,10 +19682,10 @@
         <v>1783855.1472581755</v>
       </c>
       <c r="BX10" s="22">
-        <v>1780544.4867078124</v>
+        <v>1780390.5640921535</v>
       </c>
       <c r="BY10" s="39">
-        <v>1775566.4208060256</v>
+        <v>1775358.080234726</v>
       </c>
     </row>
     <row r="11" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -19915,10 +19915,10 @@
         <v>5887868.6968866969</v>
       </c>
       <c r="BX11" s="22">
-        <v>5112114.5948900562</v>
+        <v>5115315.7129913447</v>
       </c>
       <c r="BY11" s="39">
-        <v>5531828.6026823465</v>
+        <v>5549484.2684873901</v>
       </c>
     </row>
     <row r="12" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -20148,10 +20148,10 @@
         <v>11711026.767278371</v>
       </c>
       <c r="BX12" s="22">
-        <v>10634575.023272617</v>
+        <v>10642137.002289824</v>
       </c>
       <c r="BY12" s="39">
-        <v>11201018.250514627</v>
+        <v>11213211.486368531</v>
       </c>
     </row>
     <row r="13" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -20460,10 +20460,10 @@
         <v>19382750.611423243</v>
       </c>
       <c r="BX14" s="28">
-        <v>17527234.104870483</v>
+        <v>17537843.279373322</v>
       </c>
       <c r="BY14" s="28">
-        <v>18508413.274002999</v>
+        <v>18538053.835090648</v>
       </c>
     </row>
     <row r="15" spans="1:77" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -20945,7 +20945,7 @@
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -21186,7 +21186,7 @@
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -21652,7 +21652,7 @@
         <v>105</v>
       </c>
       <c r="BX27" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -21879,10 +21879,10 @@
         <v>1.2049501817730714</v>
       </c>
       <c r="BW28" s="38">
-        <v>-0.18559021204450232</v>
+        <v>-0.19421886196013816</v>
       </c>
       <c r="BX28" s="38">
-        <v>-0.2795811022386232</v>
+        <v>-0.28266179112186762</v>
       </c>
     </row>
     <row r="29" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -22109,10 +22109,10 @@
         <v>5.4696287387019566</v>
       </c>
       <c r="BW29" s="38">
-        <v>-13.17546538371063</v>
+        <v>-13.121097355718064</v>
       </c>
       <c r="BX29" s="38">
-        <v>8.210183868175136</v>
+        <v>8.4876199213547778</v>
       </c>
     </row>
     <row r="30" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -22339,10 +22339,10 @@
         <v>7.2433588277661016</v>
       </c>
       <c r="BW30" s="38">
-        <v>-9.1917793836271926</v>
+        <v>-9.1272079402560848</v>
       </c>
       <c r="BX30" s="38">
-        <v>5.3264303087091776</v>
+        <v>5.366163618790381</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">
@@ -22647,10 +22647,10 @@
         <v>6.1185256625625186</v>
       </c>
       <c r="BW32" s="31">
-        <v>-9.5730298746103131</v>
+        <v>-9.5182947406990905</v>
       </c>
       <c r="BX32" s="31">
-        <v>5.5980262673610497</v>
+        <v>5.7031559684063211</v>
       </c>
     </row>
     <row r="33" spans="1:77" x14ac:dyDescent="0.3">
@@ -23058,7 +23058,7 @@
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -23296,7 +23296,7 @@
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
@@ -23992,10 +23992,10 @@
         <v>9.2033126929201607</v>
       </c>
       <c r="BX46" s="30">
-        <v>10.158730556426089</v>
+        <v>10.151707571626629</v>
       </c>
       <c r="BY46" s="38">
-        <v>9.593293571524006</v>
+        <v>9.5768309663345228</v>
       </c>
     </row>
     <row r="47" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -24225,10 +24225,10 @@
         <v>30.37684802804343</v>
       </c>
       <c r="BX47" s="30">
-        <v>29.166693183321474</v>
+        <v>29.167301996634841</v>
       </c>
       <c r="BY47" s="38">
-        <v>29.888183934450925</v>
+        <v>29.93563573530454</v>
       </c>
     </row>
     <row r="48" spans="1:77" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -24458,10 +24458,10 @@
         <v>60.419839279036417</v>
       </c>
       <c r="BX48" s="30">
-        <v>60.674576260252444</v>
+        <v>60.680990431738536</v>
       </c>
       <c r="BY48" s="38">
-        <v>60.518522494025071</v>
+        <v>60.48753329836093</v>
       </c>
     </row>
     <row r="49" spans="1:77" ht="10" customHeight="1" x14ac:dyDescent="0.3">

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\long series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\EIAD\2023\3 NAP\Post Estimation and Consolidation\GDP Longer Series\As of April 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797C6D43-835A-4A72-956A-6F35D58AB5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4710F267-5894-4CA0-804E-EA75C8EEC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -381,9 +381,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -508,22 +508,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -533,25 +533,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,20 +563,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12634,9 +12634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BZ60"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX50" sqref="BX50:BZ50"/>
+    <sheetView topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CB47" sqref="CB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13151,10 +13151,10 @@
         <v>1828423.6032281048</v>
       </c>
       <c r="BY10" s="35">
-        <v>1954344.6438962959</v>
+        <v>1954486.610016682</v>
       </c>
       <c r="BZ10" s="35">
-        <v>2103372.175146543</v>
+        <v>2103198.0426698043</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13387,10 +13387,10 @@
         <v>5098232.0991026135</v>
       </c>
       <c r="BY11" s="35">
-        <v>5607010.531934266</v>
+        <v>5607689.4737621192</v>
       </c>
       <c r="BZ11" s="35">
-        <v>6440975.2716105273</v>
+        <v>6436936.9340471178</v>
       </c>
     </row>
     <row r="12" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13623,10 +13623,10 @@
         <v>11024917.867682004</v>
       </c>
       <c r="BY12" s="35">
-        <v>11849212.879294824</v>
+        <v>11848438.402404422</v>
       </c>
       <c r="BZ12" s="35">
-        <v>13478930.546137663</v>
+        <v>13484380.023909081</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -13939,10 +13939,10 @@
         <v>17951573.570012722</v>
       </c>
       <c r="BY14" s="24">
-        <v>19410568.055125386</v>
+        <v>19410614.486183222</v>
       </c>
       <c r="BZ14" s="24">
-        <v>22023277.992894731</v>
+        <v>22024515.000626005</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15353,10 +15353,10 @@
         <v>6.2086830642616775</v>
       </c>
       <c r="BX28" s="34">
-        <v>6.886863659267803</v>
+        <v>6.8946280591658962</v>
       </c>
       <c r="BY28" s="34">
-        <v>7.6254478305902751</v>
+        <v>7.6087209751645872</v>
       </c>
     </row>
     <row r="29" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15586,10 +15586,10 @@
         <v>-13.870761061262286</v>
       </c>
       <c r="BX29" s="34">
-        <v>9.9795070711121099</v>
+        <v>9.9928242723429577</v>
       </c>
       <c r="BY29" s="34">
-        <v>14.87360751199742</v>
+        <v>14.787685091426226</v>
       </c>
     </row>
     <row r="30" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15819,10 +15819,10 @@
         <v>-7.1745559504802117</v>
       </c>
       <c r="BX30" s="34">
-        <v>7.4766544431965798</v>
+        <v>7.4696296571646172</v>
       </c>
       <c r="BY30" s="34">
-        <v>13.753805281788715</v>
+        <v>13.807234050123228</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -16131,10 +16131,10 @@
         <v>-8.0249030741325669</v>
       </c>
       <c r="BX32" s="27">
-        <v>8.1273905010190788</v>
+        <v>8.1276491471909793</v>
       </c>
       <c r="BY32" s="27">
-        <v>13.46024459639375</v>
+        <v>13.466346036099978</v>
       </c>
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.2">
@@ -17480,10 +17480,10 @@
         <v>10.185311031910887</v>
       </c>
       <c r="BY46" s="34">
-        <v>10.068456720823523</v>
+        <v>10.069164020582223</v>
       </c>
       <c r="BZ46" s="34">
-        <v>9.5506771327372082</v>
+        <v>9.5493500883448501</v>
       </c>
     </row>
     <row r="47" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17716,10 +17716,10 @@
         <v>28.399917585046559</v>
       </c>
       <c r="BY47" s="34">
-        <v>28.88638042951931</v>
+        <v>28.88980911837572</v>
       </c>
       <c r="BZ47" s="34">
-        <v>29.246215180540108</v>
+        <v>29.226236917653626</v>
       </c>
     </row>
     <row r="48" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17952,10 +17952,10 @@
         <v>61.414771383042556</v>
       </c>
       <c r="BY48" s="34">
-        <v>61.045162849657167</v>
+        <v>61.041026861042056</v>
       </c>
       <c r="BZ48" s="34">
-        <v>61.203107686722689</v>
+        <v>61.224412994001518</v>
       </c>
     </row>
     <row r="49" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -19058,8 +19058,8 @@
   <dimension ref="A1:BZ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A43" sqref="A43"/>
+      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA7" sqref="CA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19574,10 +19574,10 @@
         <v>1780390.5640921535</v>
       </c>
       <c r="BY10" s="35">
-        <v>1775358.080234726</v>
+        <v>1775210.3171187984</v>
       </c>
       <c r="BZ10" s="35">
-        <v>1783729.463772893</v>
+        <v>1783498.9562229416</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19810,10 +19810,10 @@
         <v>5115315.7129913447</v>
       </c>
       <c r="BY11" s="35">
-        <v>5549484.2684873901</v>
+        <v>5551621.8662187792</v>
       </c>
       <c r="BZ11" s="35">
-        <v>5923397.8983245566</v>
+        <v>5914703.2127513792</v>
       </c>
     </row>
     <row r="12" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20046,10 +20046,10 @@
         <v>10642137.002289824</v>
       </c>
       <c r="BY12" s="35">
-        <v>11213211.486368531</v>
+        <v>11213252.036594167</v>
       </c>
       <c r="BZ12" s="35">
-        <v>12239676.794656362</v>
+        <v>12245428.06999575</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -20362,10 +20362,10 @@
         <v>17537843.279373322</v>
       </c>
       <c r="BY14" s="24">
-        <v>18538053.835090648</v>
+        <v>18540084.219931744</v>
       </c>
       <c r="BZ14" s="24">
-        <v>19946804.156753812</v>
+        <v>19943630.238970071</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21778,10 +21778,10 @@
         <v>-0.19421886196013816</v>
       </c>
       <c r="BX28" s="34">
-        <v>-0.28266179112186762</v>
+        <v>-0.2909612687144687</v>
       </c>
       <c r="BY28" s="34">
-        <v>0.47153211689330021</v>
+        <v>0.46691025982745771</v>
       </c>
     </row>
     <row r="29" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22011,10 +22011,10 @@
         <v>-13.121097355718064</v>
       </c>
       <c r="BX29" s="34">
-        <v>8.4876199213547778</v>
+        <v>8.5294081090508342</v>
       </c>
       <c r="BY29" s="34">
-        <v>6.7378086277390707</v>
+        <v>6.5400950439712773</v>
       </c>
     </row>
     <row r="30" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22244,10 +22244,10 @@
         <v>-9.1272079402560848</v>
       </c>
       <c r="BX30" s="34">
-        <v>5.366163618790381</v>
+        <v>5.3665446534042758</v>
       </c>
       <c r="BY30" s="34">
-        <v>9.1540707096772849</v>
+        <v>9.204965963781973</v>
       </c>
     </row>
     <row r="31" spans="1:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -22556,10 +22556,10 @@
         <v>-9.5182947406990905</v>
       </c>
       <c r="BX32" s="27">
-        <v>5.7031559684063211</v>
+        <v>5.7147331321929471</v>
       </c>
       <c r="BY32" s="27">
-        <v>7.5992352498002873</v>
+        <v>7.5703324881848602</v>
       </c>
     </row>
     <row r="33" spans="1:78" x14ac:dyDescent="0.2">
@@ -23906,10 +23906,10 @@
         <v>10.151707571626629</v>
       </c>
       <c r="BY46" s="34">
-        <v>9.5768309663345228</v>
+        <v>9.5749851837800009</v>
       </c>
       <c r="BZ46" s="34">
-        <v>8.9424323302885487</v>
+        <v>8.9426996732920028</v>
       </c>
     </row>
     <row r="47" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24142,10 +24142,10 @@
         <v>29.167301996634841</v>
       </c>
       <c r="BY47" s="34">
-        <v>29.93563573530454</v>
+        <v>29.943886987581429</v>
       </c>
       <c r="BZ47" s="34">
-        <v>29.695974612148312</v>
+        <v>29.657104257749346</v>
       </c>
     </row>
     <row r="48" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24378,10 +24378,10 @@
         <v>60.680990431738536</v>
       </c>
       <c r="BY48" s="34">
-        <v>60.48753329836093</v>
+        <v>60.481127828638584</v>
       </c>
       <c r="BZ48" s="34">
-        <v>61.361593057563134</v>
+        <v>61.400196068958643</v>
       </c>
     </row>
     <row r="49" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\EIAD\2023\3 NAP\Post Estimation and Consolidation\GDP Longer Series\As of April 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rice\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4710F267-5894-4CA0-804E-EA75C8EEC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5033C566-F2B3-4343-BBF2-7841B5478654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
   <si>
     <t>Old</t>
   </si>
@@ -364,26 +364,35 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
-    <t>1946 to 2022</t>
-  </si>
-  <si>
     <t>2021 - 2022</t>
   </si>
   <si>
     <t>2021-2022</t>
+  </si>
+  <si>
+    <t>As of January 2024</t>
+  </si>
+  <si>
+    <t>1946 to 2023</t>
+  </si>
+  <si>
+    <t>2022 - 2023</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;\-;@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -453,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -505,25 +514,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -533,25 +564,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,28 +594,627 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{EB0E2161-8EE0-405A-8483-C7BA2DF27795}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{67E269D4-9A37-48F3-B6C6-41F9C454DEC8}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -12632,11 +13262,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BZ60"/>
+  <dimension ref="A1:CA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB47" sqref="CB47"/>
+      <selection pane="topRight" activeCell="CC62" sqref="CC62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12645,47 +13275,48 @@
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
     <col min="3" max="76" width="13.5703125" style="17" customWidth="1"/>
     <col min="77" max="78" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.85546875" style="17"/>
+    <col min="79" max="79" width="12.7109375" style="17" customWidth="1"/>
+    <col min="80" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:78" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -12920,8 +13551,11 @@
       <c r="BZ9" s="30">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA9" s="30">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -13153,11 +13787,14 @@
       <c r="BY10" s="35">
         <v>1954486.610016682</v>
       </c>
-      <c r="BZ10" s="35">
+      <c r="BZ10" s="40">
         <v>2103198.0426698043</v>
       </c>
-    </row>
-    <row r="11" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA10" s="40">
+        <v>2284664.6740361881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -13389,11 +14026,14 @@
       <c r="BY11" s="35">
         <v>5607689.4737621192</v>
       </c>
-      <c r="BZ11" s="35">
+      <c r="BZ11" s="40">
         <v>6436936.9340471178</v>
       </c>
-    </row>
-    <row r="12" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA11" s="40">
+        <v>6833588.4297253685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -13625,11 +14265,14 @@
       <c r="BY12" s="35">
         <v>11848438.402404422</v>
       </c>
-      <c r="BZ12" s="35">
+      <c r="BZ12" s="40">
         <v>13484380.023909081</v>
       </c>
-    </row>
-    <row r="13" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA12" s="40">
+        <v>15171172.844215605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -13709,7 +14352,7 @@
       <c r="BY13" s="35"/>
       <c r="BZ13" s="35"/>
     </row>
-    <row r="14" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -13941,11 +14584,14 @@
       <c r="BY14" s="24">
         <v>19410614.486183222</v>
       </c>
-      <c r="BZ14" s="24">
+      <c r="BZ14" s="41">
         <v>22024515.000626005</v>
       </c>
-    </row>
-    <row r="15" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA14" s="41">
+        <v>24289425.947977163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -14024,7 +14670,7 @@
       <c r="BV15" s="19"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -14101,7 +14747,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -14178,7 +14824,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -14256,7 +14902,7 @@
       <c r="BW18" s="19"/>
       <c r="BX18" s="19"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -14336,7 +14982,7 @@
       <c r="BW19" s="19"/>
       <c r="BX19" s="19"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -14416,9 +15062,9 @@
       <c r="BW20" s="19"/>
       <c r="BX20" s="19"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -14496,7 +15142,7 @@
       <c r="BW21" s="19"/>
       <c r="BX21" s="19"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -14574,7 +15220,7 @@
       <c r="BW22" s="19"/>
       <c r="BX22" s="19"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>102</v>
       </c>
@@ -14654,9 +15300,9 @@
       <c r="BW23" s="19"/>
       <c r="BX23" s="19"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -14734,7 +15380,7 @@
       <c r="BW24" s="19"/>
       <c r="BX24" s="19"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>104</v>
       </c>
@@ -14814,7 +15460,7 @@
       <c r="BW25" s="19"/>
       <c r="BX25" s="19"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -14893,7 +15539,7 @@
       <c r="BX26" s="19"/>
       <c r="BY26" s="19"/>
     </row>
-    <row r="27" spans="1:77" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:78" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -15123,10 +15769,13 @@
         <v>107</v>
       </c>
       <c r="BY27" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="BZ27" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -15355,11 +16004,14 @@
       <c r="BX28" s="34">
         <v>6.8946280591658962</v>
       </c>
-      <c r="BY28" s="34">
+      <c r="BY28" s="43">
         <v>7.6087209751645872</v>
       </c>
-    </row>
-    <row r="29" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ28" s="43">
+        <v>8.6281285777553194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -15588,11 +16240,14 @@
       <c r="BX29" s="34">
         <v>9.9928242723429577</v>
       </c>
-      <c r="BY29" s="34">
+      <c r="BY29" s="43">
         <v>14.787685091426226</v>
       </c>
-    </row>
-    <row r="30" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ29" s="43">
+        <v>6.1621156109240189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -15821,11 +16476,14 @@
       <c r="BX30" s="34">
         <v>7.4696296571646172</v>
       </c>
-      <c r="BY30" s="34">
+      <c r="BY30" s="43">
         <v>13.807234050123228</v>
       </c>
-    </row>
-    <row r="31" spans="1:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ30" s="43">
+        <v>12.509235258244587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -15904,7 +16562,7 @@
       <c r="BX31" s="34"/>
       <c r="BY31" s="34"/>
     </row>
-    <row r="32" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -16133,17 +16791,20 @@
       <c r="BX32" s="27">
         <v>8.1276491471909793</v>
       </c>
-      <c r="BY32" s="27">
+      <c r="BY32" s="44">
         <v>13.466346036099978</v>
       </c>
-    </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BZ32" s="44">
+        <v>10.283590568449668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -16222,7 +16883,7 @@
       <c r="BX34" s="19"/>
       <c r="BY34" s="19"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -16300,7 +16961,7 @@
       <c r="BW35" s="19"/>
       <c r="BX35" s="19"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -16378,7 +17039,7 @@
       <c r="BW36" s="19"/>
       <c r="BX36" s="19"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -16458,7 +17119,7 @@
       <c r="BW37" s="19"/>
       <c r="BX37" s="19"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -16538,9 +17199,9 @@
       <c r="BW38" s="19"/>
       <c r="BX38" s="19"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -16618,7 +17279,7 @@
       <c r="BW39" s="19"/>
       <c r="BX39" s="19"/>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -16696,7 +17357,7 @@
       <c r="BW40" s="19"/>
       <c r="BX40" s="19"/>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>101</v>
       </c>
@@ -16776,9 +17437,9 @@
       <c r="BW41" s="19"/>
       <c r="BX41" s="19"/>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -16856,7 +17517,7 @@
       <c r="BW42" s="19"/>
       <c r="BX42" s="19"/>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>23</v>
       </c>
@@ -16936,7 +17597,7 @@
       <c r="BW43" s="19"/>
       <c r="BX43" s="19"/>
     </row>
-    <row r="44" spans="1:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:79" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -17013,8 +17674,9 @@
       <c r="BV44" s="19"/>
       <c r="BW44" s="19"/>
       <c r="BX44" s="19"/>
-    </row>
-    <row r="45" spans="1:78" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA44" s="42"/>
+    </row>
+    <row r="45" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>20</v>
       </c>
@@ -17249,8 +17911,11 @@
       <c r="BZ45" s="30">
         <v>2022</v>
       </c>
-    </row>
-    <row r="46" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA45" s="45">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>21</v>
       </c>
@@ -17482,11 +18147,14 @@
       <c r="BY46" s="34">
         <v>10.069164020582223</v>
       </c>
-      <c r="BZ46" s="34">
+      <c r="BZ46" s="43">
         <v>9.5493500883448501</v>
       </c>
-    </row>
-    <row r="47" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA46" s="43">
+        <v>9.4060052260166991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -17718,11 +18386,14 @@
       <c r="BY47" s="34">
         <v>28.88980911837572</v>
       </c>
-      <c r="BZ47" s="34">
+      <c r="BZ47" s="43">
         <v>29.226236917653626</v>
       </c>
-    </row>
-    <row r="48" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA47" s="43">
+        <v>28.134005490131699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
@@ -17954,11 +18625,14 @@
       <c r="BY48" s="34">
         <v>61.041026861042056</v>
       </c>
-      <c r="BZ48" s="34">
+      <c r="BZ48" s="43">
         <v>61.224412994001518</v>
       </c>
-    </row>
-    <row r="49" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA48" s="43">
+        <v>62.459989283851606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -18038,7 +18712,7 @@
       <c r="BY49" s="34"/>
       <c r="BZ49" s="34"/>
     </row>
-    <row r="50" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>22</v>
       </c>
@@ -18273,8 +18947,11 @@
       <c r="BZ50" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA50" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -18353,7 +19030,7 @@
       <c r="BW51" s="22"/>
       <c r="BX51" s="22"/>
     </row>
-    <row r="52" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -18430,7 +19107,7 @@
       <c r="BW52" s="22"/>
       <c r="BX52" s="22"/>
     </row>
-    <row r="53" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -18507,7 +19184,7 @@
       <c r="BW53" s="22"/>
       <c r="BX53" s="22"/>
     </row>
-    <row r="54" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -18584,7 +19261,7 @@
       <c r="BW54" s="22"/>
       <c r="BX54" s="22"/>
     </row>
-    <row r="55" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -18661,7 +19338,7 @@
       <c r="BW55" s="22"/>
       <c r="BX55" s="22"/>
     </row>
-    <row r="56" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -18738,7 +19415,7 @@
       <c r="BW56" s="22"/>
       <c r="BX56" s="22"/>
     </row>
-    <row r="57" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -18815,7 +19492,7 @@
       <c r="BW57" s="22"/>
       <c r="BX57" s="22"/>
     </row>
-    <row r="58" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -18892,7 +19569,7 @@
       <c r="BW58" s="22"/>
       <c r="BX58" s="22"/>
     </row>
-    <row r="59" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -18969,7 +19646,7 @@
       <c r="BW59" s="22"/>
       <c r="BX59" s="22"/>
     </row>
-    <row r="60" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -19048,6 +19725,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="BZ46:CA46">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ47:CA47">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ48:CA48">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19055,11 +19747,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:BZ60"/>
+  <dimension ref="A1:CA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA7" sqref="CA7"/>
+      <selection pane="topRight" activeCell="CG39" sqref="CG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19068,47 +19760,48 @@
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
     <col min="3" max="76" width="13.5703125" style="17" customWidth="1"/>
     <col min="77" max="78" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.85546875" style="17"/>
+    <col min="79" max="79" width="13.28515625" style="17" customWidth="1"/>
+    <col min="80" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:78" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -19343,8 +20036,11 @@
       <c r="BZ9" s="30">
         <v>2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA9" s="30">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -19576,11 +20272,14 @@
       <c r="BY10" s="35">
         <v>1775210.3171187984</v>
       </c>
-      <c r="BZ10" s="35">
+      <c r="BZ10" s="40">
         <v>1783498.9562229416</v>
       </c>
-    </row>
-    <row r="11" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA10" s="40">
+        <v>1805024.8557710028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -19812,11 +20511,14 @@
       <c r="BY11" s="35">
         <v>5551621.8662187792</v>
       </c>
-      <c r="BZ11" s="35">
+      <c r="BZ11" s="40">
         <v>5914703.2127513792</v>
       </c>
-    </row>
-    <row r="12" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA11" s="40">
+        <v>6127917.0578185515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -20048,11 +20750,14 @@
       <c r="BY12" s="35">
         <v>11213252.036594167</v>
       </c>
-      <c r="BZ12" s="35">
+      <c r="BZ12" s="40">
         <v>12245428.06999575</v>
       </c>
-    </row>
-    <row r="13" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA12" s="40">
+        <v>13121165.52833207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -20132,7 +20837,7 @@
       <c r="BY13" s="35"/>
       <c r="BZ13" s="35"/>
     </row>
-    <row r="14" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20364,11 +21069,14 @@
       <c r="BY14" s="24">
         <v>18540084.219931744</v>
       </c>
-      <c r="BZ14" s="24">
+      <c r="BZ14" s="40">
         <v>19943630.238970071</v>
       </c>
-    </row>
-    <row r="15" spans="1:78" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA14" s="40">
+        <v>21054107.441921622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -20447,7 +21155,7 @@
       <c r="BV15" s="19"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -20524,7 +21232,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -20601,7 +21309,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -20679,7 +21387,7 @@
       <c r="BW18" s="19"/>
       <c r="BX18" s="19"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -20759,7 +21467,7 @@
       <c r="BW19" s="19"/>
       <c r="BX19" s="19"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -20839,9 +21547,9 @@
       <c r="BW20" s="19"/>
       <c r="BX20" s="19"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -20919,7 +21627,7 @@
       <c r="BW21" s="19"/>
       <c r="BX21" s="19"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -20997,7 +21705,7 @@
       <c r="BW22" s="19"/>
       <c r="BX22" s="19"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -21077,9 +21785,9 @@
       <c r="BW23" s="19"/>
       <c r="BX23" s="19"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -21158,7 +21866,7 @@
       <c r="BX24" s="19"/>
       <c r="BY24" s="19"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
@@ -21239,7 +21947,7 @@
       <c r="BX25" s="19"/>
       <c r="BY25" s="19"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -21317,8 +22025,9 @@
       <c r="BW26" s="19"/>
       <c r="BX26" s="19"/>
       <c r="BY26" s="19"/>
-    </row>
-    <row r="27" spans="1:77" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ26" s="42"/>
+    </row>
+    <row r="27" spans="1:78" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -21548,10 +22257,13 @@
         <v>106</v>
       </c>
       <c r="BY27" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="BZ27" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -21780,11 +22492,14 @@
       <c r="BX28" s="34">
         <v>-0.2909612687144687</v>
       </c>
-      <c r="BY28" s="34">
+      <c r="BY28" s="43">
         <v>0.46691025982745771</v>
       </c>
-    </row>
-    <row r="29" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ28" s="43">
+        <v>1.2069476953128202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -22013,11 +22728,14 @@
       <c r="BX29" s="34">
         <v>8.5294081090508342</v>
       </c>
-      <c r="BY29" s="34">
+      <c r="BY29" s="43">
         <v>6.5400950439712773</v>
       </c>
-    </row>
-    <row r="30" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ29" s="43">
+        <v>3.6048105441285543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -22246,11 +22964,14 @@
       <c r="BX30" s="34">
         <v>5.3665446534042758</v>
       </c>
-      <c r="BY30" s="34">
+      <c r="BY30" s="43">
         <v>9.204965963781973</v>
       </c>
-    </row>
-    <row r="31" spans="1:77" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ30" s="43">
+        <v>7.1515463022651602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -22327,9 +23048,10 @@
       <c r="BV31" s="34"/>
       <c r="BW31" s="34"/>
       <c r="BX31" s="34"/>
-      <c r="BY31" s="34"/>
-    </row>
-    <row r="32" spans="1:77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY31" s="26"/>
+      <c r="BZ31" s="46"/>
+    </row>
+    <row r="32" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -22558,17 +23280,20 @@
       <c r="BX32" s="27">
         <v>5.7147331321929471</v>
       </c>
-      <c r="BY32" s="27">
+      <c r="BY32" s="44">
         <v>7.5703324881848602</v>
       </c>
-    </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BZ32" s="44">
+        <v>5.5680795805252501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -22647,7 +23372,7 @@
       <c r="BX34" s="19"/>
       <c r="BY34" s="19"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -22726,7 +23451,7 @@
       <c r="BX35" s="19"/>
       <c r="BY35" s="19"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -22804,7 +23529,7 @@
       <c r="BW36" s="19"/>
       <c r="BX36" s="19"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -22884,7 +23609,7 @@
       <c r="BW37" s="19"/>
       <c r="BX37" s="19"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -22964,9 +23689,9 @@
       <c r="BW38" s="19"/>
       <c r="BX38" s="19"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -23044,7 +23769,7 @@
       <c r="BW39" s="19"/>
       <c r="BX39" s="19"/>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -23122,7 +23847,7 @@
       <c r="BW40" s="19"/>
       <c r="BX40" s="19"/>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>27</v>
       </c>
@@ -23202,9 +23927,9 @@
       <c r="BW41" s="19"/>
       <c r="BX41" s="19"/>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -23282,7 +24007,7 @@
       <c r="BW42" s="19"/>
       <c r="BX42" s="19"/>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>24</v>
       </c>
@@ -23362,7 +24087,7 @@
       <c r="BW43" s="19"/>
       <c r="BX43" s="19"/>
     </row>
-    <row r="44" spans="1:78" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:79" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -23439,8 +24164,9 @@
       <c r="BV44" s="19"/>
       <c r="BW44" s="19"/>
       <c r="BX44" s="19"/>
-    </row>
-    <row r="45" spans="1:78" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA44" s="42"/>
+    </row>
+    <row r="45" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>20</v>
       </c>
@@ -23675,8 +24401,11 @@
       <c r="BZ45" s="30">
         <v>2022</v>
       </c>
-    </row>
-    <row r="46" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA45" s="31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>21</v>
       </c>
@@ -23908,11 +24637,14 @@
       <c r="BY46" s="34">
         <v>9.5749851837800009</v>
       </c>
-      <c r="BZ46" s="34">
+      <c r="BZ46" s="43">
         <v>8.9426996732920028</v>
       </c>
-    </row>
-    <row r="47" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA46" s="43">
+        <v>8.5732670489604814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -24144,11 +24876,14 @@
       <c r="BY47" s="34">
         <v>29.943886987581429</v>
       </c>
-      <c r="BZ47" s="34">
+      <c r="BZ47" s="43">
         <v>29.657104257749346</v>
       </c>
-    </row>
-    <row r="48" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA47" s="43">
+        <v>29.105565622872366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
@@ -24380,11 +25115,14 @@
       <c r="BY48" s="34">
         <v>60.481127828638584</v>
       </c>
-      <c r="BZ48" s="34">
+      <c r="BZ48" s="43">
         <v>61.400196068958643</v>
       </c>
-    </row>
-    <row r="49" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA48" s="43">
+        <v>62.321167328167171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -24464,7 +25202,7 @@
       <c r="BY49" s="34"/>
       <c r="BZ49" s="34"/>
     </row>
-    <row r="50" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>22</v>
       </c>
@@ -24699,8 +25437,11 @@
       <c r="BZ50" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA50" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -24779,7 +25520,7 @@
       <c r="BV51" s="22"/>
       <c r="BW51" s="22"/>
     </row>
-    <row r="52" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -24856,7 +25597,7 @@
       <c r="BW52" s="22"/>
       <c r="BX52" s="22"/>
     </row>
-    <row r="53" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -24933,7 +25674,7 @@
       <c r="BW53" s="22"/>
       <c r="BX53" s="22"/>
     </row>
-    <row r="54" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -25010,7 +25751,7 @@
       <c r="BW54" s="22"/>
       <c r="BX54" s="22"/>
     </row>
-    <row r="55" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -25087,7 +25828,7 @@
       <c r="BW55" s="22"/>
       <c r="BX55" s="22"/>
     </row>
-    <row r="56" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -25164,7 +25905,7 @@
       <c r="BW56" s="22"/>
       <c r="BX56" s="22"/>
     </row>
-    <row r="57" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -25241,7 +25982,7 @@
       <c r="BW57" s="22"/>
       <c r="BX57" s="22"/>
     </row>
-    <row r="58" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -25318,7 +26059,7 @@
       <c r="BW58" s="22"/>
       <c r="BX58" s="22"/>
     </row>
-    <row r="59" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -25395,7 +26136,7 @@
       <c r="BW59" s="22"/>
       <c r="BX59" s="22"/>
     </row>
-    <row r="60" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -25474,6 +26215,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="BZ46:CA46">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ47:CA47">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ48:CA48">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rice\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\Consol\QNAP\For release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5033C566-F2B3-4343-BBF2-7841B5478654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520DCBE-4A7E-4D11-8DA2-CC9D05ADC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="28800" windowHeight="15225" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -370,9 +370,6 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>1946 to 2023</t>
   </si>
   <si>
@@ -381,18 +378,19 @@
   <si>
     <t>2022-2023</t>
   </si>
+  <si>
+    <t>As of April 2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;\-;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -462,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -514,34 +512,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -610,262 +589,19 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{EB0E2161-8EE0-405A-8483-C7BA2DF27795}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{25D81AEB-5D45-4C92-9B37-6B348D13D786}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{67E269D4-9A37-48F3-B6C6-41F9C454DEC8}"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -898,319 +634,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13264,18 +12690,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC62" sqref="CC62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BZ17" sqref="BZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
-    <col min="3" max="76" width="13.5703125" style="17" customWidth="1"/>
-    <col min="77" max="78" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.7109375" style="17" customWidth="1"/>
+    <col min="3" max="79" width="13.5703125" style="17" customWidth="1"/>
     <col min="80" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
@@ -13291,7 +12715,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.2">
@@ -13304,7 +12728,7 @@
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.2">
@@ -13784,14 +13208,14 @@
       <c r="BX10" s="19">
         <v>1828423.6032281048</v>
       </c>
-      <c r="BY10" s="35">
+      <c r="BY10" s="19">
         <v>1954486.610016682</v>
       </c>
-      <c r="BZ10" s="40">
-        <v>2103198.0426698043</v>
-      </c>
-      <c r="CA10" s="40">
-        <v>2284664.6740361881</v>
+      <c r="BZ10" s="19">
+        <v>2104089.8599160332</v>
+      </c>
+      <c r="CA10" s="19">
+        <v>2285159.1602593842</v>
       </c>
     </row>
     <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14023,14 +13447,14 @@
       <c r="BX11" s="19">
         <v>5098232.0991026135</v>
       </c>
-      <c r="BY11" s="35">
+      <c r="BY11" s="19">
         <v>5607689.4737621192</v>
       </c>
-      <c r="BZ11" s="40">
-        <v>6436936.9340471178</v>
-      </c>
-      <c r="CA11" s="40">
-        <v>6833588.4297253685</v>
+      <c r="BZ11" s="19">
+        <v>6436935.4825338954</v>
+      </c>
+      <c r="CA11" s="19">
+        <v>6853151.6059861928</v>
       </c>
     </row>
     <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14262,14 +13686,14 @@
       <c r="BX12" s="19">
         <v>11024917.867682004</v>
       </c>
-      <c r="BY12" s="35">
+      <c r="BY12" s="19">
         <v>11848438.402404422</v>
       </c>
-      <c r="BZ12" s="40">
-        <v>13484380.023909081</v>
-      </c>
-      <c r="CA12" s="40">
-        <v>15171172.844215605</v>
+      <c r="BZ12" s="19">
+        <v>13487250.995206343</v>
+      </c>
+      <c r="CA12" s="19">
+        <v>15180300.632823305</v>
       </c>
     </row>
     <row r="13" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -14349,8 +13773,9 @@
       <c r="BV13" s="19"/>
       <c r="BW13" s="19"/>
       <c r="BX13" s="19"/>
-      <c r="BY13" s="35"/>
-      <c r="BZ13" s="35"/>
+      <c r="BY13" s="19"/>
+      <c r="BZ13" s="19"/>
+      <c r="CA13" s="19"/>
     </row>
     <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
@@ -14584,11 +14009,11 @@
       <c r="BY14" s="24">
         <v>19410614.486183222</v>
       </c>
-      <c r="BZ14" s="41">
-        <v>22024515.000626005</v>
-      </c>
-      <c r="CA14" s="41">
-        <v>24289425.947977163</v>
+      <c r="BZ14" s="24">
+        <v>22028276.337656274</v>
+      </c>
+      <c r="CA14" s="24">
+        <v>24318611.399068885</v>
       </c>
     </row>
     <row r="15" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14747,7 +14172,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -14824,7 +14249,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -14901,8 +14326,11 @@
       <c r="BV18" s="19"/>
       <c r="BW18" s="19"/>
       <c r="BX18" s="19"/>
-    </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY18" s="19"/>
+      <c r="BZ18" s="19"/>
+      <c r="CA18" s="19"/>
+    </row>
+    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -14981,8 +14409,11 @@
       <c r="BV19" s="19"/>
       <c r="BW19" s="19"/>
       <c r="BX19" s="19"/>
-    </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="19"/>
+    </row>
+    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -15061,10 +14492,13 @@
       <c r="BV20" s="19"/>
       <c r="BW20" s="19"/>
       <c r="BX20" s="19"/>
-    </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19"/>
+      <c r="CA20" s="19"/>
+    </row>
+    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -15141,8 +14575,11 @@
       <c r="BV21" s="19"/>
       <c r="BW21" s="19"/>
       <c r="BX21" s="19"/>
-    </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY21" s="19"/>
+      <c r="BZ21" s="19"/>
+      <c r="CA21" s="19"/>
+    </row>
+    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -15219,8 +14656,11 @@
       <c r="BV22" s="19"/>
       <c r="BW22" s="19"/>
       <c r="BX22" s="19"/>
-    </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY22" s="19"/>
+      <c r="BZ22" s="19"/>
+      <c r="CA22" s="19"/>
+    </row>
+    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>102</v>
       </c>
@@ -15299,10 +14739,13 @@
       <c r="BV23" s="19"/>
       <c r="BW23" s="19"/>
       <c r="BX23" s="19"/>
-    </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY23" s="19"/>
+      <c r="BZ23" s="19"/>
+      <c r="CA23" s="19"/>
+    </row>
+    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -15379,8 +14822,11 @@
       <c r="BV24" s="18"/>
       <c r="BW24" s="19"/>
       <c r="BX24" s="19"/>
-    </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY24" s="19"/>
+      <c r="BZ24" s="19"/>
+      <c r="CA24" s="19"/>
+    </row>
+    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>104</v>
       </c>
@@ -15459,8 +14905,11 @@
       <c r="BV25" s="33"/>
       <c r="BW25" s="19"/>
       <c r="BX25" s="19"/>
-    </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY25" s="19"/>
+      <c r="BZ25" s="19"/>
+      <c r="CA25" s="19"/>
+    </row>
+    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -15538,8 +14987,10 @@
       <c r="BW26" s="19"/>
       <c r="BX26" s="19"/>
       <c r="BY26" s="19"/>
-    </row>
-    <row r="27" spans="1:78" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ26" s="19"/>
+      <c r="CA26" s="19"/>
+    </row>
+    <row r="27" spans="1:79" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -15772,10 +15223,11 @@
         <v>108</v>
       </c>
       <c r="BZ27" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="CA27" s="28"/>
+    </row>
+    <row r="28" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -16004,14 +15456,15 @@
       <c r="BX28" s="34">
         <v>6.8946280591658962</v>
       </c>
-      <c r="BY28" s="43">
-        <v>7.6087209751645872</v>
-      </c>
-      <c r="BZ28" s="43">
-        <v>8.6281285777553194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY28" s="34">
+        <v>7.6543502080105981</v>
+      </c>
+      <c r="BZ28" s="34">
+        <v>8.6055878027270722</v>
+      </c>
+      <c r="CA28" s="34"/>
+    </row>
+    <row r="29" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -16240,14 +15693,15 @@
       <c r="BX29" s="34">
         <v>9.9928242723429577</v>
       </c>
-      <c r="BY29" s="43">
-        <v>14.787685091426226</v>
-      </c>
-      <c r="BZ29" s="43">
-        <v>6.1621156109240189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY29" s="34">
+        <v>14.787659207089547</v>
+      </c>
+      <c r="BZ29" s="34">
+        <v>6.4660602018097961</v>
+      </c>
+      <c r="CA29" s="34"/>
+    </row>
+    <row r="30" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -16476,14 +15930,15 @@
       <c r="BX30" s="34">
         <v>7.4696296571646172</v>
       </c>
-      <c r="BY30" s="43">
-        <v>13.807234050123228</v>
-      </c>
-      <c r="BZ30" s="43">
-        <v>12.509235258244587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY30" s="34">
+        <v>13.831464849151388</v>
+      </c>
+      <c r="BZ30" s="34">
+        <v>12.552963077640584</v>
+      </c>
+      <c r="CA30" s="34"/>
+    </row>
+    <row r="31" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -16561,8 +16016,10 @@
       <c r="BW31" s="34"/>
       <c r="BX31" s="34"/>
       <c r="BY31" s="34"/>
-    </row>
-    <row r="32" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ31" s="34"/>
+      <c r="CA31" s="34"/>
+    </row>
+    <row r="32" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -16791,12 +16248,13 @@
       <c r="BX32" s="27">
         <v>8.1276491471909793</v>
       </c>
-      <c r="BY32" s="44">
-        <v>13.466346036099978</v>
-      </c>
-      <c r="BZ32" s="44">
-        <v>10.283590568449668</v>
-      </c>
+      <c r="BY32" s="27">
+        <v>13.485723769004565</v>
+      </c>
+      <c r="BZ32" s="27">
+        <v>10.397250453488255</v>
+      </c>
+      <c r="CA32" s="27"/>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
@@ -16882,6 +16340,8 @@
       <c r="BW34" s="19"/>
       <c r="BX34" s="19"/>
       <c r="BY34" s="19"/>
+      <c r="BZ34" s="19"/>
+      <c r="CA34" s="19"/>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
@@ -16960,6 +16420,9 @@
       <c r="BV35" s="18"/>
       <c r="BW35" s="19"/>
       <c r="BX35" s="19"/>
+      <c r="BY35" s="19"/>
+      <c r="BZ35" s="19"/>
+      <c r="CA35" s="19"/>
     </row>
     <row r="36" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
@@ -17038,6 +16501,9 @@
       <c r="BV36" s="18"/>
       <c r="BW36" s="19"/>
       <c r="BX36" s="19"/>
+      <c r="BY36" s="19"/>
+      <c r="BZ36" s="19"/>
+      <c r="CA36" s="19"/>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
@@ -17118,6 +16584,9 @@
       <c r="BV37" s="19"/>
       <c r="BW37" s="19"/>
       <c r="BX37" s="19"/>
+      <c r="BY37" s="19"/>
+      <c r="BZ37" s="19"/>
+      <c r="CA37" s="19"/>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -17198,10 +16667,13 @@
       <c r="BV38" s="19"/>
       <c r="BW38" s="19"/>
       <c r="BX38" s="19"/>
+      <c r="BY38" s="19"/>
+      <c r="BZ38" s="19"/>
+      <c r="CA38" s="19"/>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -17278,6 +16750,9 @@
       <c r="BV39" s="19"/>
       <c r="BW39" s="19"/>
       <c r="BX39" s="19"/>
+      <c r="BY39" s="19"/>
+      <c r="BZ39" s="19"/>
+      <c r="CA39" s="19"/>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
@@ -17356,6 +16831,9 @@
       <c r="BV40" s="19"/>
       <c r="BW40" s="19"/>
       <c r="BX40" s="19"/>
+      <c r="BY40" s="19"/>
+      <c r="BZ40" s="19"/>
+      <c r="CA40" s="19"/>
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
@@ -17436,10 +16914,13 @@
       <c r="BV41" s="19"/>
       <c r="BW41" s="19"/>
       <c r="BX41" s="19"/>
+      <c r="BY41" s="19"/>
+      <c r="BZ41" s="19"/>
+      <c r="CA41" s="19"/>
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -17516,6 +16997,9 @@
       <c r="BV42" s="19"/>
       <c r="BW42" s="19"/>
       <c r="BX42" s="19"/>
+      <c r="BY42" s="19"/>
+      <c r="BZ42" s="19"/>
+      <c r="CA42" s="19"/>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
@@ -17596,6 +17080,9 @@
       <c r="BV43" s="19"/>
       <c r="BW43" s="19"/>
       <c r="BX43" s="19"/>
+      <c r="BY43" s="19"/>
+      <c r="BZ43" s="19"/>
+      <c r="CA43" s="19"/>
     </row>
     <row r="44" spans="1:79" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
@@ -17674,7 +17161,9 @@
       <c r="BV44" s="19"/>
       <c r="BW44" s="19"/>
       <c r="BX44" s="19"/>
-      <c r="CA44" s="42"/>
+      <c r="BY44" s="19"/>
+      <c r="BZ44" s="19"/>
+      <c r="CA44" s="19"/>
     </row>
     <row r="45" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
@@ -17911,7 +17400,7 @@
       <c r="BZ45" s="30">
         <v>2022</v>
       </c>
-      <c r="CA45" s="45">
+      <c r="CA45" s="30">
         <v>2023</v>
       </c>
     </row>
@@ -18147,11 +17636,11 @@
       <c r="BY46" s="34">
         <v>10.069164020582223</v>
       </c>
-      <c r="BZ46" s="43">
-        <v>9.5493500883448501</v>
-      </c>
-      <c r="CA46" s="43">
-        <v>9.4060052260166991</v>
+      <c r="BZ46" s="34">
+        <v>9.5517680442350059</v>
+      </c>
+      <c r="CA46" s="34">
+        <v>9.3967501793580155</v>
       </c>
     </row>
     <row r="47" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18386,11 +17875,11 @@
       <c r="BY47" s="34">
         <v>28.88980911837572</v>
       </c>
-      <c r="BZ47" s="43">
-        <v>29.226236917653626</v>
-      </c>
-      <c r="CA47" s="43">
-        <v>28.134005490131699</v>
+      <c r="BZ47" s="34">
+        <v>29.221239936645727</v>
+      </c>
+      <c r="CA47" s="34">
+        <v>28.180686362086394</v>
       </c>
     </row>
     <row r="48" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18625,11 +18114,11 @@
       <c r="BY48" s="34">
         <v>61.041026861042056</v>
       </c>
-      <c r="BZ48" s="43">
-        <v>61.224412994001518</v>
-      </c>
-      <c r="CA48" s="43">
-        <v>62.459989283851606</v>
+      <c r="BZ48" s="34">
+        <v>61.226992019119251</v>
+      </c>
+      <c r="CA48" s="34">
+        <v>62.42256345855558</v>
       </c>
     </row>
     <row r="49" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -18711,6 +18200,7 @@
       <c r="BX49" s="34"/>
       <c r="BY49" s="34"/>
       <c r="BZ49" s="34"/>
+      <c r="CA49" s="34"/>
     </row>
     <row r="50" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
@@ -19029,6 +18519,9 @@
       <c r="BV51" s="22"/>
       <c r="BW51" s="22"/>
       <c r="BX51" s="22"/>
+      <c r="BY51" s="22"/>
+      <c r="BZ51" s="22"/>
+      <c r="CA51" s="22"/>
     </row>
     <row r="52" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
@@ -19106,6 +18599,9 @@
       <c r="BV52" s="22"/>
       <c r="BW52" s="22"/>
       <c r="BX52" s="22"/>
+      <c r="BY52" s="22"/>
+      <c r="BZ52" s="22"/>
+      <c r="CA52" s="22"/>
     </row>
     <row r="53" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
@@ -19183,6 +18679,9 @@
       <c r="BV53" s="22"/>
       <c r="BW53" s="22"/>
       <c r="BX53" s="22"/>
+      <c r="BY53" s="22"/>
+      <c r="BZ53" s="22"/>
+      <c r="CA53" s="22"/>
     </row>
     <row r="54" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
@@ -19260,6 +18759,9 @@
       <c r="BV54" s="22"/>
       <c r="BW54" s="22"/>
       <c r="BX54" s="22"/>
+      <c r="BY54" s="22"/>
+      <c r="BZ54" s="22"/>
+      <c r="CA54" s="22"/>
     </row>
     <row r="55" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
@@ -19337,6 +18839,9 @@
       <c r="BV55" s="22"/>
       <c r="BW55" s="22"/>
       <c r="BX55" s="22"/>
+      <c r="BY55" s="22"/>
+      <c r="BZ55" s="22"/>
+      <c r="CA55" s="22"/>
     </row>
     <row r="56" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
@@ -19414,6 +18919,9 @@
       <c r="BV56" s="22"/>
       <c r="BW56" s="22"/>
       <c r="BX56" s="22"/>
+      <c r="BY56" s="22"/>
+      <c r="BZ56" s="22"/>
+      <c r="CA56" s="22"/>
     </row>
     <row r="57" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
@@ -19491,6 +18999,9 @@
       <c r="BV57" s="22"/>
       <c r="BW57" s="22"/>
       <c r="BX57" s="22"/>
+      <c r="BY57" s="22"/>
+      <c r="BZ57" s="22"/>
+      <c r="CA57" s="22"/>
     </row>
     <row r="58" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
@@ -19568,6 +19079,9 @@
       <c r="BV58" s="22"/>
       <c r="BW58" s="22"/>
       <c r="BX58" s="22"/>
+      <c r="BY58" s="22"/>
+      <c r="BZ58" s="22"/>
+      <c r="CA58" s="22"/>
     </row>
     <row r="59" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
@@ -19645,6 +19159,9 @@
       <c r="BV59" s="22"/>
       <c r="BW59" s="22"/>
       <c r="BX59" s="22"/>
+      <c r="BY59" s="22"/>
+      <c r="BZ59" s="22"/>
+      <c r="CA59" s="22"/>
     </row>
     <row r="60" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
@@ -19722,24 +19239,12 @@
       <c r="BV60" s="22"/>
       <c r="BW60" s="22"/>
       <c r="BX60" s="22"/>
+      <c r="BY60" s="22"/>
+      <c r="BZ60" s="22"/>
+      <c r="CA60" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="BZ46:CA46">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ47:CA47">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ48:CA48">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19749,18 +19254,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CG39" sqref="CG39"/>
+      <selection pane="topRight" activeCell="BY1" sqref="BY1:CA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
-    <col min="3" max="76" width="13.5703125" style="17" customWidth="1"/>
-    <col min="77" max="78" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.28515625" style="17" customWidth="1"/>
+    <col min="3" max="79" width="13.5703125" style="17" customWidth="1"/>
     <col min="80" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
@@ -19776,7 +19279,7 @@
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.2">
@@ -19789,7 +19292,7 @@
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.2">
@@ -20269,14 +19772,14 @@
       <c r="BX10" s="19">
         <v>1780390.5640921535</v>
       </c>
-      <c r="BY10" s="35">
+      <c r="BY10" s="19">
         <v>1775210.3171187984</v>
       </c>
-      <c r="BZ10" s="40">
-        <v>1783498.9562229416</v>
-      </c>
-      <c r="CA10" s="40">
-        <v>1805024.8557710028</v>
+      <c r="BZ10" s="19">
+        <v>1783734.6554432951</v>
+      </c>
+      <c r="CA10" s="19">
+        <v>1804907.0542362379</v>
       </c>
     </row>
     <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20508,14 +20011,14 @@
       <c r="BX11" s="19">
         <v>5115315.7129913447</v>
       </c>
-      <c r="BY11" s="35">
+      <c r="BY11" s="19">
         <v>5551621.8662187792</v>
       </c>
-      <c r="BZ11" s="40">
-        <v>5914703.2127513792</v>
-      </c>
-      <c r="CA11" s="40">
-        <v>6127917.0578185515</v>
+      <c r="BZ11" s="19">
+        <v>5913747.6649654787</v>
+      </c>
+      <c r="CA11" s="19">
+        <v>6126102.2786791325</v>
       </c>
     </row>
     <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20747,14 +20250,14 @@
       <c r="BX12" s="19">
         <v>10642137.002289824</v>
       </c>
-      <c r="BY12" s="35">
+      <c r="BY12" s="19">
         <v>11213252.036594167</v>
       </c>
-      <c r="BZ12" s="40">
-        <v>12245428.06999575</v>
-      </c>
-      <c r="CA12" s="40">
-        <v>13121165.52833207</v>
+      <c r="BZ12" s="19">
+        <v>12248122.370699735</v>
+      </c>
+      <c r="CA12" s="19">
+        <v>13120748.909511007</v>
       </c>
     </row>
     <row r="13" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -20836,6 +20339,7 @@
       <c r="BX13" s="35"/>
       <c r="BY13" s="35"/>
       <c r="BZ13" s="35"/>
+      <c r="CA13" s="35"/>
     </row>
     <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
@@ -21069,11 +20573,11 @@
       <c r="BY14" s="24">
         <v>18540084.219931744</v>
       </c>
-      <c r="BZ14" s="40">
-        <v>19943630.238970071</v>
-      </c>
-      <c r="CA14" s="40">
-        <v>21054107.441921622</v>
+      <c r="BZ14" s="24">
+        <v>19945604.69110851</v>
+      </c>
+      <c r="CA14" s="24">
+        <v>21051758.242426377</v>
       </c>
     </row>
     <row r="15" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21232,7 +20736,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -21309,7 +20813,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -21386,8 +20890,11 @@
       <c r="BV18" s="19"/>
       <c r="BW18" s="19"/>
       <c r="BX18" s="19"/>
-    </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY18" s="19"/>
+      <c r="BZ18" s="19"/>
+      <c r="CA18" s="19"/>
+    </row>
+    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -21466,8 +20973,11 @@
       <c r="BV19" s="19"/>
       <c r="BW19" s="19"/>
       <c r="BX19" s="19"/>
-    </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="19"/>
+    </row>
+    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -21546,10 +21056,13 @@
       <c r="BV20" s="19"/>
       <c r="BW20" s="19"/>
       <c r="BX20" s="19"/>
-    </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19"/>
+      <c r="CA20" s="19"/>
+    </row>
+    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -21626,8 +21139,11 @@
       <c r="BV21" s="19"/>
       <c r="BW21" s="19"/>
       <c r="BX21" s="19"/>
-    </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY21" s="19"/>
+      <c r="BZ21" s="19"/>
+      <c r="CA21" s="19"/>
+    </row>
+    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -21704,8 +21220,11 @@
       <c r="BV22" s="19"/>
       <c r="BW22" s="19"/>
       <c r="BX22" s="19"/>
-    </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY22" s="19"/>
+      <c r="BZ22" s="19"/>
+      <c r="CA22" s="19"/>
+    </row>
+    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -21784,10 +21303,13 @@
       <c r="BV23" s="19"/>
       <c r="BW23" s="19"/>
       <c r="BX23" s="19"/>
-    </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BY23" s="19"/>
+      <c r="BZ23" s="19"/>
+      <c r="CA23" s="19"/>
+    </row>
+    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -21865,8 +21387,10 @@
       <c r="BW24" s="19"/>
       <c r="BX24" s="19"/>
       <c r="BY24" s="19"/>
-    </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BZ24" s="19"/>
+      <c r="CA24" s="19"/>
+    </row>
+    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
@@ -21946,8 +21470,10 @@
       <c r="BW25" s="19"/>
       <c r="BX25" s="19"/>
       <c r="BY25" s="19"/>
-    </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
+      <c r="BZ25" s="19"/>
+      <c r="CA25" s="19"/>
+    </row>
+    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -22025,9 +21551,10 @@
       <c r="BW26" s="19"/>
       <c r="BX26" s="19"/>
       <c r="BY26" s="19"/>
-      <c r="BZ26" s="42"/>
-    </row>
-    <row r="27" spans="1:78" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ26" s="19"/>
+      <c r="CA26" s="19"/>
+    </row>
+    <row r="27" spans="1:79" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -22259,11 +21786,12 @@
       <c r="BY27" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="BZ27" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BZ27" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="CA27" s="28"/>
+    </row>
+    <row r="28" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -22492,14 +22020,15 @@
       <c r="BX28" s="34">
         <v>-0.2909612687144687</v>
       </c>
-      <c r="BY28" s="43">
-        <v>0.46691025982745771</v>
-      </c>
-      <c r="BZ28" s="43">
-        <v>1.2069476953128202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY28" s="34">
+        <v>0.4801875159407416</v>
+      </c>
+      <c r="BZ28" s="34">
+        <v>1.186970199201582</v>
+      </c>
+      <c r="CA28" s="34"/>
+    </row>
+    <row r="29" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -22728,14 +22257,15 @@
       <c r="BX29" s="34">
         <v>8.5294081090508342</v>
       </c>
-      <c r="BY29" s="43">
-        <v>6.5400950439712773</v>
-      </c>
-      <c r="BZ29" s="43">
-        <v>3.6048105441285543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY29" s="34">
+        <v>6.522882996592557</v>
+      </c>
+      <c r="BZ29" s="34">
+        <v>3.5908636239536378</v>
+      </c>
+      <c r="CA29" s="34"/>
+    </row>
+    <row r="30" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -22964,14 +22494,15 @@
       <c r="BX30" s="34">
         <v>5.3665446534042758</v>
       </c>
-      <c r="BY30" s="43">
-        <v>9.204965963781973</v>
-      </c>
-      <c r="BZ30" s="43">
-        <v>7.1515463022651602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:78" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY30" s="34">
+        <v>9.2289937899219012</v>
+      </c>
+      <c r="BZ30" s="34">
+        <v>7.1245739746917565</v>
+      </c>
+      <c r="CA30" s="34"/>
+    </row>
+    <row r="31" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -23048,10 +22579,11 @@
       <c r="BV31" s="34"/>
       <c r="BW31" s="34"/>
       <c r="BX31" s="34"/>
-      <c r="BY31" s="26"/>
-      <c r="BZ31" s="46"/>
-    </row>
-    <row r="32" spans="1:78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BY31" s="34"/>
+      <c r="BZ31" s="34"/>
+      <c r="CA31" s="34"/>
+    </row>
+    <row r="32" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -23280,12 +22812,13 @@
       <c r="BX32" s="27">
         <v>5.7147331321929471</v>
       </c>
-      <c r="BY32" s="44">
-        <v>7.5703324881848602</v>
-      </c>
-      <c r="BZ32" s="44">
-        <v>5.5680795805252501</v>
-      </c>
+      <c r="BY32" s="27">
+        <v>7.5809821277173199</v>
+      </c>
+      <c r="BZ32" s="27">
+        <v>5.5458511709648945</v>
+      </c>
+      <c r="CA32" s="27"/>
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
@@ -23371,6 +22904,8 @@
       <c r="BW34" s="19"/>
       <c r="BX34" s="19"/>
       <c r="BY34" s="19"/>
+      <c r="BZ34" s="19"/>
+      <c r="CA34" s="19"/>
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
@@ -23450,6 +22985,8 @@
       <c r="BW35" s="19"/>
       <c r="BX35" s="19"/>
       <c r="BY35" s="19"/>
+      <c r="BZ35" s="19"/>
+      <c r="CA35" s="19"/>
     </row>
     <row r="36" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
@@ -23528,6 +23065,9 @@
       <c r="BV36" s="19"/>
       <c r="BW36" s="19"/>
       <c r="BX36" s="19"/>
+      <c r="BY36" s="19"/>
+      <c r="BZ36" s="19"/>
+      <c r="CA36" s="19"/>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
@@ -23608,6 +23148,9 @@
       <c r="BV37" s="19"/>
       <c r="BW37" s="19"/>
       <c r="BX37" s="19"/>
+      <c r="BY37" s="19"/>
+      <c r="BZ37" s="19"/>
+      <c r="CA37" s="19"/>
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
@@ -23688,10 +23231,13 @@
       <c r="BV38" s="19"/>
       <c r="BW38" s="19"/>
       <c r="BX38" s="19"/>
+      <c r="BY38" s="19"/>
+      <c r="BZ38" s="19"/>
+      <c r="CA38" s="19"/>
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -23768,6 +23314,9 @@
       <c r="BV39" s="19"/>
       <c r="BW39" s="19"/>
       <c r="BX39" s="19"/>
+      <c r="BY39" s="19"/>
+      <c r="BZ39" s="19"/>
+      <c r="CA39" s="19"/>
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
@@ -23846,6 +23395,9 @@
       <c r="BV40" s="19"/>
       <c r="BW40" s="19"/>
       <c r="BX40" s="19"/>
+      <c r="BY40" s="19"/>
+      <c r="BZ40" s="19"/>
+      <c r="CA40" s="19"/>
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
@@ -23926,10 +23478,13 @@
       <c r="BV41" s="19"/>
       <c r="BW41" s="19"/>
       <c r="BX41" s="19"/>
+      <c r="BY41" s="19"/>
+      <c r="BZ41" s="19"/>
+      <c r="CA41" s="19"/>
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -24006,6 +23561,9 @@
       <c r="BV42" s="19"/>
       <c r="BW42" s="19"/>
       <c r="BX42" s="19"/>
+      <c r="BY42" s="19"/>
+      <c r="BZ42" s="19"/>
+      <c r="CA42" s="19"/>
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
@@ -24086,6 +23644,9 @@
       <c r="BV43" s="19"/>
       <c r="BW43" s="19"/>
       <c r="BX43" s="19"/>
+      <c r="BY43" s="19"/>
+      <c r="BZ43" s="19"/>
+      <c r="CA43" s="19"/>
     </row>
     <row r="44" spans="1:79" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
@@ -24164,7 +23725,9 @@
       <c r="BV44" s="19"/>
       <c r="BW44" s="19"/>
       <c r="BX44" s="19"/>
-      <c r="CA44" s="42"/>
+      <c r="BY44" s="19"/>
+      <c r="BZ44" s="19"/>
+      <c r="CA44" s="19"/>
     </row>
     <row r="45" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
@@ -24401,7 +23964,7 @@
       <c r="BZ45" s="30">
         <v>2022</v>
       </c>
-      <c r="CA45" s="31">
+      <c r="CA45" s="30">
         <v>2023</v>
       </c>
     </row>
@@ -24634,14 +24197,14 @@
       <c r="BX46" s="26">
         <v>10.151707571626629</v>
       </c>
-      <c r="BY46" s="34">
+      <c r="BY46" s="26">
         <v>9.5749851837800009</v>
       </c>
-      <c r="BZ46" s="43">
-        <v>8.9426996732920028</v>
-      </c>
-      <c r="CA46" s="43">
-        <v>8.5732670489604814</v>
+      <c r="BZ46" s="26">
+        <v>8.9429961290592548</v>
+      </c>
+      <c r="CA46" s="26">
+        <v>8.5736641730890817</v>
       </c>
     </row>
     <row r="47" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24873,14 +24436,14 @@
       <c r="BX47" s="26">
         <v>29.167301996634841</v>
       </c>
-      <c r="BY47" s="34">
+      <c r="BY47" s="26">
         <v>29.943886987581429</v>
       </c>
-      <c r="BZ47" s="43">
-        <v>29.657104257749346</v>
-      </c>
-      <c r="CA47" s="43">
-        <v>29.105565622872366</v>
+      <c r="BZ47" s="26">
+        <v>29.64937767768831</v>
+      </c>
+      <c r="CA47" s="26">
+        <v>29.100193001138379</v>
       </c>
     </row>
     <row r="48" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25112,14 +24675,14 @@
       <c r="BX48" s="26">
         <v>60.680990431738536</v>
       </c>
-      <c r="BY48" s="34">
+      <c r="BY48" s="26">
         <v>60.481127828638584</v>
       </c>
-      <c r="BZ48" s="43">
-        <v>61.400196068958643</v>
-      </c>
-      <c r="CA48" s="43">
-        <v>62.321167328167171</v>
+      <c r="BZ48" s="26">
+        <v>61.407626193252426</v>
+      </c>
+      <c r="CA48" s="26">
+        <v>62.326142825772543</v>
       </c>
     </row>
     <row r="49" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -25201,6 +24764,7 @@
       <c r="BX49" s="34"/>
       <c r="BY49" s="34"/>
       <c r="BZ49" s="34"/>
+      <c r="CA49" s="34"/>
     </row>
     <row r="50" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
@@ -25596,6 +25160,9 @@
       <c r="BV52" s="22"/>
       <c r="BW52" s="22"/>
       <c r="BX52" s="22"/>
+      <c r="BY52" s="22"/>
+      <c r="BZ52" s="22"/>
+      <c r="CA52" s="22"/>
     </row>
     <row r="53" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
@@ -25673,6 +25240,9 @@
       <c r="BV53" s="22"/>
       <c r="BW53" s="22"/>
       <c r="BX53" s="22"/>
+      <c r="BY53" s="22"/>
+      <c r="BZ53" s="22"/>
+      <c r="CA53" s="22"/>
     </row>
     <row r="54" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
@@ -25750,6 +25320,9 @@
       <c r="BV54" s="22"/>
       <c r="BW54" s="22"/>
       <c r="BX54" s="22"/>
+      <c r="BY54" s="22"/>
+      <c r="BZ54" s="22"/>
+      <c r="CA54" s="22"/>
     </row>
     <row r="55" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
@@ -25827,6 +25400,9 @@
       <c r="BV55" s="22"/>
       <c r="BW55" s="22"/>
       <c r="BX55" s="22"/>
+      <c r="BY55" s="22"/>
+      <c r="BZ55" s="22"/>
+      <c r="CA55" s="22"/>
     </row>
     <row r="56" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
@@ -25904,6 +25480,9 @@
       <c r="BV56" s="22"/>
       <c r="BW56" s="22"/>
       <c r="BX56" s="22"/>
+      <c r="BY56" s="22"/>
+      <c r="BZ56" s="22"/>
+      <c r="CA56" s="22"/>
     </row>
     <row r="57" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
@@ -25981,6 +25560,9 @@
       <c r="BV57" s="22"/>
       <c r="BW57" s="22"/>
       <c r="BX57" s="22"/>
+      <c r="BY57" s="22"/>
+      <c r="BZ57" s="22"/>
+      <c r="CA57" s="22"/>
     </row>
     <row r="58" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
@@ -26058,6 +25640,9 @@
       <c r="BV58" s="22"/>
       <c r="BW58" s="22"/>
       <c r="BX58" s="22"/>
+      <c r="BY58" s="22"/>
+      <c r="BZ58" s="22"/>
+      <c r="CA58" s="22"/>
     </row>
     <row r="59" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
@@ -26135,6 +25720,9 @@
       <c r="BV59" s="22"/>
       <c r="BW59" s="22"/>
       <c r="BX59" s="22"/>
+      <c r="BY59" s="22"/>
+      <c r="BZ59" s="22"/>
+      <c r="CA59" s="22"/>
     </row>
     <row r="60" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
@@ -26212,24 +25800,12 @@
       <c r="BV60" s="22"/>
       <c r="BW60" s="22"/>
       <c r="BX60" s="22"/>
+      <c r="BY60" s="22"/>
+      <c r="BZ60" s="22"/>
+      <c r="CA60" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="BZ46:CA46">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ47:CA47">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ48:CA48">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\Consol\QNAP\For release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\QNAP\NAP Dissemination\As of January 2025\Tables\Prelim Q4 2024\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520DCBE-4A7E-4D11-8DA2-CC9D05ADC18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31466F0-C670-48A1-8AAA-5243862D1CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="28800" windowHeight="15225" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t>Old</t>
   </si>
@@ -283,6 +283,27 @@
     <t>1999 - 2000</t>
   </si>
   <si>
+    <t>1980 - 1981</t>
+  </si>
+  <si>
+    <t>Table 1.3 Gross Domestic Product, by Major Industry</t>
+  </si>
+  <si>
+    <t>Table 1.2 Gross Domestic Product, by Major Industry</t>
+  </si>
+  <si>
+    <t>Table 1.1 Gross Domestic Product, by Major Industry</t>
+  </si>
+  <si>
+    <t>Growth Rates, at Current Prices</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
+  </si>
+  <si>
+    <t>1946 to 2024</t>
+  </si>
+  <si>
     <t>2000 - 2001</t>
   </si>
   <si>
@@ -307,7 +328,7 @@
     <t>2007 - 2008</t>
   </si>
   <si>
-    <t>2008 -2009</t>
+    <t>2008 - 2009</t>
   </si>
   <si>
     <t>2009 - 2010</t>
@@ -340,25 +361,7 @@
     <t>2018 - 2019</t>
   </si>
   <si>
-    <t>1980 - 1981</t>
-  </si>
-  <si>
-    <t>Table 1.3 Gross Domestic Product, by Major Industry</t>
-  </si>
-  <si>
-    <t>Table 1.2 Gross Domestic Product, by Major Industry</t>
-  </si>
-  <si>
-    <t>Table 1.1 Gross Domestic Product, by Major Industry</t>
-  </si>
-  <si>
-    <t>Growth Rates, at Current Prices</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
   </si>
   <si>
     <t>2020 - 2021</t>
@@ -367,19 +370,10 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
-    <t>1946 to 2023</t>
-  </si>
-  <si>
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>As of April 2024</t>
+    <t>2023 - 2024</t>
   </si>
 </sst>
 </file>
@@ -597,50 +591,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{67E269D4-9A37-48F3-B6C6-41F9C454DEC8}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -12688,59 +12639,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CA60"/>
+  <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BZ17" sqref="BZ17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
-    <col min="3" max="79" width="13.5703125" style="17" customWidth="1"/>
-    <col min="80" max="16384" width="8.85546875" style="17"/>
+    <col min="3" max="80" width="13.5703125" style="17" customWidth="1"/>
+    <col min="81" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -12978,8 +12930,11 @@
       <c r="CA9" s="30">
         <v>2023</v>
       </c>
-    </row>
-    <row r="10" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB9" s="30">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -13146,40 +13101,40 @@
         <v>508644.29562133801</v>
       </c>
       <c r="BD10" s="19">
-        <v>515479.8</v>
+        <v>515479.83105914737</v>
       </c>
       <c r="BE10" s="19">
         <v>535358.11662950239</v>
       </c>
       <c r="BF10" s="19">
-        <v>585081.26403037901</v>
+        <v>585081.26403037924</v>
       </c>
       <c r="BG10" s="19">
-        <v>620436.58457756054</v>
+        <v>620436.58457756066</v>
       </c>
       <c r="BH10" s="19">
-        <v>744516.25225188013</v>
+        <v>744516.25225188024</v>
       </c>
       <c r="BI10" s="19">
-        <v>799871.41640275007</v>
+        <v>799871.41640274995</v>
       </c>
       <c r="BJ10" s="19">
         <v>875217.54801529867</v>
       </c>
       <c r="BK10" s="19">
-        <v>979429.73898867331</v>
+        <v>979429.73898867343</v>
       </c>
       <c r="BL10" s="19">
-        <v>1168573.140246883</v>
+        <v>1168573.1402468833</v>
       </c>
       <c r="BM10" s="19">
-        <v>1219985.1777794689</v>
+        <v>1219985.1777794692</v>
       </c>
       <c r="BN10" s="19">
-        <v>1292317.8004069941</v>
+        <v>1292317.8004069938</v>
       </c>
       <c r="BO10" s="19">
-        <v>1429964.5926411445</v>
+        <v>1429964.5926411448</v>
       </c>
       <c r="BP10" s="19">
         <v>1448473.3675359092</v>
@@ -13188,25 +13143,25 @@
         <v>1503121.5657752962</v>
       </c>
       <c r="BR10" s="19">
-        <v>1620699.9152632467</v>
+        <v>1620699.915263247</v>
       </c>
       <c r="BS10" s="19">
-        <v>1533369.1559169197</v>
+        <v>1533369.1559169192</v>
       </c>
       <c r="BT10" s="19">
         <v>1544278.5250839123</v>
       </c>
       <c r="BU10" s="19">
-        <v>1685956.185543238</v>
+        <v>1685956.1855432384</v>
       </c>
       <c r="BV10" s="19">
-        <v>1762616.4965786885</v>
+        <v>1762616.4965786883</v>
       </c>
       <c r="BW10" s="19">
-        <v>1721538.7202586958</v>
+        <v>1721538.720258696</v>
       </c>
       <c r="BX10" s="19">
-        <v>1828423.6032281048</v>
+        <v>1828423.603228105</v>
       </c>
       <c r="BY10" s="19">
         <v>1954486.610016682</v>
@@ -13217,8 +13172,11 @@
       <c r="CA10" s="19">
         <v>2285159.1602593842</v>
       </c>
-    </row>
-    <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB10" s="19">
+        <v>2400667.1117872684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -13385,31 +13343,31 @@
         <v>1123139.21148392</v>
       </c>
       <c r="BD11" s="19">
-        <v>1293230.8</v>
+        <v>1293230.8123216361</v>
       </c>
       <c r="BE11" s="19">
-        <v>1404419.2585960755</v>
+        <v>1404419.2585960752</v>
       </c>
       <c r="BF11" s="19">
-        <v>1513274.1419064314</v>
+        <v>1513274.1419064312</v>
       </c>
       <c r="BG11" s="19">
         <v>1629557.8179376805</v>
       </c>
       <c r="BH11" s="19">
-        <v>1789827.1716504702</v>
+        <v>1789827.1716504705</v>
       </c>
       <c r="BI11" s="19">
         <v>2000850.6834146297</v>
       </c>
       <c r="BJ11" s="19">
-        <v>2191938.9158876017</v>
+        <v>2191938.9158876012</v>
       </c>
       <c r="BK11" s="19">
         <v>2375482.7850285335</v>
       </c>
       <c r="BL11" s="19">
-        <v>2637671.4509854736</v>
+        <v>2637671.450985474</v>
       </c>
       <c r="BM11" s="19">
         <v>2644874.1847134624</v>
@@ -13418,19 +13376,19 @@
         <v>3039740.6458881143</v>
       </c>
       <c r="BO11" s="19">
-        <v>3179203.2325789286</v>
+        <v>3179203.2325789281</v>
       </c>
       <c r="BP11" s="19">
         <v>3472968.8558059549</v>
       </c>
       <c r="BQ11" s="19">
-        <v>3708623.5049130176</v>
+        <v>3708623.5049130186</v>
       </c>
       <c r="BR11" s="19">
-        <v>4100382.6683558407</v>
+        <v>4100382.6683558412</v>
       </c>
       <c r="BS11" s="19">
-        <v>4250451.2383206496</v>
+        <v>4250451.2383206487</v>
       </c>
       <c r="BT11" s="19">
         <v>4582980.5174834859</v>
@@ -13445,19 +13403,22 @@
         <v>5919281.4913050616</v>
       </c>
       <c r="BX11" s="19">
-        <v>5098232.0991026135</v>
+        <v>5098232.0991026126</v>
       </c>
       <c r="BY11" s="19">
         <v>5607689.4737621192</v>
       </c>
       <c r="BZ11" s="19">
-        <v>6436935.4825338954</v>
+        <v>6436935.4825338945</v>
       </c>
       <c r="CA11" s="19">
-        <v>6853151.6059861928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6853151.6059861947</v>
+      </c>
+      <c r="CB11" s="19">
+        <v>7317591.0125612002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -13624,10 +13585,10 @@
         <v>1715803.6829949301</v>
       </c>
       <c r="BD12" s="19">
-        <v>1888845.6</v>
+        <v>1888845.5620071718</v>
       </c>
       <c r="BE12" s="19">
-        <v>2084621.5649583202</v>
+        <v>2084621.56495832</v>
       </c>
       <c r="BF12" s="19">
         <v>2252204.3661971181</v>
@@ -13636,7 +13597,7 @@
         <v>2467814.5379699469</v>
       </c>
       <c r="BH12" s="19">
-        <v>2789560.7532976721</v>
+        <v>2789560.7532976717</v>
       </c>
       <c r="BI12" s="19">
         <v>3116560.2013509646</v>
@@ -13651,16 +13612,16 @@
         <v>4243956.0293361945</v>
       </c>
       <c r="BM12" s="19">
-        <v>4525562.0937777283</v>
+        <v>4525562.0937777292</v>
       </c>
       <c r="BN12" s="19">
         <v>5067392.3117788061</v>
       </c>
       <c r="BO12" s="19">
-        <v>5535493.501561651</v>
+        <v>5535493.5015616529</v>
       </c>
       <c r="BP12" s="19">
-        <v>6139146.6072256071</v>
+        <v>6139146.6072256053</v>
       </c>
       <c r="BQ12" s="19">
         <v>6838846.913572249</v>
@@ -13669,13 +13630,13 @@
         <v>7485745.6680728551</v>
       </c>
       <c r="BS12" s="19">
-        <v>8160337.0535270981</v>
+        <v>8160337.0535270972</v>
       </c>
       <c r="BT12" s="19">
-        <v>9005122.4276059363</v>
+        <v>9005122.4276059344</v>
       </c>
       <c r="BU12" s="19">
-        <v>9882747.035253562</v>
+        <v>9882747.0352535639</v>
       </c>
       <c r="BV12" s="19">
         <v>10920048.472266145</v>
@@ -13695,8 +13656,11 @@
       <c r="CA12" s="19">
         <v>15180300.632823305</v>
       </c>
-    </row>
-    <row r="13" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB12" s="19">
+        <v>16718523.172478262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -13776,8 +13740,9 @@
       <c r="BY13" s="19"/>
       <c r="BZ13" s="19"/>
       <c r="CA13" s="19"/>
-    </row>
-    <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB13" s="19"/>
+    </row>
+    <row r="14" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -13944,10 +13909,10 @@
         <v>3347587.1901001884</v>
       </c>
       <c r="BD14" s="24">
-        <v>3697556.2</v>
+        <v>3697556.2053879555</v>
       </c>
       <c r="BE14" s="24">
-        <v>4024398.9401838984</v>
+        <v>4024398.9401838975</v>
       </c>
       <c r="BF14" s="24">
         <v>4350559.7721339278</v>
@@ -13956,31 +13921,31 @@
         <v>4717808.9404851878</v>
       </c>
       <c r="BH14" s="24">
-        <v>5323904.1772000231</v>
+        <v>5323904.1772000222</v>
       </c>
       <c r="BI14" s="24">
-        <v>5917282.3011683449</v>
+        <v>5917282.301168344</v>
       </c>
       <c r="BJ14" s="24">
-        <v>6550417.1129229609</v>
+        <v>6550417.11292296</v>
       </c>
       <c r="BK14" s="24">
         <v>7198244.8877644427</v>
       </c>
       <c r="BL14" s="24">
-        <v>8050200.6205685511</v>
+        <v>8050200.6205685521</v>
       </c>
       <c r="BM14" s="24">
-        <v>8390421.4562706593</v>
+        <v>8390421.4562706612</v>
       </c>
       <c r="BN14" s="24">
         <v>9399450.7580739148</v>
       </c>
       <c r="BO14" s="24">
-        <v>10144661.326781724</v>
+        <v>10144661.326781726</v>
       </c>
       <c r="BP14" s="24">
-        <v>11060588.830567472</v>
+        <v>11060588.830567468</v>
       </c>
       <c r="BQ14" s="24">
         <v>12050591.984260563</v>
@@ -13989,10 +13954,10 @@
         <v>13206828.251691943</v>
       </c>
       <c r="BS14" s="24">
-        <v>13944157.447764669</v>
+        <v>13944157.447764665</v>
       </c>
       <c r="BT14" s="24">
-        <v>15132381.470173335</v>
+        <v>15132381.470173333</v>
       </c>
       <c r="BU14" s="24">
         <v>16556651.083225854</v>
@@ -14010,13 +13975,16 @@
         <v>19410614.486183222</v>
       </c>
       <c r="BZ14" s="24">
-        <v>22028276.337656274</v>
+        <v>22028276.337656271</v>
       </c>
       <c r="CA14" s="24">
         <v>24318611.399068885</v>
       </c>
-    </row>
-    <row r="15" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB14" s="24">
+        <v>26436781.296826731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -14095,7 +14063,7 @@
       <c r="BV15" s="19"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -14172,7 +14140,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -14249,7 +14217,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -14329,8 +14297,9 @@
       <c r="BY18" s="19"/>
       <c r="BZ18" s="19"/>
       <c r="CA18" s="19"/>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB18" s="19"/>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -14412,8 +14381,9 @@
       <c r="BY19" s="19"/>
       <c r="BZ19" s="19"/>
       <c r="CA19" s="19"/>
-    </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB19" s="19"/>
+    </row>
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -14495,10 +14465,11 @@
       <c r="BY20" s="19"/>
       <c r="BZ20" s="19"/>
       <c r="CA20" s="19"/>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB20" s="19"/>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -14578,8 +14549,9 @@
       <c r="BY21" s="19"/>
       <c r="BZ21" s="19"/>
       <c r="CA21" s="19"/>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB21" s="19"/>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -14659,10 +14631,11 @@
       <c r="BY22" s="19"/>
       <c r="BZ22" s="19"/>
       <c r="CA22" s="19"/>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB22" s="19"/>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -14742,10 +14715,11 @@
       <c r="BY23" s="19"/>
       <c r="BZ23" s="19"/>
       <c r="CA23" s="19"/>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB23" s="19"/>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -14825,10 +14799,11 @@
       <c r="BY24" s="19"/>
       <c r="BZ24" s="19"/>
       <c r="CA24" s="19"/>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB24" s="19"/>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -14909,7 +14884,7 @@
       <c r="BZ25" s="19"/>
       <c r="CA25" s="19"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -14990,7 +14965,7 @@
       <c r="BZ26" s="19"/>
       <c r="CA26" s="19"/>
     </row>
-    <row r="27" spans="1:79" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -15097,7 +15072,7 @@
         <v>61</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK27" s="28" t="s">
         <v>62</v>
@@ -15157,77 +15132,79 @@
         <v>80</v>
       </c>
       <c r="BD27" s="28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="BE27" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="BF27" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="BG27" s="28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="BH27" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="BI27" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="BJ27" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="BK27" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BL27" s="28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BM27" s="28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="BN27" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BO27" s="28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="BP27" s="28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BQ27" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BR27" s="28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BS27" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BT27" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BU27" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="BV27" s="28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="BW27" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BX27" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BY27" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BZ27" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA27" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="CA27" s="28"/>
-    </row>
-    <row r="28" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -15394,25 +15371,25 @@
         <v>1.3438673032422486</v>
       </c>
       <c r="BD28" s="26">
-        <v>3.8562746065902758</v>
+        <v>3.8562683489500387</v>
       </c>
       <c r="BE28" s="26">
-        <v>9.2878291850551733</v>
+        <v>9.2878291850552159</v>
       </c>
       <c r="BF28" s="26">
-        <v>6.0428051145636772</v>
+        <v>6.0428051145636488</v>
       </c>
       <c r="BG28" s="26">
         <v>19.998767119576328</v>
       </c>
       <c r="BH28" s="26">
-        <v>7.4350511467602587</v>
+        <v>7.4350511467602161</v>
       </c>
       <c r="BI28" s="26">
-        <v>9.4197804881441556</v>
+        <v>9.419780488144184</v>
       </c>
       <c r="BJ28" s="26">
-        <v>11.907004288213031</v>
+        <v>11.907004288213045</v>
       </c>
       <c r="BK28" s="26">
         <v>19.311584458678269</v>
@@ -15421,13 +15398,13 @@
         <v>4.3995566697454791</v>
       </c>
       <c r="BM28" s="26">
-        <v>5.9289755273240132</v>
+        <v>5.9289755273239848</v>
       </c>
       <c r="BN28" s="26">
-        <v>10.651156564646953</v>
+        <v>10.651156564646968</v>
       </c>
       <c r="BO28" s="26">
-        <v>1.2943519713714693</v>
+        <v>1.2943519713714409</v>
       </c>
       <c r="BP28" s="26">
         <v>3.7728134644513744</v>
@@ -15436,19 +15413,19 @@
         <v>7.8222781287357037</v>
       </c>
       <c r="BR28" s="26">
-        <v>-5.3884595491042688</v>
+        <v>-5.3884595491042973</v>
       </c>
       <c r="BS28" s="26">
-        <v>0.71146397623141411</v>
+        <v>0.71146397623145674</v>
       </c>
       <c r="BT28" s="26">
-        <v>9.1743592984061735</v>
+        <v>9.1743592984062019</v>
       </c>
       <c r="BU28" s="26">
         <v>4.5469930768544202</v>
       </c>
       <c r="BV28" s="26">
-        <v>-2.330499935733414</v>
+        <v>-2.3304999357333713</v>
       </c>
       <c r="BW28" s="34">
         <v>6.2086830642616775</v>
@@ -15462,9 +15439,11 @@
       <c r="BZ28" s="34">
         <v>8.6055878027270722</v>
       </c>
-      <c r="CA28" s="34"/>
-    </row>
-    <row r="29" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA28" s="34">
+        <v>5.054700501245307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -15631,7 +15610,7 @@
         <v>15.144301505719014</v>
       </c>
       <c r="BD29" s="26">
-        <v>8.5977273813827537</v>
+        <v>8.5977263466860308</v>
       </c>
       <c r="BE29" s="26">
         <v>7.7508822699549569</v>
@@ -15640,43 +15619,43 @@
         <v>7.6842439060482661</v>
       </c>
       <c r="BG29" s="26">
-        <v>9.8351437395220387</v>
+        <v>9.8351437395220529</v>
       </c>
       <c r="BH29" s="26">
-        <v>11.79016136902014</v>
+        <v>11.790161369020112</v>
       </c>
       <c r="BI29" s="26">
-        <v>9.5503494617031066</v>
+        <v>9.5503494617030782</v>
       </c>
       <c r="BJ29" s="26">
-        <v>8.3735850397367244</v>
+        <v>8.3735850397367528</v>
       </c>
       <c r="BK29" s="26">
-        <v>11.037279142134082</v>
+        <v>11.037279142134111</v>
       </c>
       <c r="BL29" s="26">
-        <v>0.27307167938970167</v>
+        <v>0.27307167938968746</v>
       </c>
       <c r="BM29" s="26">
         <v>14.929498856953401</v>
       </c>
       <c r="BN29" s="26">
-        <v>4.5879765064650115</v>
+        <v>4.5879765064649831</v>
       </c>
       <c r="BO29" s="26">
-        <v>9.2402278727153657</v>
+        <v>9.2402278727153941</v>
       </c>
       <c r="BP29" s="26">
-        <v>6.7853948276301423</v>
+        <v>6.7853948276301708</v>
       </c>
       <c r="BQ29" s="26">
-        <v>10.563465472400708</v>
+        <v>10.563465472400679</v>
       </c>
       <c r="BR29" s="26">
-        <v>3.6598674343968867</v>
+        <v>3.6598674343968298</v>
       </c>
       <c r="BS29" s="26">
-        <v>7.8233876950490213</v>
+        <v>7.8233876950490497</v>
       </c>
       <c r="BT29" s="26">
         <v>8.836331365596422</v>
@@ -15688,20 +15667,22 @@
         <v>6.0323273883342381</v>
       </c>
       <c r="BW29" s="34">
-        <v>-13.870761061262286</v>
+        <v>-13.8707610612623</v>
       </c>
       <c r="BX29" s="34">
-        <v>9.9928242723429577</v>
+        <v>9.9928242723429861</v>
       </c>
       <c r="BY29" s="34">
         <v>14.787659207089547</v>
       </c>
       <c r="BZ29" s="34">
-        <v>6.4660602018097961</v>
-      </c>
-      <c r="CA29" s="34"/>
-    </row>
-    <row r="30" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.4660602018098388</v>
+      </c>
+      <c r="CA29" s="34">
+        <v>6.7770192938577196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -15868,19 +15849,19 @@
         <v>10.085181581090083</v>
       </c>
       <c r="BD30" s="26">
-        <v>10.36484744747375</v>
+        <v>10.364849667386665</v>
       </c>
       <c r="BE30" s="26">
-        <v>8.0390035321422175</v>
+        <v>8.0390035321422459</v>
       </c>
       <c r="BF30" s="26">
         <v>9.5732951684526597</v>
       </c>
       <c r="BG30" s="26">
-        <v>13.037698351205833</v>
+        <v>13.037698351205805</v>
       </c>
       <c r="BH30" s="26">
-        <v>11.722255830661908</v>
+        <v>11.722255830661936</v>
       </c>
       <c r="BI30" s="26">
         <v>11.766191697825647</v>
@@ -15892,31 +15873,31 @@
         <v>10.423862098628149</v>
       </c>
       <c r="BL30" s="26">
-        <v>6.6354614066437563</v>
+        <v>6.6354614066437705</v>
       </c>
       <c r="BM30" s="26">
-        <v>11.972661224691834</v>
+        <v>11.972661224691805</v>
       </c>
       <c r="BN30" s="26">
-        <v>9.2375162802133275</v>
+        <v>9.2375162802133417</v>
       </c>
       <c r="BO30" s="26">
-        <v>10.905136199575622</v>
+        <v>10.905136199575566</v>
       </c>
       <c r="BP30" s="26">
-        <v>11.397354569169508</v>
+        <v>11.397354569169522</v>
       </c>
       <c r="BQ30" s="26">
         <v>9.4591787574127721</v>
       </c>
       <c r="BR30" s="26">
-        <v>9.0116792015979712</v>
+        <v>9.011679201597957</v>
       </c>
       <c r="BS30" s="26">
         <v>10.352334328074122</v>
       </c>
       <c r="BT30" s="26">
-        <v>9.7458376019097273</v>
+        <v>9.7458376019097699</v>
       </c>
       <c r="BU30" s="26">
         <v>10.496084067641689</v>
@@ -15936,9 +15917,11 @@
       <c r="BZ30" s="34">
         <v>12.552963077640584</v>
       </c>
-      <c r="CA30" s="34"/>
-    </row>
-    <row r="31" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA30" s="34">
+        <v>10.133017631607146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -16019,7 +16002,7 @@
       <c r="BZ31" s="34"/>
       <c r="CA31" s="34"/>
     </row>
-    <row r="32" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -16186,16 +16169,16 @@
         <v>10.454365787238459</v>
       </c>
       <c r="BD32" s="27">
-        <v>8.8394258938890005</v>
+        <v>8.8394257352917975</v>
       </c>
       <c r="BE32" s="27">
-        <v>8.1045849777289902</v>
+        <v>8.1045849777290329</v>
       </c>
       <c r="BF32" s="27">
         <v>8.4414233474862925</v>
       </c>
       <c r="BG32" s="27">
-        <v>12.846964435412332</v>
+        <v>12.846964435412318</v>
       </c>
       <c r="BH32" s="27">
         <v>11.145544777261463</v>
@@ -16207,34 +16190,34 @@
         <v>9.8898705788279955</v>
       </c>
       <c r="BK32" s="27">
-        <v>11.835603624048147</v>
+        <v>11.835603624048161</v>
       </c>
       <c r="BL32" s="27">
         <v>4.2262404595586389</v>
       </c>
       <c r="BM32" s="27">
-        <v>12.025966836852376</v>
+        <v>12.025966836852348</v>
       </c>
       <c r="BN32" s="27">
-        <v>7.9282352542534369</v>
+        <v>7.9282352542534511</v>
       </c>
       <c r="BO32" s="27">
-        <v>9.0286651696071374</v>
+        <v>9.0286651696070948</v>
       </c>
       <c r="BP32" s="27">
-        <v>8.9507273876511988</v>
+        <v>8.9507273876512414</v>
       </c>
       <c r="BQ32" s="27">
         <v>9.5948503520951931</v>
       </c>
       <c r="BR32" s="27">
-        <v>5.582939234318161</v>
+        <v>5.5829392343181468</v>
       </c>
       <c r="BS32" s="27">
-        <v>8.5213038282147693</v>
+        <v>8.5213038282147835</v>
       </c>
       <c r="BT32" s="27">
-        <v>9.4120652182858606</v>
+        <v>9.4120652182858748</v>
       </c>
       <c r="BU32" s="27">
         <v>10.319352424276644</v>
@@ -16249,20 +16232,22 @@
         <v>8.1276491471909793</v>
       </c>
       <c r="BY32" s="27">
-        <v>13.485723769004565</v>
+        <v>13.485723769004537</v>
       </c>
       <c r="BZ32" s="27">
-        <v>10.397250453488255</v>
-      </c>
-      <c r="CA32" s="27"/>
-    </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
+        <v>10.397250453488269</v>
+      </c>
+      <c r="CA32" s="27">
+        <v>8.7100774916735162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -16343,7 +16328,7 @@
       <c r="BZ34" s="19"/>
       <c r="CA34" s="19"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -16424,7 +16409,7 @@
       <c r="BZ35" s="19"/>
       <c r="CA35" s="19"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -16505,7 +16490,7 @@
       <c r="BZ36" s="19"/>
       <c r="CA36" s="19"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -16587,8 +16572,9 @@
       <c r="BY37" s="19"/>
       <c r="BZ37" s="19"/>
       <c r="CA37" s="19"/>
-    </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB37" s="19"/>
+    </row>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -16670,10 +16656,11 @@
       <c r="BY38" s="19"/>
       <c r="BZ38" s="19"/>
       <c r="CA38" s="19"/>
-    </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB38" s="19"/>
+    </row>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -16753,8 +16740,9 @@
       <c r="BY39" s="19"/>
       <c r="BZ39" s="19"/>
       <c r="CA39" s="19"/>
-    </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB39" s="19"/>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -16834,10 +16822,11 @@
       <c r="BY40" s="19"/>
       <c r="BZ40" s="19"/>
       <c r="CA40" s="19"/>
-    </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB40" s="19"/>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -16917,10 +16906,11 @@
       <c r="BY41" s="19"/>
       <c r="BZ41" s="19"/>
       <c r="CA41" s="19"/>
-    </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB41" s="19"/>
+    </row>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -17000,8 +16990,9 @@
       <c r="BY42" s="19"/>
       <c r="BZ42" s="19"/>
       <c r="CA42" s="19"/>
-    </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB42" s="19"/>
+    </row>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>23</v>
       </c>
@@ -17083,8 +17074,9 @@
       <c r="BY43" s="19"/>
       <c r="BZ43" s="19"/>
       <c r="CA43" s="19"/>
-    </row>
-    <row r="44" spans="1:79" ht="15" x14ac:dyDescent="0.2">
+      <c r="CB43" s="19"/>
+    </row>
+    <row r="44" spans="1:80" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -17164,8 +17156,9 @@
       <c r="BY44" s="19"/>
       <c r="BZ44" s="19"/>
       <c r="CA44" s="19"/>
-    </row>
-    <row r="45" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB44" s="19"/>
+    </row>
+    <row r="45" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>20</v>
       </c>
@@ -17403,8 +17396,11 @@
       <c r="CA45" s="30">
         <v>2023</v>
       </c>
-    </row>
-    <row r="46" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB45" s="30">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>21</v>
       </c>
@@ -17571,28 +17567,28 @@
         <v>15.194355418898439</v>
       </c>
       <c r="BD46" s="22">
-        <v>13.941094390938533</v>
+        <v>13.941095210615254</v>
       </c>
       <c r="BE46" s="22">
-        <v>13.302809303618362</v>
+        <v>13.302809303618366</v>
       </c>
       <c r="BF46" s="22">
-        <v>13.448413415163804</v>
+        <v>13.44841341516381</v>
       </c>
       <c r="BG46" s="22">
-        <v>13.150947662449292</v>
+        <v>13.150947662449294</v>
       </c>
       <c r="BH46" s="22">
-        <v>13.984403690816242</v>
+        <v>13.984403690816247</v>
       </c>
       <c r="BI46" s="22">
         <v>13.517547003711798</v>
       </c>
       <c r="BJ46" s="22">
-        <v>13.361249107154254</v>
+        <v>13.361249107154258</v>
       </c>
       <c r="BK46" s="22">
-        <v>13.606507617620863</v>
+        <v>13.606507617620867</v>
       </c>
       <c r="BL46" s="22">
         <v>14.516074757952453</v>
@@ -17601,34 +17597,34 @@
         <v>14.540213315121395</v>
       </c>
       <c r="BN46" s="22">
-        <v>13.748865052534292</v>
+        <v>13.74886505253429</v>
       </c>
       <c r="BO46" s="22">
         <v>14.095735151513274</v>
       </c>
       <c r="BP46" s="22">
-        <v>13.09580701104133</v>
+        <v>13.095807011041332</v>
       </c>
       <c r="BQ46" s="22">
         <v>12.473425104248347</v>
       </c>
       <c r="BR46" s="22">
-        <v>12.271681620873785</v>
+        <v>12.271681620873787</v>
       </c>
       <c r="BS46" s="22">
         <v>10.996499155011534</v>
       </c>
       <c r="BT46" s="22">
-        <v>10.205125532473264</v>
+        <v>10.205125532473266</v>
       </c>
       <c r="BU46" s="22">
-        <v>10.182954131656139</v>
+        <v>10.182954131656141</v>
       </c>
       <c r="BV46" s="26">
         <v>9.6501403580565963</v>
       </c>
       <c r="BW46" s="26">
-        <v>8.8203237471017495</v>
+        <v>8.8203237471017513</v>
       </c>
       <c r="BX46" s="34">
         <v>10.185311031910887</v>
@@ -17642,8 +17638,11 @@
       <c r="CA46" s="34">
         <v>9.3967501793580155</v>
       </c>
-    </row>
-    <row r="47" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB46" s="34">
+        <v>9.0807843997083939</v>
+      </c>
+    </row>
+    <row r="47" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -17810,25 +17809,25 @@
         <v>33.550708247581326</v>
       </c>
       <c r="BD47" s="22">
-        <v>34.975284486548169</v>
+        <v>34.975284768820643</v>
       </c>
       <c r="BE47" s="22">
         <v>34.897615258091172</v>
       </c>
       <c r="BF47" s="22">
-        <v>34.78343526272662</v>
+        <v>34.783435262726613</v>
       </c>
       <c r="BG47" s="22">
         <v>34.540564030770057</v>
       </c>
       <c r="BH47" s="22">
-        <v>33.618696206357832</v>
+        <v>33.618696206357839</v>
       </c>
       <c r="BI47" s="22">
-        <v>33.81367630575221</v>
+        <v>33.813676305752217</v>
       </c>
       <c r="BJ47" s="22">
-        <v>33.462585330073793</v>
+        <v>33.462585330073786</v>
       </c>
       <c r="BK47" s="22">
         <v>33.000860933008447</v>
@@ -17837,28 +17836,28 @@
         <v>32.765288410901569</v>
       </c>
       <c r="BM47" s="22">
-        <v>31.522542681533487</v>
+        <v>31.522542681533483</v>
       </c>
       <c r="BN47" s="22">
         <v>32.339556045623688</v>
       </c>
       <c r="BO47" s="22">
-        <v>31.338682782695653</v>
+        <v>31.338682782695642</v>
       </c>
       <c r="BP47" s="22">
-        <v>31.399493363390597</v>
+        <v>31.399493363390608</v>
       </c>
       <c r="BQ47" s="22">
-        <v>30.775446631641827</v>
+        <v>30.775446631641834</v>
       </c>
       <c r="BR47" s="22">
         <v>31.047444475024015</v>
       </c>
       <c r="BS47" s="22">
-        <v>30.481950983722015</v>
+        <v>30.481950983722022</v>
       </c>
       <c r="BT47" s="22">
-        <v>30.285917167213665</v>
+        <v>30.285917167213672</v>
       </c>
       <c r="BU47" s="22">
         <v>30.126550576900929</v>
@@ -17870,7 +17869,7 @@
         <v>30.327507879516236</v>
       </c>
       <c r="BX47" s="34">
-        <v>28.399917585046559</v>
+        <v>28.399917585046552</v>
       </c>
       <c r="BY47" s="34">
         <v>28.88980911837572</v>
@@ -17879,10 +17878,13 @@
         <v>29.221239936645727</v>
       </c>
       <c r="CA47" s="34">
-        <v>28.180686362086394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28.180686362086405</v>
+      </c>
+      <c r="CB47" s="34">
+        <v>27.679583722393421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
@@ -18049,10 +18051,10 @@
         <v>51.25493633352022</v>
       </c>
       <c r="BD48" s="22">
-        <v>51.0836211225133</v>
+        <v>51.083620020564105</v>
       </c>
       <c r="BE48" s="22">
-        <v>51.799575438290461</v>
+        <v>51.799575438290468</v>
       </c>
       <c r="BF48" s="22">
         <v>51.768151322109588</v>
@@ -18067,13 +18069,13 @@
         <v>52.668776690535992</v>
       </c>
       <c r="BJ48" s="22">
-        <v>53.176165562771949</v>
+        <v>53.176165562771956</v>
       </c>
       <c r="BK48" s="22">
         <v>53.392631449370697</v>
       </c>
       <c r="BL48" s="22">
-        <v>52.718636831145979</v>
+        <v>52.718636831145972</v>
       </c>
       <c r="BM48" s="22">
         <v>53.937244003345121</v>
@@ -18082,7 +18084,7 @@
         <v>53.91157890184202</v>
       </c>
       <c r="BO48" s="22">
-        <v>54.565582065791077</v>
+        <v>54.565582065791084</v>
       </c>
       <c r="BP48" s="22">
         <v>55.504699625568065</v>
@@ -18097,10 +18099,10 @@
         <v>58.521549861266443</v>
       </c>
       <c r="BT48" s="22">
-        <v>59.508957300313071</v>
+        <v>59.508957300313057</v>
       </c>
       <c r="BU48" s="22">
-        <v>59.690495291442922</v>
+        <v>59.690495291442936</v>
       </c>
       <c r="BV48" s="26">
         <v>59.786119486965397</v>
@@ -18115,13 +18117,16 @@
         <v>61.041026861042056</v>
       </c>
       <c r="BZ48" s="34">
-        <v>61.226992019119251</v>
+        <v>61.226992019119265</v>
       </c>
       <c r="CA48" s="34">
         <v>62.42256345855558</v>
       </c>
-    </row>
-    <row r="49" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB48" s="34">
+        <v>63.239631877898184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -18201,8 +18206,9 @@
       <c r="BY49" s="34"/>
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
-    </row>
-    <row r="50" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB49" s="34"/>
+    </row>
+    <row r="50" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>22</v>
       </c>
@@ -18440,8 +18446,11 @@
       <c r="CA50" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB50" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -18522,8 +18531,9 @@
       <c r="BY51" s="22"/>
       <c r="BZ51" s="22"/>
       <c r="CA51" s="22"/>
-    </row>
-    <row r="52" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB51" s="22"/>
+    </row>
+    <row r="52" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -18602,8 +18612,9 @@
       <c r="BY52" s="22"/>
       <c r="BZ52" s="22"/>
       <c r="CA52" s="22"/>
-    </row>
-    <row r="53" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB52" s="22"/>
+    </row>
+    <row r="53" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -18682,8 +18693,9 @@
       <c r="BY53" s="22"/>
       <c r="BZ53" s="22"/>
       <c r="CA53" s="22"/>
-    </row>
-    <row r="54" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB53" s="22"/>
+    </row>
+    <row r="54" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -18762,8 +18774,9 @@
       <c r="BY54" s="22"/>
       <c r="BZ54" s="22"/>
       <c r="CA54" s="22"/>
-    </row>
-    <row r="55" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB54" s="22"/>
+    </row>
+    <row r="55" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -18842,8 +18855,9 @@
       <c r="BY55" s="22"/>
       <c r="BZ55" s="22"/>
       <c r="CA55" s="22"/>
-    </row>
-    <row r="56" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB55" s="22"/>
+    </row>
+    <row r="56" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -18922,8 +18936,9 @@
       <c r="BY56" s="22"/>
       <c r="BZ56" s="22"/>
       <c r="CA56" s="22"/>
-    </row>
-    <row r="57" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB56" s="22"/>
+    </row>
+    <row r="57" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -19002,8 +19017,9 @@
       <c r="BY57" s="22"/>
       <c r="BZ57" s="22"/>
       <c r="CA57" s="22"/>
-    </row>
-    <row r="58" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB57" s="22"/>
+    </row>
+    <row r="58" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -19082,8 +19098,9 @@
       <c r="BY58" s="22"/>
       <c r="BZ58" s="22"/>
       <c r="CA58" s="22"/>
-    </row>
-    <row r="59" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB58" s="22"/>
+    </row>
+    <row r="59" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -19162,8 +19179,9 @@
       <c r="BY59" s="22"/>
       <c r="BZ59" s="22"/>
       <c r="CA59" s="22"/>
-    </row>
-    <row r="60" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB59" s="22"/>
+    </row>
+    <row r="60" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -19242,6 +19260,7 @@
       <c r="BY60" s="22"/>
       <c r="BZ60" s="22"/>
       <c r="CA60" s="22"/>
+      <c r="CB60" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -19252,59 +19271,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CA60"/>
+  <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY1" sqref="BY1:CA1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
-    <col min="3" max="79" width="13.5703125" style="17" customWidth="1"/>
-    <col min="80" max="16384" width="8.85546875" style="17"/>
+    <col min="3" max="80" width="13.5703125" style="17" customWidth="1"/>
+    <col min="81" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -19542,8 +19561,11 @@
       <c r="CA9" s="30">
         <v>2023</v>
       </c>
-    </row>
-    <row r="10" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB9" s="30">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -19710,16 +19732,16 @@
         <v>1029173.6330228868</v>
       </c>
       <c r="BD10" s="19">
-        <v>1064005.0228371252</v>
+        <v>1064005.0869465019</v>
       </c>
       <c r="BE10" s="19">
-        <v>1105117.4866392384</v>
+        <v>1105117.4866392382</v>
       </c>
       <c r="BF10" s="19">
-        <v>1144990.5954578118</v>
+        <v>1144990.5954578116</v>
       </c>
       <c r="BG10" s="19">
-        <v>1197371.0373716743</v>
+        <v>1197371.0373716741</v>
       </c>
       <c r="BH10" s="19">
         <v>1257109.2132941873</v>
@@ -19737,25 +19759,25 @@
         <v>1482351.7473987523</v>
       </c>
       <c r="BM10" s="19">
-        <v>1480206.8239089092</v>
+        <v>1480206.8239089095</v>
       </c>
       <c r="BN10" s="19">
         <v>1499800.7696724271</v>
       </c>
       <c r="BO10" s="19">
-        <v>1550555.2016332427</v>
+        <v>1550555.2016332422</v>
       </c>
       <c r="BP10" s="19">
-        <v>1598311.5075543905</v>
+        <v>1598311.5075543907</v>
       </c>
       <c r="BQ10" s="19">
-        <v>1645191.6850298094</v>
+        <v>1645191.6850298091</v>
       </c>
       <c r="BR10" s="19">
-        <v>1676006.3550526684</v>
+        <v>1676006.3550526681</v>
       </c>
       <c r="BS10" s="19">
-        <v>1688343.7557025505</v>
+        <v>1688343.7557025508</v>
       </c>
       <c r="BT10" s="19">
         <v>1672084.9828823139</v>
@@ -19767,22 +19789,25 @@
         <v>1762616.4965786885</v>
       </c>
       <c r="BW10" s="19">
-        <v>1783855.1472581755</v>
+        <v>1783855.1472581751</v>
       </c>
       <c r="BX10" s="19">
-        <v>1780390.5640921535</v>
+        <v>1780390.5640921537</v>
       </c>
       <c r="BY10" s="19">
         <v>1775210.3171187984</v>
       </c>
       <c r="BZ10" s="19">
-        <v>1783734.6554432951</v>
+        <v>1783734.6554432954</v>
       </c>
       <c r="CA10" s="19">
-        <v>1804907.0542362379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1804907.0542362377</v>
+      </c>
+      <c r="CB10" s="19">
+        <v>1776758.4153877923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -19949,34 +19974,34 @@
         <v>2094359.3252327673</v>
       </c>
       <c r="BD11" s="19">
-        <v>2233331.8872793475</v>
+        <v>2233331.908558073</v>
       </c>
       <c r="BE11" s="19">
         <v>2263212.7783727339</v>
       </c>
       <c r="BF11" s="19">
-        <v>2346382.7963735498</v>
+        <v>2346382.7963735494</v>
       </c>
       <c r="BG11" s="19">
         <v>2462870.600499433</v>
       </c>
       <c r="BH11" s="19">
-        <v>2571406.334583282</v>
+        <v>2571406.3345832815</v>
       </c>
       <c r="BI11" s="19">
-        <v>2701284.74963575</v>
+        <v>2701284.7496357504</v>
       </c>
       <c r="BJ11" s="19">
-        <v>2802098.6329476386</v>
+        <v>2802098.6329476382</v>
       </c>
       <c r="BK11" s="19">
         <v>2940674.679845708</v>
       </c>
       <c r="BL11" s="19">
-        <v>3101573.6524675922</v>
+        <v>3101573.6524675926</v>
       </c>
       <c r="BM11" s="19">
-        <v>3057652.291534821</v>
+        <v>3057652.2915348206</v>
       </c>
       <c r="BN11" s="19">
         <v>3358023.2875841749</v>
@@ -19985,28 +20010,28 @@
         <v>3411809.2007066575</v>
       </c>
       <c r="BP11" s="19">
-        <v>3674109.7607982061</v>
+        <v>3674109.760798207</v>
       </c>
       <c r="BQ11" s="19">
-        <v>3924518.7466281415</v>
+        <v>3924518.7466281406</v>
       </c>
       <c r="BR11" s="19">
-        <v>4218871.8311684569</v>
+        <v>4218871.831168456</v>
       </c>
       <c r="BS11" s="19">
-        <v>4493389.9589908766</v>
+        <v>4493389.9589908756</v>
       </c>
       <c r="BT11" s="19">
-        <v>4861341.7522844877</v>
+        <v>4861341.7522844896</v>
       </c>
       <c r="BU11" s="19">
         <v>5202581.5831372812</v>
       </c>
       <c r="BV11" s="19">
-        <v>5582525.289316914</v>
+        <v>5582525.2893169122</v>
       </c>
       <c r="BW11" s="19">
-        <v>5887868.6968866969</v>
+        <v>5887868.6968866978</v>
       </c>
       <c r="BX11" s="19">
         <v>5115315.7129913447</v>
@@ -20015,13 +20040,16 @@
         <v>5551621.8662187792</v>
       </c>
       <c r="BZ11" s="19">
-        <v>5913747.6649654787</v>
+        <v>5913747.6649654768</v>
       </c>
       <c r="CA11" s="19">
-        <v>6126102.2786791325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6126102.2786791306</v>
+      </c>
+      <c r="CB11" s="19">
+        <v>6469567.5000389144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -20188,13 +20216,13 @@
         <v>3568568.5965783703</v>
       </c>
       <c r="BD12" s="19">
-        <v>3688046.3188258442</v>
+        <v>3688046.2446433334</v>
       </c>
       <c r="BE12" s="19">
-        <v>3830053.4704007213</v>
+        <v>3830053.4704007208</v>
       </c>
       <c r="BF12" s="19">
-        <v>3974520.6391998725</v>
+        <v>3974520.639199873</v>
       </c>
       <c r="BG12" s="19">
         <v>4185435.7878863006</v>
@@ -20212,19 +20240,19 @@
         <v>5468817.7608404998</v>
       </c>
       <c r="BL12" s="19">
-        <v>5686952.1291571353</v>
+        <v>5686952.1291571362</v>
       </c>
       <c r="BM12" s="19">
-        <v>5881773.9015875962</v>
+        <v>5881773.9015875971</v>
       </c>
       <c r="BN12" s="19">
-        <v>6326036.9392845137</v>
+        <v>6326036.9392845146</v>
       </c>
       <c r="BO12" s="19">
         <v>6652995.9905493334</v>
       </c>
       <c r="BP12" s="19">
-        <v>7144044.9218433667</v>
+        <v>7144044.9218433676</v>
       </c>
       <c r="BQ12" s="19">
         <v>7684933.195281975</v>
@@ -20236,16 +20264,16 @@
         <v>8809173.7357357219</v>
       </c>
       <c r="BT12" s="19">
-        <v>9529249.1598030645</v>
+        <v>9529249.1598030627</v>
       </c>
       <c r="BU12" s="19">
-        <v>10230262.208913911</v>
+        <v>10230262.208913909</v>
       </c>
       <c r="BV12" s="19">
         <v>10920048.472266145</v>
       </c>
       <c r="BW12" s="19">
-        <v>11711026.767278371</v>
+        <v>11711026.767278373</v>
       </c>
       <c r="BX12" s="19">
         <v>10642137.002289824</v>
@@ -20257,10 +20285,13 @@
         <v>12248122.370699735</v>
       </c>
       <c r="CA12" s="19">
-        <v>13120748.909511007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13120748.909511006</v>
+      </c>
+      <c r="CB12" s="19">
+        <v>13993408.385211866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -20340,8 +20371,9 @@
       <c r="BY13" s="35"/>
       <c r="BZ13" s="35"/>
       <c r="CA13" s="35"/>
-    </row>
-    <row r="14" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB13" s="35"/>
+    </row>
+    <row r="14" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20508,10 +20540,10 @@
         <v>6692101.554834025</v>
       </c>
       <c r="BD14" s="24">
-        <v>6985383.228942317</v>
+        <v>6985383.2401479082</v>
       </c>
       <c r="BE14" s="24">
-        <v>7198383.7354126936</v>
+        <v>7198383.7354126927</v>
       </c>
       <c r="BF14" s="24">
         <v>7465894.0310312342</v>
@@ -20526,7 +20558,7 @@
         <v>8774324.6075555757</v>
       </c>
       <c r="BJ14" s="24">
-        <v>9240804.2770238556</v>
+        <v>9240804.2770238537</v>
       </c>
       <c r="BK14" s="24">
         <v>9843239.2494421657</v>
@@ -20544,13 +20576,13 @@
         <v>11615360.392889233</v>
       </c>
       <c r="BP14" s="24">
-        <v>12416466.190195963</v>
+        <v>12416466.190195967</v>
       </c>
       <c r="BQ14" s="24">
-        <v>13254643.626939926</v>
+        <v>13254643.626939924</v>
       </c>
       <c r="BR14" s="24">
-        <v>14096046.745228358</v>
+        <v>14096046.745228356</v>
       </c>
       <c r="BS14" s="24">
         <v>14990907.450429149</v>
@@ -20559,13 +20591,13 @@
         <v>16062675.894969866</v>
       </c>
       <c r="BU14" s="36">
-        <v>17175978.086071607</v>
+        <v>17175978.086071603</v>
       </c>
       <c r="BV14" s="36">
         <v>18265190.258161746</v>
       </c>
       <c r="BW14" s="36">
-        <v>19382750.611423243</v>
+        <v>19382750.611423247</v>
       </c>
       <c r="BX14" s="24">
         <v>17537843.279373322</v>
@@ -20577,10 +20609,13 @@
         <v>19945604.69110851</v>
       </c>
       <c r="CA14" s="24">
-        <v>21051758.242426377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21051758.242426373</v>
+      </c>
+      <c r="CB14" s="24">
+        <v>22239734.300638571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -20659,7 +20694,7 @@
       <c r="BV15" s="19"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -20736,7 +20771,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -20813,7 +20848,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -20893,8 +20928,9 @@
       <c r="BY18" s="19"/>
       <c r="BZ18" s="19"/>
       <c r="CA18" s="19"/>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB18" s="19"/>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -20976,8 +21012,9 @@
       <c r="BY19" s="19"/>
       <c r="BZ19" s="19"/>
       <c r="CA19" s="19"/>
-    </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB19" s="19"/>
+    </row>
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -21059,10 +21096,11 @@
       <c r="BY20" s="19"/>
       <c r="BZ20" s="19"/>
       <c r="CA20" s="19"/>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB20" s="19"/>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -21142,8 +21180,9 @@
       <c r="BY21" s="19"/>
       <c r="BZ21" s="19"/>
       <c r="CA21" s="19"/>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB21" s="19"/>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -21223,8 +21262,9 @@
       <c r="BY22" s="19"/>
       <c r="BZ22" s="19"/>
       <c r="CA22" s="19"/>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB22" s="19"/>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -21306,10 +21346,11 @@
       <c r="BY23" s="19"/>
       <c r="BZ23" s="19"/>
       <c r="CA23" s="19"/>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB23" s="19"/>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -21389,8 +21430,9 @@
       <c r="BY24" s="19"/>
       <c r="BZ24" s="19"/>
       <c r="CA24" s="19"/>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB24" s="19"/>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
@@ -21473,7 +21515,7 @@
       <c r="BZ25" s="19"/>
       <c r="CA25" s="19"/>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -21554,7 +21596,7 @@
       <c r="BZ26" s="19"/>
       <c r="CA26" s="19"/>
     </row>
-    <row r="27" spans="1:79" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -21661,7 +21703,7 @@
         <v>61</v>
       </c>
       <c r="AJ27" s="28" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AK27" s="28" t="s">
         <v>62</v>
@@ -21721,77 +21763,79 @@
         <v>80</v>
       </c>
       <c r="BD27" s="28" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="BE27" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="BF27" s="28" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="BG27" s="28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="BH27" s="28" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="BI27" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="BJ27" s="28" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="BK27" s="28" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BL27" s="28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BM27" s="28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="BN27" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BO27" s="28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="BP27" s="28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BQ27" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BR27" s="28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BS27" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BT27" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BU27" s="28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="BV27" s="28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="BW27" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BX27" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BY27" s="28" t="s">
         <v>109</v>
       </c>
       <c r="BZ27" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="CA27" s="28"/>
-    </row>
-    <row r="28" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="CA27" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -21958,7 +22002,7 @@
         <v>3.3844036318664479</v>
       </c>
       <c r="BD28" s="26">
-        <v>3.8639351243369617</v>
+        <v>3.8639288662351419</v>
       </c>
       <c r="BE28" s="26">
         <v>3.6080425204229698</v>
@@ -21967,7 +22011,7 @@
         <v>4.5747486592166098</v>
       </c>
       <c r="BG28" s="26">
-        <v>4.9891114832410892</v>
+        <v>4.9891114832411034</v>
       </c>
       <c r="BH28" s="26">
         <v>3.4969126446215455</v>
@@ -21982,28 +22026,28 @@
         <v>3.3900642948923689</v>
       </c>
       <c r="BL28" s="26">
-        <v>-0.14469733608146385</v>
+        <v>-0.14469733608144963</v>
       </c>
       <c r="BM28" s="26">
-        <v>1.3237302684346872</v>
+        <v>1.3237302684346588</v>
       </c>
       <c r="BN28" s="26">
-        <v>3.3840782714027284</v>
+        <v>3.3840782714027</v>
       </c>
       <c r="BO28" s="26">
-        <v>3.0799487738872386</v>
+        <v>3.0799487738872813</v>
       </c>
       <c r="BP28" s="26">
-        <v>2.93310642223625</v>
+        <v>2.9331064222362357</v>
       </c>
       <c r="BQ28" s="26">
         <v>1.8730139656827163</v>
       </c>
       <c r="BR28" s="26">
-        <v>0.73611896593878612</v>
+        <v>0.73611896593881454</v>
       </c>
       <c r="BS28" s="26">
-        <v>-0.96300132987259701</v>
+        <v>-0.96300132987261122</v>
       </c>
       <c r="BT28" s="26">
         <v>4.2491447423698645</v>
@@ -22012,23 +22056,25 @@
         <v>1.1176535637619054</v>
       </c>
       <c r="BV28" s="26">
-        <v>1.2049501817730714</v>
+        <v>1.204950181773043</v>
       </c>
       <c r="BW28" s="34">
-        <v>-0.19421886196013816</v>
+        <v>-0.19421886196009552</v>
       </c>
       <c r="BX28" s="34">
         <v>-0.2909612687144687</v>
       </c>
       <c r="BY28" s="34">
-        <v>0.4801875159407416</v>
+        <v>0.48018751594077003</v>
       </c>
       <c r="BZ28" s="34">
-        <v>1.186970199201582</v>
-      </c>
-      <c r="CA28" s="34"/>
-    </row>
-    <row r="29" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.1869701992015536</v>
+      </c>
+      <c r="CA28" s="34">
+        <v>-1.5595616839315198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -22195,31 +22241,31 @@
         <v>6.6355644120969828</v>
       </c>
       <c r="BD29" s="26">
-        <v>1.3379512137708929</v>
+        <v>1.3379502482438141</v>
       </c>
       <c r="BE29" s="26">
-        <v>3.674865164936719</v>
+        <v>3.6748651649366906</v>
       </c>
       <c r="BF29" s="26">
-        <v>4.9645694771509881</v>
+        <v>4.9645694771510023</v>
       </c>
       <c r="BG29" s="26">
-        <v>4.4068792758271513</v>
+        <v>4.4068792758271229</v>
       </c>
       <c r="BH29" s="26">
-        <v>5.050870930265333</v>
+        <v>5.0508709302653472</v>
       </c>
       <c r="BI29" s="26">
-        <v>3.732071686462632</v>
+        <v>3.7320716864625894</v>
       </c>
       <c r="BJ29" s="26">
-        <v>4.9454378681986526</v>
+        <v>4.945437868198681</v>
       </c>
       <c r="BK29" s="26">
         <v>5.4714985552338078</v>
       </c>
       <c r="BL29" s="26">
-        <v>-1.4160992403913184</v>
+        <v>-1.416099240391361</v>
       </c>
       <c r="BM29" s="26">
         <v>9.8235825205154299</v>
@@ -22228,10 +22274,10 @@
         <v>1.6017135235883728</v>
       </c>
       <c r="BO29" s="26">
-        <v>7.6880196007801658</v>
+        <v>7.68801960078018</v>
       </c>
       <c r="BP29" s="26">
-        <v>6.8155009548635235</v>
+        <v>6.8155009548634666</v>
       </c>
       <c r="BQ29" s="26">
         <v>7.5003612810670575</v>
@@ -22240,32 +22286,34 @@
         <v>6.5069084534475934</v>
       </c>
       <c r="BS29" s="26">
-        <v>8.1887349340195215</v>
+        <v>8.1887349340195641</v>
       </c>
       <c r="BT29" s="26">
-        <v>7.0194577596284944</v>
+        <v>7.019457759628466</v>
       </c>
       <c r="BU29" s="26">
         <v>7.302984107180805</v>
       </c>
       <c r="BV29" s="26">
-        <v>5.4696287387019566</v>
+        <v>5.4696287387019993</v>
       </c>
       <c r="BW29" s="34">
-        <v>-13.121097355718064</v>
+        <v>-13.121097355718078</v>
       </c>
       <c r="BX29" s="34">
         <v>8.5294081090508342</v>
       </c>
       <c r="BY29" s="34">
-        <v>6.522882996592557</v>
+        <v>6.5228829965925428</v>
       </c>
       <c r="BZ29" s="34">
         <v>3.5908636239536378</v>
       </c>
-      <c r="CA29" s="34"/>
-    </row>
-    <row r="30" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CA29" s="34">
+        <v>5.6065864677962765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -22432,10 +22480,10 @@
         <v>3.3480573236572155</v>
       </c>
       <c r="BD30" s="26">
-        <v>3.8504709349769684</v>
+        <v>3.8504730238576883</v>
       </c>
       <c r="BE30" s="26">
-        <v>3.7719360817183798</v>
+        <v>3.771936081718394</v>
       </c>
       <c r="BF30" s="26">
         <v>5.3066814298613991</v>
@@ -22453,22 +22501,22 @@
         <v>7.695710341755003</v>
       </c>
       <c r="BK30" s="26">
-        <v>3.9886933128141067</v>
+        <v>3.9886933128141351</v>
       </c>
       <c r="BL30" s="26">
         <v>3.4257677575938175</v>
       </c>
       <c r="BM30" s="26">
-        <v>7.5532151546492372</v>
+        <v>7.553215154649223</v>
       </c>
       <c r="BN30" s="26">
-        <v>5.1684657298539207</v>
+        <v>5.1684657298538923</v>
       </c>
       <c r="BO30" s="26">
-        <v>7.3808691902351029</v>
+        <v>7.3808691902351313</v>
       </c>
       <c r="BP30" s="26">
-        <v>7.5711768242779272</v>
+        <v>7.5711768242778987</v>
       </c>
       <c r="BQ30" s="26">
         <v>6.7174996920232246</v>
@@ -22477,7 +22525,7 @@
         <v>7.4136407800169764</v>
       </c>
       <c r="BS30" s="26">
-        <v>8.174153963455737</v>
+        <v>8.1741539634557085</v>
       </c>
       <c r="BT30" s="26">
         <v>7.3564353009879113</v>
@@ -22486,10 +22534,10 @@
         <v>6.742605900669929</v>
       </c>
       <c r="BV30" s="26">
-        <v>7.2433588277661016</v>
+        <v>7.2433588277661158</v>
       </c>
       <c r="BW30" s="34">
-        <v>-9.1272079402560848</v>
+        <v>-9.1272079402560991</v>
       </c>
       <c r="BX30" s="34">
         <v>5.3665446534042758</v>
@@ -22498,11 +22546,13 @@
         <v>9.2289937899219012</v>
       </c>
       <c r="BZ30" s="34">
-        <v>7.1245739746917565</v>
-      </c>
-      <c r="CA30" s="34"/>
-    </row>
-    <row r="31" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.124573974691728</v>
+      </c>
+      <c r="CA30" s="34">
+        <v>6.6509883065309197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -22583,7 +22633,7 @@
       <c r="BZ31" s="34"/>
       <c r="CA31" s="34"/>
     </row>
-    <row r="32" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -22750,7 +22800,7 @@
         <v>4.3825048335741457</v>
       </c>
       <c r="BD32" s="27">
-        <v>3.0492315094160887</v>
+        <v>3.0492313441098133</v>
       </c>
       <c r="BE32" s="27">
         <v>3.7162550018348526</v>
@@ -22765,10 +22815,10 @@
         <v>4.9425051178358075</v>
       </c>
       <c r="BI32" s="27">
-        <v>5.3164168221744745</v>
+        <v>5.3164168221744461</v>
       </c>
       <c r="BJ32" s="27">
-        <v>6.5192915503706956</v>
+        <v>6.5192915503707241</v>
       </c>
       <c r="BK32" s="27">
         <v>4.344487304883387</v>
@@ -22783,31 +22833,31 @@
         <v>3.8582328274785311</v>
       </c>
       <c r="BO32" s="27">
-        <v>6.8969517105741858</v>
+        <v>6.8969517105742</v>
       </c>
       <c r="BP32" s="27">
-        <v>6.7505313017788353</v>
+        <v>6.7505313017787785</v>
       </c>
       <c r="BQ32" s="27">
         <v>6.3479874825022762</v>
       </c>
       <c r="BR32" s="27">
-        <v>6.3483097167204647</v>
+        <v>6.3483097167204932</v>
       </c>
       <c r="BS32" s="27">
         <v>7.14945674959813</v>
       </c>
       <c r="BT32" s="27">
-        <v>6.9309883258640497</v>
+        <v>6.9309883258640355</v>
       </c>
       <c r="BU32" s="27">
         <v>6.3414855714878371</v>
       </c>
       <c r="BV32" s="27">
-        <v>6.1185256625625186</v>
+        <v>6.118525662562547</v>
       </c>
       <c r="BW32" s="27">
-        <v>-9.5182947406990905</v>
+        <v>-9.518294740699119</v>
       </c>
       <c r="BX32" s="27">
         <v>5.7147331321929471</v>
@@ -22816,17 +22866,19 @@
         <v>7.5809821277173199</v>
       </c>
       <c r="BZ32" s="27">
-        <v>5.5458511709648945</v>
-      </c>
-      <c r="CA32" s="27"/>
-    </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
+        <v>5.5458511709648661</v>
+      </c>
+      <c r="CA32" s="27">
+        <v>5.6431203728058534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -22907,7 +22959,7 @@
       <c r="BZ34" s="19"/>
       <c r="CA34" s="19"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -22988,7 +23040,7 @@
       <c r="BZ35" s="19"/>
       <c r="CA35" s="19"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -23069,7 +23121,7 @@
       <c r="BZ36" s="19"/>
       <c r="CA36" s="19"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -23152,7 +23204,7 @@
       <c r="BZ37" s="19"/>
       <c r="CA37" s="19"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -23235,9 +23287,9 @@
       <c r="BZ38" s="19"/>
       <c r="CA38" s="19"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -23317,8 +23369,9 @@
       <c r="BY39" s="19"/>
       <c r="BZ39" s="19"/>
       <c r="CA39" s="19"/>
-    </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB39" s="19"/>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -23398,8 +23451,9 @@
       <c r="BY40" s="19"/>
       <c r="BZ40" s="19"/>
       <c r="CA40" s="19"/>
-    </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB40" s="19"/>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>27</v>
       </c>
@@ -23481,10 +23535,11 @@
       <c r="BY41" s="19"/>
       <c r="BZ41" s="19"/>
       <c r="CA41" s="19"/>
-    </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB41" s="19"/>
+    </row>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -23564,8 +23619,9 @@
       <c r="BY42" s="19"/>
       <c r="BZ42" s="19"/>
       <c r="CA42" s="19"/>
-    </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="CB42" s="19"/>
+    </row>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>24</v>
       </c>
@@ -23647,8 +23703,9 @@
       <c r="BY43" s="19"/>
       <c r="BZ43" s="19"/>
       <c r="CA43" s="19"/>
-    </row>
-    <row r="44" spans="1:79" ht="15" x14ac:dyDescent="0.2">
+      <c r="CB43" s="19"/>
+    </row>
+    <row r="44" spans="1:80" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -23728,8 +23785,9 @@
       <c r="BY44" s="19"/>
       <c r="BZ44" s="19"/>
       <c r="CA44" s="19"/>
-    </row>
-    <row r="45" spans="1:79" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB44" s="19"/>
+    </row>
+    <row r="45" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>20</v>
       </c>
@@ -23967,8 +24025,11 @@
       <c r="CA45" s="30">
         <v>2023</v>
       </c>
-    </row>
-    <row r="46" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB45" s="30">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>21</v>
       </c>
@@ -24135,16 +24196,16 @@
         <v>15.378930289536111</v>
       </c>
       <c r="BD46" s="22">
-        <v>15.231877593038373</v>
+        <v>15.23187848636881</v>
       </c>
       <c r="BE46" s="22">
         <v>15.352300283778639</v>
       </c>
       <c r="BF46" s="22">
-        <v>15.336282442514909</v>
+        <v>15.336282442514907</v>
       </c>
       <c r="BG46" s="22">
-        <v>15.261537944966966</v>
+        <v>15.261537944966964</v>
       </c>
       <c r="BH46" s="22">
         <v>15.035252962513354</v>
@@ -24153,7 +24214,7 @@
         <v>14.828140996860578</v>
       </c>
       <c r="BJ46" s="22">
-        <v>14.724672528670684</v>
+        <v>14.724672528670688</v>
       </c>
       <c r="BK46" s="22">
         <v>14.565802703995139</v>
@@ -24162,13 +24223,13 @@
         <v>14.432571542304128</v>
       </c>
       <c r="BM46" s="22">
-        <v>14.205940089151403</v>
+        <v>14.205940089151406</v>
       </c>
       <c r="BN46" s="22">
         <v>13.410402455254742</v>
       </c>
       <c r="BO46" s="22">
-        <v>13.349178580653181</v>
+        <v>13.349178580653176</v>
       </c>
       <c r="BP46" s="22">
         <v>12.872515279882263</v>
@@ -24180,22 +24241,22 @@
         <v>11.889903498085461</v>
       </c>
       <c r="BS46" s="22">
-        <v>11.262451998222547</v>
+        <v>11.26245199822255</v>
       </c>
       <c r="BT46" s="22">
         <v>10.409753604042638</v>
       </c>
       <c r="BU46" s="22">
-        <v>10.148675582172297</v>
+        <v>10.148675582172299</v>
       </c>
       <c r="BV46" s="22">
         <v>9.6501403580565963</v>
       </c>
       <c r="BW46" s="26">
-        <v>9.2033126929201607</v>
+        <v>9.2033126929201572</v>
       </c>
       <c r="BX46" s="26">
-        <v>10.151707571626629</v>
+        <v>10.151707571626631</v>
       </c>
       <c r="BY46" s="26">
         <v>9.5749851837800009</v>
@@ -24206,8 +24267,11 @@
       <c r="CA46" s="26">
         <v>8.5736641730890817</v>
       </c>
-    </row>
-    <row r="47" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB46" s="26">
+        <v>7.9891170972162922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -24374,31 +24438,31 @@
         <v>31.295988383797184</v>
       </c>
       <c r="BD47" s="22">
-        <v>31.971501263181302</v>
+        <v>31.971501516512134</v>
       </c>
       <c r="BE47" s="22">
-        <v>31.440568627076402</v>
+        <v>31.440568627076409</v>
       </c>
       <c r="BF47" s="22">
-        <v>31.428021702706292</v>
+        <v>31.428021702706282</v>
       </c>
       <c r="BG47" s="22">
         <v>31.39143335684199</v>
       </c>
       <c r="BH47" s="22">
-        <v>30.754483620844574</v>
+        <v>30.754483620844571</v>
       </c>
       <c r="BI47" s="22">
-        <v>30.786241339984986</v>
+        <v>30.786241339984993</v>
       </c>
       <c r="BJ47" s="22">
-        <v>30.323103367904007</v>
+        <v>30.323103367904015</v>
       </c>
       <c r="BK47" s="22">
         <v>29.875070648235653</v>
       </c>
       <c r="BL47" s="22">
-        <v>30.197747404768045</v>
+        <v>30.197747404768048</v>
       </c>
       <c r="BM47" s="22">
         <v>29.345105403779193</v>
@@ -24413,22 +24477,22 @@
         <v>29.590623487536909</v>
       </c>
       <c r="BQ47" s="22">
-        <v>29.608632695726335</v>
+        <v>29.608632695726328</v>
       </c>
       <c r="BR47" s="22">
         <v>29.929468221979217</v>
       </c>
       <c r="BS47" s="22">
-        <v>29.974102460770265</v>
+        <v>29.974102460770258</v>
       </c>
       <c r="BT47" s="22">
-        <v>30.264831240272049</v>
+        <v>30.264831240272059</v>
       </c>
       <c r="BU47" s="22">
-        <v>30.289870871203391</v>
+        <v>30.289870871203394</v>
       </c>
       <c r="BV47" s="22">
-        <v>30.563740154978014</v>
+        <v>30.563740154978003</v>
       </c>
       <c r="BW47" s="26">
         <v>30.37684802804343</v>
@@ -24440,13 +24504,16 @@
         <v>29.943886987581429</v>
       </c>
       <c r="BZ47" s="26">
-        <v>29.64937767768831</v>
+        <v>29.6493776776883</v>
       </c>
       <c r="CA47" s="26">
-        <v>29.100193001138379</v>
-      </c>
-    </row>
-    <row r="48" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29.100193001138376</v>
+      </c>
+      <c r="CB47" s="26">
+        <v>29.090129461902581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
@@ -24613,13 +24680,13 @@
         <v>53.325081326666698</v>
       </c>
       <c r="BD48" s="22">
-        <v>52.796621143780328</v>
+        <v>52.796619997119052</v>
       </c>
       <c r="BE48" s="22">
         <v>53.207131089144951</v>
       </c>
       <c r="BF48" s="22">
-        <v>53.235695854778797</v>
+        <v>53.235695854778811</v>
       </c>
       <c r="BG48" s="22">
         <v>53.347028698191046</v>
@@ -24631,37 +24698,37 @@
         <v>54.385617663154441</v>
       </c>
       <c r="BJ48" s="22">
-        <v>54.952224103425294</v>
+        <v>54.952224103425308</v>
       </c>
       <c r="BK48" s="22">
         <v>55.559126647769205</v>
       </c>
       <c r="BL48" s="22">
-        <v>55.369681052927824</v>
+        <v>55.369681052927831</v>
       </c>
       <c r="BM48" s="22">
-        <v>56.448954507069395</v>
+        <v>56.448954507069402</v>
       </c>
       <c r="BN48" s="22">
-        <v>56.563980375301483</v>
+        <v>56.56398037530149</v>
       </c>
       <c r="BO48" s="22">
         <v>57.277568370777445</v>
       </c>
       <c r="BP48" s="22">
-        <v>57.536861232580826</v>
+        <v>57.536861232580819</v>
       </c>
       <c r="BQ48" s="22">
-        <v>57.979176291563419</v>
+        <v>57.979176291563427</v>
       </c>
       <c r="BR48" s="22">
-        <v>58.180628279935306</v>
+        <v>58.18062827993532</v>
       </c>
       <c r="BS48" s="22">
         <v>58.763445541007187</v>
       </c>
       <c r="BT48" s="22">
-        <v>59.325415155685313</v>
+        <v>59.325415155685299</v>
       </c>
       <c r="BU48" s="22">
         <v>59.561453546624307</v>
@@ -24684,8 +24751,11 @@
       <c r="CA48" s="26">
         <v>62.326142825772543</v>
       </c>
-    </row>
-    <row r="49" spans="1:79" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB48" s="26">
+        <v>62.920753440881136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -24765,8 +24835,9 @@
       <c r="BY49" s="34"/>
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
-    </row>
-    <row r="50" spans="1:79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB49" s="34"/>
+    </row>
+    <row r="50" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>22</v>
       </c>
@@ -25004,8 +25075,11 @@
       <c r="CA50" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB50" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -25084,7 +25158,7 @@
       <c r="BV51" s="22"/>
       <c r="BW51" s="22"/>
     </row>
-    <row r="52" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -25163,8 +25237,9 @@
       <c r="BY52" s="22"/>
       <c r="BZ52" s="22"/>
       <c r="CA52" s="22"/>
-    </row>
-    <row r="53" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB52" s="22"/>
+    </row>
+    <row r="53" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -25243,8 +25318,9 @@
       <c r="BY53" s="22"/>
       <c r="BZ53" s="22"/>
       <c r="CA53" s="22"/>
-    </row>
-    <row r="54" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB53" s="22"/>
+    </row>
+    <row r="54" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -25323,8 +25399,9 @@
       <c r="BY54" s="22"/>
       <c r="BZ54" s="22"/>
       <c r="CA54" s="22"/>
-    </row>
-    <row r="55" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB54" s="22"/>
+    </row>
+    <row r="55" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -25403,8 +25480,9 @@
       <c r="BY55" s="22"/>
       <c r="BZ55" s="22"/>
       <c r="CA55" s="22"/>
-    </row>
-    <row r="56" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB55" s="22"/>
+    </row>
+    <row r="56" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -25483,8 +25561,9 @@
       <c r="BY56" s="22"/>
       <c r="BZ56" s="22"/>
       <c r="CA56" s="22"/>
-    </row>
-    <row r="57" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB56" s="22"/>
+    </row>
+    <row r="57" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -25563,8 +25642,9 @@
       <c r="BY57" s="22"/>
       <c r="BZ57" s="22"/>
       <c r="CA57" s="22"/>
-    </row>
-    <row r="58" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB57" s="22"/>
+    </row>
+    <row r="58" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -25643,8 +25723,9 @@
       <c r="BY58" s="22"/>
       <c r="BZ58" s="22"/>
       <c r="CA58" s="22"/>
-    </row>
-    <row r="59" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB58" s="22"/>
+    </row>
+    <row r="59" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -25723,8 +25804,9 @@
       <c r="BY59" s="22"/>
       <c r="BZ59" s="22"/>
       <c r="CA59" s="22"/>
-    </row>
-    <row r="60" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CB59" s="22"/>
+    </row>
+    <row r="60" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -25803,6 +25885,7 @@
       <c r="BY60" s="22"/>
       <c r="BZ60" s="22"/>
       <c r="CA60" s="22"/>
+      <c r="CB60" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\QNAP\NAP Dissemination\As of January 2025\Tables\Prelim Q4 2024\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\QNAP\NAP Dissemination\As of April 2025\Tables\NAP 1981 and 1946 series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31466F0-C670-48A1-8AAA-5243862D1CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029904B-C6DC-495A-A2F3-D2B683C6A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="113">
   <si>
     <t>Old</t>
   </si>
@@ -298,10 +298,13 @@
     <t>Growth Rates, at Current Prices</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>1946 to 2024</t>
   </si>
   <si>
-    <t>1946 to 2024</t>
+    <t>1947 to 2024</t>
+  </si>
+  <si>
+    <t>As of April 2025</t>
   </si>
   <si>
     <t>2000 - 2001</t>
@@ -12641,10 +12644,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12667,7 +12670,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
@@ -12680,7 +12683,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
@@ -13170,10 +13173,10 @@
         <v>2104089.8599160332</v>
       </c>
       <c r="CA10" s="19">
-        <v>2285159.1602593842</v>
+        <v>2285564.0565247671</v>
       </c>
       <c r="CB10" s="19">
-        <v>2400667.1117872684</v>
+        <v>2401998.5929831276</v>
       </c>
     </row>
     <row r="11" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13412,10 +13415,10 @@
         <v>6436935.4825338945</v>
       </c>
       <c r="CA11" s="19">
-        <v>6853151.6059861947</v>
+        <v>6855846.7681841524</v>
       </c>
       <c r="CB11" s="19">
-        <v>7317591.0125612002</v>
+        <v>7324051.7478946894</v>
       </c>
     </row>
     <row r="12" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13654,10 +13657,10 @@
         <v>13487250.995206343</v>
       </c>
       <c r="CA12" s="19">
-        <v>15180300.632823305</v>
+        <v>15172152.370130764</v>
       </c>
       <c r="CB12" s="19">
-        <v>16718523.172478262</v>
+        <v>16720319.15398364</v>
       </c>
     </row>
     <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -13978,10 +13981,10 @@
         <v>22028276.337656271</v>
       </c>
       <c r="CA14" s="24">
-        <v>24318611.399068885</v>
+        <v>24313563.194839686</v>
       </c>
       <c r="CB14" s="24">
-        <v>26436781.296826731</v>
+        <v>26446369.494861454</v>
       </c>
     </row>
     <row r="15" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -14469,7 +14472,7 @@
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -15132,76 +15135,76 @@
         <v>80</v>
       </c>
       <c r="BD27" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BE27" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BF27" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BG27" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BH27" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BI27" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BJ27" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BK27" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BL27" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BM27" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BN27" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BO27" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BP27" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BQ27" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BR27" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BS27" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BT27" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BU27" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BV27" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BW27" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BX27" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BY27" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BZ27" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="CA27" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15437,10 +15440,10 @@
         <v>7.6543502080105981</v>
       </c>
       <c r="BZ28" s="34">
-        <v>8.6055878027270722</v>
+        <v>8.6248310999405646</v>
       </c>
       <c r="CA28" s="34">
-        <v>5.054700501245307</v>
+        <v>5.0943457973083923</v>
       </c>
     </row>
     <row r="29" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15676,10 +15679,10 @@
         <v>14.787659207089547</v>
       </c>
       <c r="BZ29" s="34">
-        <v>6.4660602018098388</v>
+        <v>6.5079304707486898</v>
       </c>
       <c r="CA29" s="34">
-        <v>6.7770192938577196</v>
+        <v>6.8292801099833582</v>
       </c>
     </row>
     <row r="30" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15915,10 +15918,10 @@
         <v>13.831464849151388</v>
       </c>
       <c r="BZ30" s="34">
-        <v>12.552963077640584</v>
+        <v>12.492548522477051</v>
       </c>
       <c r="CA30" s="34">
-        <v>10.133017631607146</v>
+        <v>10.20400234643526</v>
       </c>
     </row>
     <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -16235,10 +16238,10 @@
         <v>13.485723769004537</v>
       </c>
       <c r="BZ32" s="27">
-        <v>10.397250453488269</v>
+        <v>10.374333525482555</v>
       </c>
       <c r="CA32" s="27">
-        <v>8.7100774916735162</v>
+        <v>8.772084465490579</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.2">
@@ -16660,7 +16663,7 @@
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -16910,7 +16913,7 @@
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -17636,10 +17639,10 @@
         <v>9.5517680442350059</v>
       </c>
       <c r="CA46" s="34">
-        <v>9.3967501793580155</v>
+        <v>9.4003665287935068</v>
       </c>
       <c r="CB46" s="34">
-        <v>9.0807843997083939</v>
+        <v>9.0825267848195104</v>
       </c>
     </row>
     <row r="47" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17878,10 +17881,10 @@
         <v>29.221239936645727</v>
       </c>
       <c r="CA47" s="34">
-        <v>28.180686362086405</v>
+        <v>28.197622509066207</v>
       </c>
       <c r="CB47" s="34">
-        <v>27.679583722393421</v>
+        <v>27.693977993152359</v>
       </c>
     </row>
     <row r="48" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18120,10 +18123,10 @@
         <v>61.226992019119265</v>
       </c>
       <c r="CA48" s="34">
-        <v>62.42256345855558</v>
+        <v>62.402010962140274</v>
       </c>
       <c r="CB48" s="34">
-        <v>63.239631877898184</v>
+        <v>63.223495222028149</v>
       </c>
     </row>
     <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -19274,8 +19277,8 @@
   <dimension ref="A1:CB60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19298,7 +19301,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.2">
@@ -19311,7 +19314,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.2">
@@ -19801,10 +19804,10 @@
         <v>1783734.6554432954</v>
       </c>
       <c r="CA10" s="19">
-        <v>1804907.0542362377</v>
+        <v>1805216.771038763</v>
       </c>
       <c r="CB10" s="19">
-        <v>1776758.4153877923</v>
+        <v>1778234.5329187952</v>
       </c>
     </row>
     <row r="11" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20043,10 +20046,10 @@
         <v>5913747.6649654768</v>
       </c>
       <c r="CA11" s="19">
-        <v>6126102.2786791306</v>
+        <v>6128235.4957260517</v>
       </c>
       <c r="CB11" s="19">
-        <v>6469567.5000389144</v>
+        <v>6473862.2736754334</v>
       </c>
     </row>
     <row r="12" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20285,10 +20288,10 @@
         <v>12248122.370699735</v>
       </c>
       <c r="CA12" s="19">
-        <v>13120748.909511006</v>
+        <v>13112940.310321592</v>
       </c>
       <c r="CB12" s="19">
-        <v>13993408.385211866</v>
+        <v>13992259.830376996</v>
       </c>
     </row>
     <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -20609,10 +20612,10 @@
         <v>19945604.69110851</v>
       </c>
       <c r="CA14" s="24">
-        <v>21051758.242426373</v>
+        <v>21046392.577086408</v>
       </c>
       <c r="CB14" s="24">
-        <v>22239734.300638571</v>
+        <v>22244356.636971224</v>
       </c>
     </row>
     <row r="15" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -21100,7 +21103,7 @@
     </row>
     <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -21763,76 +21766,76 @@
         <v>80</v>
       </c>
       <c r="BD27" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BE27" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BF27" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BG27" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BH27" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BI27" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BJ27" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BK27" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BL27" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BM27" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BN27" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BO27" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BP27" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BQ27" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BR27" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BS27" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BT27" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BU27" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BV27" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BW27" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BX27" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BY27" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BZ27" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="CA27" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22068,10 +22071,10 @@
         <v>0.48018751594077003</v>
       </c>
       <c r="BZ28" s="34">
-        <v>1.1869701992015536</v>
+        <v>1.2043335890745936</v>
       </c>
       <c r="CA28" s="34">
-        <v>-1.5595616839315198</v>
+        <v>-1.4946813342777432</v>
       </c>
     </row>
     <row r="29" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22307,10 +22310,10 @@
         <v>6.5228829965925428</v>
       </c>
       <c r="BZ29" s="34">
-        <v>3.5908636239536378</v>
+        <v>3.6269357928687924</v>
       </c>
       <c r="CA29" s="34">
-        <v>5.6065864677962765</v>
+        <v>5.6399069224808471</v>
       </c>
     </row>
     <row r="30" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22546,10 +22549,10 @@
         <v>9.2289937899219012</v>
       </c>
       <c r="BZ30" s="34">
-        <v>7.124573974691728</v>
+        <v>7.0608205359761627</v>
       </c>
       <c r="CA30" s="34">
-        <v>6.6509883065309197</v>
+        <v>6.7057387530641535</v>
       </c>
     </row>
     <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
@@ -22866,10 +22869,10 @@
         <v>7.5809821277173199</v>
       </c>
       <c r="BZ32" s="27">
-        <v>5.5458511709648661</v>
+        <v>5.5189496785154546</v>
       </c>
       <c r="CA32" s="27">
-        <v>5.6431203728058534</v>
+        <v>5.6920161281656618</v>
       </c>
     </row>
     <row r="33" spans="1:80" x14ac:dyDescent="0.2">
@@ -23289,7 +23292,7 @@
     </row>
     <row r="39" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -23539,7 +23542,7 @@
     </row>
     <row r="42" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -24265,10 +24268,10 @@
         <v>8.9429961290592548</v>
       </c>
       <c r="CA46" s="26">
-        <v>8.5736641730890817</v>
+        <v>8.5773215738840456</v>
       </c>
       <c r="CB46" s="26">
-        <v>7.9891170972162922</v>
+        <v>7.9940928925913788</v>
       </c>
     </row>
     <row r="47" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24507,10 +24510,10 @@
         <v>29.6493776776883</v>
       </c>
       <c r="CA47" s="26">
-        <v>29.100193001138376</v>
+        <v>29.117747724605188</v>
       </c>
       <c r="CB47" s="26">
-        <v>29.090129461902581</v>
+        <v>29.103391836990927</v>
       </c>
     </row>
     <row r="48" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24749,10 +24752,10 @@
         <v>61.407626193252426</v>
       </c>
       <c r="CA48" s="26">
-        <v>62.326142825772543</v>
+        <v>62.304930701510763</v>
       </c>
       <c r="CB48" s="26">
-        <v>62.920753440881136</v>
+        <v>62.902515270417695</v>
       </c>
     </row>
     <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
+++ b/Data/National Accounts/PSA-Annual-1946-to-latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Shared drives\QNAP\NAP Dissemination\As of April 2025\Tables\NAP 1981 and 1946 series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Consol\QNAP\Pub tables\81 and 46 series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029904B-C6DC-495A-A2F3-D2B683C6A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A076E4-6849-498F-B811-52BBA06DFC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Option 1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Constant_2018based" sheetId="7" r:id="rId4"/>
     <sheet name="Bkcast_cons" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="88">
   <si>
     <t>Old</t>
   </si>
@@ -298,85 +301,10 @@
     <t>Growth Rates, at Current Prices</t>
   </si>
   <si>
-    <t>1946 to 2024</t>
+    <t>1946 to 2025</t>
   </si>
   <si>
-    <t>1947 to 2024</t>
-  </si>
-  <si>
-    <t>As of April 2025</t>
-  </si>
-  <si>
-    <t>2000 - 2001</t>
-  </si>
-  <si>
-    <t>2001 - 2002</t>
-  </si>
-  <si>
-    <t>2002 - 2003</t>
-  </si>
-  <si>
-    <t>2003 - 2004</t>
-  </si>
-  <si>
-    <t>2004 - 2005</t>
-  </si>
-  <si>
-    <t>2005 - 2006</t>
-  </si>
-  <si>
-    <t>2006 - 2007</t>
-  </si>
-  <si>
-    <t>2007 - 2008</t>
-  </si>
-  <si>
-    <t>2008 - 2009</t>
-  </si>
-  <si>
-    <t>2009 - 2010</t>
-  </si>
-  <si>
-    <t>2010 - 2011</t>
-  </si>
-  <si>
-    <t>2011 - 2012</t>
-  </si>
-  <si>
-    <t>2012 - 2013</t>
-  </si>
-  <si>
-    <t>2013 - 2014</t>
-  </si>
-  <si>
-    <t>2014 - 2015</t>
-  </si>
-  <si>
-    <t>2015 - 2016</t>
-  </si>
-  <si>
-    <t>2016 - 2017</t>
-  </si>
-  <si>
-    <t>2017 - 2018</t>
-  </si>
-  <si>
-    <t>2018 - 2019</t>
-  </si>
-  <si>
-    <t>2019 - 2020</t>
-  </si>
-  <si>
-    <t>2020 - 2021</t>
-  </si>
-  <si>
-    <t>2021 - 2022</t>
-  </si>
-  <si>
-    <t>2022 - 2023</t>
-  </si>
-  <si>
-    <t>2023 - 2024</t>
+    <t>1947 to 2025</t>
   </si>
 </sst>
 </file>
@@ -605,6 +533,2053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Prod_GR"/>
+      <sheetName val="Exp_GR"/>
+      <sheetName val="Prod_ConGrow"/>
+      <sheetName val="Exp_ConGrow"/>
+      <sheetName val="Prod_Share to GDP"/>
+      <sheetName val="Exp_Share to GDP"/>
+      <sheetName val="Prod_ConRev"/>
+      <sheetName val="Exp_ConRev"/>
+      <sheetName val="3Q"/>
+      <sheetName val="Sem"/>
+      <sheetName val="Annual"/>
+      <sheetName val="Qtr"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Prod_Rev"/>
+      <sheetName val="Exp_Rev"/>
+      <sheetName val="Prod_Q_Rev_3yr"/>
+      <sheetName val="Exp_Q_Rev_3yr"/>
+      <sheetName val="Prod_A_Rev_3yr"/>
+      <sheetName val="Exp_A_Rev_3yr"/>
+      <sheetName val="Prod_Q"/>
+      <sheetName val="Exp_Q"/>
+      <sheetName val="Prod_S"/>
+      <sheetName val="Exp_S"/>
+      <sheetName val="Prod_A"/>
+      <sheetName val="Exp_A"/>
+      <sheetName val="Prod_3Q"/>
+      <sheetName val="Exp_3Q"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>As of January 2026</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>515479.83105914737</v>
+          </cell>
+          <cell r="C88">
+            <v>535358.11662950239</v>
+          </cell>
+          <cell r="D88">
+            <v>585081.26403037924</v>
+          </cell>
+          <cell r="E88">
+            <v>620436.58457756066</v>
+          </cell>
+          <cell r="F88">
+            <v>744516.25225188024</v>
+          </cell>
+          <cell r="G88">
+            <v>799871.41640274995</v>
+          </cell>
+          <cell r="H88">
+            <v>875217.54801529867</v>
+          </cell>
+          <cell r="I88">
+            <v>979429.73898867343</v>
+          </cell>
+          <cell r="J88">
+            <v>1168573.1402468833</v>
+          </cell>
+          <cell r="K88">
+            <v>1219985.1777794692</v>
+          </cell>
+          <cell r="L88">
+            <v>1292317.8004069938</v>
+          </cell>
+          <cell r="M88">
+            <v>1429964.5926411448</v>
+          </cell>
+          <cell r="N88">
+            <v>1448473.3675359092</v>
+          </cell>
+          <cell r="O88">
+            <v>1503121.5657752962</v>
+          </cell>
+          <cell r="P88">
+            <v>1620699.915263247</v>
+          </cell>
+          <cell r="Q88">
+            <v>1533369.1559169192</v>
+          </cell>
+          <cell r="R88">
+            <v>1544278.5250839123</v>
+          </cell>
+          <cell r="S88">
+            <v>1685956.1855432384</v>
+          </cell>
+          <cell r="T88">
+            <v>1762616.4965786883</v>
+          </cell>
+          <cell r="U88">
+            <v>1721538.720258696</v>
+          </cell>
+          <cell r="V88">
+            <v>1828423.603228105</v>
+          </cell>
+          <cell r="W88">
+            <v>1954486.610016682</v>
+          </cell>
+          <cell r="X88">
+            <v>2104089.8599160332</v>
+          </cell>
+          <cell r="Y88">
+            <v>2285564.0565247671</v>
+          </cell>
+          <cell r="Z88">
+            <v>2401998.5929831276</v>
+          </cell>
+          <cell r="AA88">
+            <v>2407377.1641075336</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>1293230.8123216361</v>
+          </cell>
+          <cell r="C89">
+            <v>1404419.2585960752</v>
+          </cell>
+          <cell r="D89">
+            <v>1513274.1419064312</v>
+          </cell>
+          <cell r="E89">
+            <v>1629557.8179376805</v>
+          </cell>
+          <cell r="F89">
+            <v>1789827.1716504705</v>
+          </cell>
+          <cell r="G89">
+            <v>2000850.6834146297</v>
+          </cell>
+          <cell r="H89">
+            <v>2191938.9158876012</v>
+          </cell>
+          <cell r="I89">
+            <v>2375482.7850285335</v>
+          </cell>
+          <cell r="J89">
+            <v>2637671.450985474</v>
+          </cell>
+          <cell r="K89">
+            <v>2644874.1847134624</v>
+          </cell>
+          <cell r="L89">
+            <v>3039740.6458881143</v>
+          </cell>
+          <cell r="M89">
+            <v>3179203.2325789281</v>
+          </cell>
+          <cell r="N89">
+            <v>3472968.8558059549</v>
+          </cell>
+          <cell r="O89">
+            <v>3708623.5049130186</v>
+          </cell>
+          <cell r="P89">
+            <v>4100382.6683558412</v>
+          </cell>
+          <cell r="Q89">
+            <v>4250451.2383206487</v>
+          </cell>
+          <cell r="R89">
+            <v>4582980.5174834859</v>
+          </cell>
+          <cell r="S89">
+            <v>4987947.8624290526</v>
+          </cell>
+          <cell r="T89">
+            <v>5582525.2893169122</v>
+          </cell>
+          <cell r="U89">
+            <v>5919281.4913050616</v>
+          </cell>
+          <cell r="V89">
+            <v>5098232.0991026126</v>
+          </cell>
+          <cell r="W89">
+            <v>5607689.4737621192</v>
+          </cell>
+          <cell r="X89">
+            <v>6436935.4825338945</v>
+          </cell>
+          <cell r="Y89">
+            <v>6855846.7681841524</v>
+          </cell>
+          <cell r="Z89">
+            <v>7324051.7478946894</v>
+          </cell>
+          <cell r="AA89">
+            <v>7549475.326033894</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>1888845.5620071718</v>
+          </cell>
+          <cell r="C94">
+            <v>2084621.56495832</v>
+          </cell>
+          <cell r="D94">
+            <v>2252204.3661971181</v>
+          </cell>
+          <cell r="E94">
+            <v>2467814.5379699469</v>
+          </cell>
+          <cell r="F94">
+            <v>2789560.7532976717</v>
+          </cell>
+          <cell r="G94">
+            <v>3116560.2013509646</v>
+          </cell>
+          <cell r="H94">
+            <v>3483260.64902006</v>
+          </cell>
+          <cell r="I94">
+            <v>3843332.3637472363</v>
+          </cell>
+          <cell r="J94">
+            <v>4243956.0293361945</v>
+          </cell>
+          <cell r="K94">
+            <v>4525562.0937777292</v>
+          </cell>
+          <cell r="L94">
+            <v>5067392.3117788061</v>
+          </cell>
+          <cell r="M94">
+            <v>5535493.5015616529</v>
+          </cell>
+          <cell r="N94">
+            <v>6139146.6072256053</v>
+          </cell>
+          <cell r="O94">
+            <v>6838846.913572249</v>
+          </cell>
+          <cell r="P94">
+            <v>7485745.6680728551</v>
+          </cell>
+          <cell r="Q94">
+            <v>8160337.0535270972</v>
+          </cell>
+          <cell r="R94">
+            <v>9005122.4276059344</v>
+          </cell>
+          <cell r="S94">
+            <v>9882747.0352535639</v>
+          </cell>
+          <cell r="T94">
+            <v>10920048.472266145</v>
+          </cell>
+          <cell r="U94">
+            <v>11877042.96011826</v>
+          </cell>
+          <cell r="V94">
+            <v>11024917.867682004</v>
+          </cell>
+          <cell r="W94">
+            <v>11848438.402404422</v>
+          </cell>
+          <cell r="X94">
+            <v>13487250.995206343</v>
+          </cell>
+          <cell r="Y94">
+            <v>15172152.370130764</v>
+          </cell>
+          <cell r="Z94">
+            <v>16720319.15398364</v>
+          </cell>
+          <cell r="AA94">
+            <v>18057411.945117269</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>3697556.2053879555</v>
+          </cell>
+          <cell r="C107">
+            <v>4024398.9401838975</v>
+          </cell>
+          <cell r="D107">
+            <v>4350559.7721339278</v>
+          </cell>
+          <cell r="E107">
+            <v>4717808.9404851878</v>
+          </cell>
+          <cell r="F107">
+            <v>5323904.1772000222</v>
+          </cell>
+          <cell r="G107">
+            <v>5917282.301168344</v>
+          </cell>
+          <cell r="H107">
+            <v>6550417.11292296</v>
+          </cell>
+          <cell r="I107">
+            <v>7198244.8877644427</v>
+          </cell>
+          <cell r="J107">
+            <v>8050200.6205685521</v>
+          </cell>
+          <cell r="K107">
+            <v>8390421.4562706612</v>
+          </cell>
+          <cell r="L107">
+            <v>9399450.7580739148</v>
+          </cell>
+          <cell r="M107">
+            <v>10144661.326781726</v>
+          </cell>
+          <cell r="N107">
+            <v>11060588.830567468</v>
+          </cell>
+          <cell r="O107">
+            <v>12050591.984260563</v>
+          </cell>
+          <cell r="P107">
+            <v>13206828.251691943</v>
+          </cell>
+          <cell r="Q107">
+            <v>13944157.447764665</v>
+          </cell>
+          <cell r="R107">
+            <v>15132381.470173333</v>
+          </cell>
+          <cell r="S107">
+            <v>16556651.083225854</v>
+          </cell>
+          <cell r="T107">
+            <v>18265190.258161746</v>
+          </cell>
+          <cell r="U107">
+            <v>19517863.171682019</v>
+          </cell>
+          <cell r="V107">
+            <v>17951573.570012722</v>
+          </cell>
+          <cell r="W107">
+            <v>19410614.486183222</v>
+          </cell>
+          <cell r="X107">
+            <v>22028276.337656271</v>
+          </cell>
+          <cell r="Y107">
+            <v>24313563.194839686</v>
+          </cell>
+          <cell r="Z107">
+            <v>26446369.494861454</v>
+          </cell>
+          <cell r="AA107">
+            <v>28014264.435258694</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>1064005.0869465019</v>
+          </cell>
+          <cell r="C127">
+            <v>1105117.4866392382</v>
+          </cell>
+          <cell r="D127">
+            <v>1144990.5954578116</v>
+          </cell>
+          <cell r="E127">
+            <v>1197371.0373716741</v>
+          </cell>
+          <cell r="F127">
+            <v>1257109.2132941873</v>
+          </cell>
+          <cell r="G127">
+            <v>1301069.2243305743</v>
+          </cell>
+          <cell r="H127">
+            <v>1360678.1688071573</v>
+          </cell>
+          <cell r="I127">
+            <v>1433746.8087559578</v>
+          </cell>
+          <cell r="J127">
+            <v>1482351.7473987523</v>
+          </cell>
+          <cell r="K127">
+            <v>1480206.8239089095</v>
+          </cell>
+          <cell r="L127">
+            <v>1499800.7696724271</v>
+          </cell>
+          <cell r="M127">
+            <v>1550555.2016332422</v>
+          </cell>
+          <cell r="N127">
+            <v>1598311.5075543907</v>
+          </cell>
+          <cell r="O127">
+            <v>1645191.6850298091</v>
+          </cell>
+          <cell r="P127">
+            <v>1676006.3550526681</v>
+          </cell>
+          <cell r="Q127">
+            <v>1688343.7557025508</v>
+          </cell>
+          <cell r="R127">
+            <v>1672084.9828823139</v>
+          </cell>
+          <cell r="S127">
+            <v>1743134.2940204137</v>
+          </cell>
+          <cell r="T127">
+            <v>1762616.4965786885</v>
+          </cell>
+          <cell r="U127">
+            <v>1783855.1472581751</v>
+          </cell>
+          <cell r="V127">
+            <v>1780390.5640921537</v>
+          </cell>
+          <cell r="W127">
+            <v>1775210.3171187984</v>
+          </cell>
+          <cell r="X127">
+            <v>1783734.6554432954</v>
+          </cell>
+          <cell r="Y127">
+            <v>1805216.771038763</v>
+          </cell>
+          <cell r="Z127">
+            <v>1778234.5329187952</v>
+          </cell>
+          <cell r="AA127">
+            <v>1833110.7044894486</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>2233331.908558073</v>
+          </cell>
+          <cell r="C128">
+            <v>2263212.7783727339</v>
+          </cell>
+          <cell r="D128">
+            <v>2346382.7963735494</v>
+          </cell>
+          <cell r="E128">
+            <v>2462870.600499433</v>
+          </cell>
+          <cell r="F128">
+            <v>2571406.3345832815</v>
+          </cell>
+          <cell r="G128">
+            <v>2701284.7496357504</v>
+          </cell>
+          <cell r="H128">
+            <v>2802098.6329476382</v>
+          </cell>
+          <cell r="I128">
+            <v>2940674.679845708</v>
+          </cell>
+          <cell r="J128">
+            <v>3101573.6524675926</v>
+          </cell>
+          <cell r="K128">
+            <v>3057652.2915348206</v>
+          </cell>
+          <cell r="L128">
+            <v>3358023.2875841749</v>
+          </cell>
+          <cell r="M128">
+            <v>3411809.2007066575</v>
+          </cell>
+          <cell r="N128">
+            <v>3674109.760798207</v>
+          </cell>
+          <cell r="O128">
+            <v>3924518.7466281406</v>
+          </cell>
+          <cell r="P128">
+            <v>4218871.831168456</v>
+          </cell>
+          <cell r="Q128">
+            <v>4493389.9589908756</v>
+          </cell>
+          <cell r="R128">
+            <v>4861341.7522844896</v>
+          </cell>
+          <cell r="S128">
+            <v>5202581.5831372812</v>
+          </cell>
+          <cell r="T128">
+            <v>5582525.2893169122</v>
+          </cell>
+          <cell r="U128">
+            <v>5887868.6968866978</v>
+          </cell>
+          <cell r="V128">
+            <v>5115315.7129913447</v>
+          </cell>
+          <cell r="W128">
+            <v>5551621.8662187792</v>
+          </cell>
+          <cell r="X128">
+            <v>5913747.6649654768</v>
+          </cell>
+          <cell r="Y128">
+            <v>6128235.4957260517</v>
+          </cell>
+          <cell r="Z128">
+            <v>6473862.2736754334</v>
+          </cell>
+          <cell r="AA128">
+            <v>6572519.1983347684</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>3688046.2446433334</v>
+          </cell>
+          <cell r="C133">
+            <v>3830053.4704007208</v>
+          </cell>
+          <cell r="D133">
+            <v>3974520.639199873</v>
+          </cell>
+          <cell r="E133">
+            <v>4185435.7878863006</v>
+          </cell>
+          <cell r="F133">
+            <v>4532562.3563551698</v>
+          </cell>
+          <cell r="G133">
+            <v>4771970.6335892519</v>
+          </cell>
+          <cell r="H133">
+            <v>5078027.4752690587</v>
+          </cell>
+          <cell r="I133">
+            <v>5468817.7608404998</v>
+          </cell>
+          <cell r="J133">
+            <v>5686952.1291571362</v>
+          </cell>
+          <cell r="K133">
+            <v>5881773.9015875971</v>
+          </cell>
+          <cell r="L133">
+            <v>6326036.9392845146</v>
+          </cell>
+          <cell r="M133">
+            <v>6652995.9905493334</v>
+          </cell>
+          <cell r="N133">
+            <v>7144044.9218433676</v>
+          </cell>
+          <cell r="O133">
+            <v>7684933.195281975</v>
+          </cell>
+          <cell r="P133">
+            <v>8201168.5590072311</v>
+          </cell>
+          <cell r="Q133">
+            <v>8809173.7357357219</v>
+          </cell>
+          <cell r="R133">
+            <v>9529249.1598030627</v>
+          </cell>
+          <cell r="S133">
+            <v>10230262.208913909</v>
+          </cell>
+          <cell r="T133">
+            <v>10920048.472266145</v>
+          </cell>
+          <cell r="U133">
+            <v>11711026.767278373</v>
+          </cell>
+          <cell r="V133">
+            <v>10642137.002289824</v>
+          </cell>
+          <cell r="W133">
+            <v>11213252.036594167</v>
+          </cell>
+          <cell r="X133">
+            <v>12248122.370699735</v>
+          </cell>
+          <cell r="Y133">
+            <v>13112940.310321592</v>
+          </cell>
+          <cell r="Z133">
+            <v>13992259.830376996</v>
+          </cell>
+          <cell r="AA133">
+            <v>14818232.355490401</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>6985383.2401479082</v>
+          </cell>
+          <cell r="C146">
+            <v>7198383.7354126927</v>
+          </cell>
+          <cell r="D146">
+            <v>7465894.0310312342</v>
+          </cell>
+          <cell r="E146">
+            <v>7845677.4257574081</v>
+          </cell>
+          <cell r="F146">
+            <v>8361077.9042326389</v>
+          </cell>
+          <cell r="G146">
+            <v>8774324.6075555757</v>
+          </cell>
+          <cell r="H146">
+            <v>9240804.2770238537</v>
+          </cell>
+          <cell r="I146">
+            <v>9843239.2494421657</v>
+          </cell>
+          <cell r="J146">
+            <v>10270877.52902348</v>
+          </cell>
+          <cell r="K146">
+            <v>10419633.017031327</v>
+          </cell>
+          <cell r="L146">
+            <v>11183860.996541116</v>
+          </cell>
+          <cell r="M146">
+            <v>11615360.392889233</v>
+          </cell>
+          <cell r="N146">
+            <v>12416466.190195967</v>
+          </cell>
+          <cell r="O146">
+            <v>13254643.626939924</v>
+          </cell>
+          <cell r="P146">
+            <v>14096046.745228356</v>
+          </cell>
+          <cell r="Q146">
+            <v>14990907.450429149</v>
+          </cell>
+          <cell r="R146">
+            <v>16062675.894969866</v>
+          </cell>
+          <cell r="S146">
+            <v>17175978.086071603</v>
+          </cell>
+          <cell r="T146">
+            <v>18265190.258161746</v>
+          </cell>
+          <cell r="U146">
+            <v>19382750.611423247</v>
+          </cell>
+          <cell r="V146">
+            <v>17537843.279373322</v>
+          </cell>
+          <cell r="W146">
+            <v>18540084.219931744</v>
+          </cell>
+          <cell r="X146">
+            <v>19945604.69110851</v>
+          </cell>
+          <cell r="Y146">
+            <v>21046392.577086408</v>
+          </cell>
+          <cell r="Z146">
+            <v>22244356.636971224</v>
+          </cell>
+          <cell r="AA146">
+            <v>23223862.258314617</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="B242">
+            <v>13.941095210615254</v>
+          </cell>
+          <cell r="C242">
+            <v>13.302809303618366</v>
+          </cell>
+          <cell r="D242">
+            <v>13.44841341516381</v>
+          </cell>
+          <cell r="E242">
+            <v>13.150947662449294</v>
+          </cell>
+          <cell r="F242">
+            <v>13.984403690816247</v>
+          </cell>
+          <cell r="G242">
+            <v>13.517547003711798</v>
+          </cell>
+          <cell r="H242">
+            <v>13.361249107154258</v>
+          </cell>
+          <cell r="I242">
+            <v>13.606507617620867</v>
+          </cell>
+          <cell r="J242">
+            <v>14.516074757952453</v>
+          </cell>
+          <cell r="K242">
+            <v>14.540213315121395</v>
+          </cell>
+          <cell r="L242">
+            <v>13.74886505253429</v>
+          </cell>
+          <cell r="M242">
+            <v>14.095735151513274</v>
+          </cell>
+          <cell r="N242">
+            <v>13.095807011041332</v>
+          </cell>
+          <cell r="O242">
+            <v>12.473425104248347</v>
+          </cell>
+          <cell r="P242">
+            <v>12.271681620873787</v>
+          </cell>
+          <cell r="Q242">
+            <v>10.996499155011534</v>
+          </cell>
+          <cell r="R242">
+            <v>10.205125532473266</v>
+          </cell>
+          <cell r="S242">
+            <v>10.182954131656141</v>
+          </cell>
+          <cell r="T242">
+            <v>9.6501403580565963</v>
+          </cell>
+          <cell r="U242">
+            <v>8.8203237471017513</v>
+          </cell>
+          <cell r="V242">
+            <v>10.185311031910887</v>
+          </cell>
+          <cell r="W242">
+            <v>10.069164020582223</v>
+          </cell>
+          <cell r="X242">
+            <v>9.5517680442350059</v>
+          </cell>
+          <cell r="Y242">
+            <v>9.4003665287935068</v>
+          </cell>
+          <cell r="Z242">
+            <v>9.0825267848195104</v>
+          </cell>
+          <cell r="AA242">
+            <v>8.5933977301849627</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="B243">
+            <v>34.975284768820643</v>
+          </cell>
+          <cell r="C243">
+            <v>34.897615258091172</v>
+          </cell>
+          <cell r="D243">
+            <v>34.783435262726613</v>
+          </cell>
+          <cell r="E243">
+            <v>34.540564030770057</v>
+          </cell>
+          <cell r="F243">
+            <v>33.618696206357839</v>
+          </cell>
+          <cell r="G243">
+            <v>33.813676305752217</v>
+          </cell>
+          <cell r="H243">
+            <v>33.462585330073786</v>
+          </cell>
+          <cell r="I243">
+            <v>33.000860933008447</v>
+          </cell>
+          <cell r="J243">
+            <v>32.765288410901569</v>
+          </cell>
+          <cell r="K243">
+            <v>31.522542681533483</v>
+          </cell>
+          <cell r="L243">
+            <v>32.339556045623688</v>
+          </cell>
+          <cell r="M243">
+            <v>31.338682782695642</v>
+          </cell>
+          <cell r="N243">
+            <v>31.399493363390608</v>
+          </cell>
+          <cell r="O243">
+            <v>30.775446631641834</v>
+          </cell>
+          <cell r="P243">
+            <v>31.047444475024015</v>
+          </cell>
+          <cell r="Q243">
+            <v>30.481950983722022</v>
+          </cell>
+          <cell r="R243">
+            <v>30.285917167213672</v>
+          </cell>
+          <cell r="S243">
+            <v>30.126550576900929</v>
+          </cell>
+          <cell r="T243">
+            <v>30.563740154978003</v>
+          </cell>
+          <cell r="U243">
+            <v>30.327507879516236</v>
+          </cell>
+          <cell r="V243">
+            <v>28.399917585046552</v>
+          </cell>
+          <cell r="W243">
+            <v>28.88980911837572</v>
+          </cell>
+          <cell r="X243">
+            <v>29.221239936645727</v>
+          </cell>
+          <cell r="Y243">
+            <v>28.197622509066207</v>
+          </cell>
+          <cell r="Z243">
+            <v>27.693977993152359</v>
+          </cell>
+          <cell r="AA243">
+            <v>26.948683030678254</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="B248">
+            <v>51.083620020564105</v>
+          </cell>
+          <cell r="C248">
+            <v>51.799575438290468</v>
+          </cell>
+          <cell r="D248">
+            <v>51.768151322109588</v>
+          </cell>
+          <cell r="E248">
+            <v>52.308488306780653</v>
+          </cell>
+          <cell r="F248">
+            <v>52.396900102825917</v>
+          </cell>
+          <cell r="G248">
+            <v>52.668776690535992</v>
+          </cell>
+          <cell r="H248">
+            <v>53.176165562771956</v>
+          </cell>
+          <cell r="I248">
+            <v>53.392631449370697</v>
+          </cell>
+          <cell r="J248">
+            <v>52.718636831145972</v>
+          </cell>
+          <cell r="K248">
+            <v>53.937244003345121</v>
+          </cell>
+          <cell r="L248">
+            <v>53.91157890184202</v>
+          </cell>
+          <cell r="M248">
+            <v>54.565582065791084</v>
+          </cell>
+          <cell r="N248">
+            <v>55.504699625568065</v>
+          </cell>
+          <cell r="O248">
+            <v>56.751128264109816</v>
+          </cell>
+          <cell r="P248">
+            <v>56.680873904102199</v>
+          </cell>
+          <cell r="Q248">
+            <v>58.521549861266443</v>
+          </cell>
+          <cell r="R248">
+            <v>59.508957300313057</v>
+          </cell>
+          <cell r="S248">
+            <v>59.690495291442936</v>
+          </cell>
+          <cell r="T248">
+            <v>59.786119486965397</v>
+          </cell>
+          <cell r="U248">
+            <v>60.852168373382007</v>
+          </cell>
+          <cell r="V248">
+            <v>61.414771383042556</v>
+          </cell>
+          <cell r="W248">
+            <v>61.041026861042056</v>
+          </cell>
+          <cell r="X248">
+            <v>61.226992019119265</v>
+          </cell>
+          <cell r="Y248">
+            <v>62.402010962140274</v>
+          </cell>
+          <cell r="Z248">
+            <v>63.223495222028149</v>
+          </cell>
+          <cell r="AA248">
+            <v>64.457919239136785</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="B261">
+            <v>100</v>
+          </cell>
+          <cell r="C261">
+            <v>100</v>
+          </cell>
+          <cell r="D261">
+            <v>100</v>
+          </cell>
+          <cell r="E261">
+            <v>100</v>
+          </cell>
+          <cell r="F261">
+            <v>100</v>
+          </cell>
+          <cell r="G261">
+            <v>100</v>
+          </cell>
+          <cell r="H261">
+            <v>100</v>
+          </cell>
+          <cell r="I261">
+            <v>100</v>
+          </cell>
+          <cell r="J261">
+            <v>100</v>
+          </cell>
+          <cell r="K261">
+            <v>100</v>
+          </cell>
+          <cell r="L261">
+            <v>100</v>
+          </cell>
+          <cell r="M261">
+            <v>100</v>
+          </cell>
+          <cell r="N261">
+            <v>100</v>
+          </cell>
+          <cell r="O261">
+            <v>100</v>
+          </cell>
+          <cell r="P261">
+            <v>100</v>
+          </cell>
+          <cell r="Q261">
+            <v>100</v>
+          </cell>
+          <cell r="R261">
+            <v>100</v>
+          </cell>
+          <cell r="S261">
+            <v>100</v>
+          </cell>
+          <cell r="T261">
+            <v>100</v>
+          </cell>
+          <cell r="U261">
+            <v>100</v>
+          </cell>
+          <cell r="V261">
+            <v>100</v>
+          </cell>
+          <cell r="W261">
+            <v>100</v>
+          </cell>
+          <cell r="X261">
+            <v>100</v>
+          </cell>
+          <cell r="Y261">
+            <v>100</v>
+          </cell>
+          <cell r="Z261">
+            <v>100</v>
+          </cell>
+          <cell r="AA261">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="B281">
+            <v>15.23187848636881</v>
+          </cell>
+          <cell r="C281">
+            <v>15.352300283778639</v>
+          </cell>
+          <cell r="D281">
+            <v>15.336282442514907</v>
+          </cell>
+          <cell r="E281">
+            <v>15.261537944966964</v>
+          </cell>
+          <cell r="F281">
+            <v>15.035252962513354</v>
+          </cell>
+          <cell r="G281">
+            <v>14.828140996860578</v>
+          </cell>
+          <cell r="H281">
+            <v>14.724672528670688</v>
+          </cell>
+          <cell r="I281">
+            <v>14.565802703995139</v>
+          </cell>
+          <cell r="J281">
+            <v>14.432571542304128</v>
+          </cell>
+          <cell r="K281">
+            <v>14.205940089151406</v>
+          </cell>
+          <cell r="L281">
+            <v>13.410402455254742</v>
+          </cell>
+          <cell r="M281">
+            <v>13.349178580653176</v>
+          </cell>
+          <cell r="N281">
+            <v>12.872515279882263</v>
+          </cell>
+          <cell r="O281">
+            <v>12.412191012710249</v>
+          </cell>
+          <cell r="P281">
+            <v>11.889903498085461</v>
+          </cell>
+          <cell r="Q281">
+            <v>11.26245199822255</v>
+          </cell>
+          <cell r="R281">
+            <v>10.409753604042638</v>
+          </cell>
+          <cell r="S281">
+            <v>10.148675582172299</v>
+          </cell>
+          <cell r="T281">
+            <v>9.6501403580565963</v>
+          </cell>
+          <cell r="U281">
+            <v>9.2033126929201572</v>
+          </cell>
+          <cell r="V281">
+            <v>10.151707571626631</v>
+          </cell>
+          <cell r="W281">
+            <v>9.5749851837800009</v>
+          </cell>
+          <cell r="X281">
+            <v>8.9429961290592548</v>
+          </cell>
+          <cell r="Y281">
+            <v>8.5773215738840456</v>
+          </cell>
+          <cell r="Z281">
+            <v>7.9940928925913788</v>
+          </cell>
+          <cell r="AA281">
+            <v>7.8932207059278321</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="B282">
+            <v>31.971501516512134</v>
+          </cell>
+          <cell r="C282">
+            <v>31.440568627076409</v>
+          </cell>
+          <cell r="D282">
+            <v>31.428021702706282</v>
+          </cell>
+          <cell r="E282">
+            <v>31.39143335684199</v>
+          </cell>
+          <cell r="F282">
+            <v>30.754483620844571</v>
+          </cell>
+          <cell r="G282">
+            <v>30.786241339984993</v>
+          </cell>
+          <cell r="H282">
+            <v>30.323103367904015</v>
+          </cell>
+          <cell r="I282">
+            <v>29.875070648235653</v>
+          </cell>
+          <cell r="J282">
+            <v>30.197747404768048</v>
+          </cell>
+          <cell r="K282">
+            <v>29.345105403779193</v>
+          </cell>
+          <cell r="L282">
+            <v>30.025617169443773</v>
+          </cell>
+          <cell r="M282">
+            <v>29.373253048569385</v>
+          </cell>
+          <cell r="N282">
+            <v>29.590623487536909</v>
+          </cell>
+          <cell r="O282">
+            <v>29.608632695726328</v>
+          </cell>
+          <cell r="P282">
+            <v>29.929468221979217</v>
+          </cell>
+          <cell r="Q282">
+            <v>29.974102460770258</v>
+          </cell>
+          <cell r="R282">
+            <v>30.264831240272059</v>
+          </cell>
+          <cell r="S282">
+            <v>30.289870871203394</v>
+          </cell>
+          <cell r="T282">
+            <v>30.563740154978003</v>
+          </cell>
+          <cell r="U282">
+            <v>30.37684802804343</v>
+          </cell>
+          <cell r="V282">
+            <v>29.167301996634841</v>
+          </cell>
+          <cell r="W282">
+            <v>29.943886987581429</v>
+          </cell>
+          <cell r="X282">
+            <v>29.6493776776883</v>
+          </cell>
+          <cell r="Y282">
+            <v>29.117747724605188</v>
+          </cell>
+          <cell r="Z282">
+            <v>29.103391836990927</v>
+          </cell>
+          <cell r="AA282">
+            <v>28.300715553812211</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="B287">
+            <v>52.796619997119052</v>
+          </cell>
+          <cell r="C287">
+            <v>53.207131089144951</v>
+          </cell>
+          <cell r="D287">
+            <v>53.235695854778811</v>
+          </cell>
+          <cell r="E287">
+            <v>53.347028698191046</v>
+          </cell>
+          <cell r="F287">
+            <v>54.210263416642071</v>
+          </cell>
+          <cell r="G287">
+            <v>54.385617663154441</v>
+          </cell>
+          <cell r="H287">
+            <v>54.952224103425308</v>
+          </cell>
+          <cell r="I287">
+            <v>55.559126647769205</v>
+          </cell>
+          <cell r="J287">
+            <v>55.369681052927831</v>
+          </cell>
+          <cell r="K287">
+            <v>56.448954507069402</v>
+          </cell>
+          <cell r="L287">
+            <v>56.56398037530149</v>
+          </cell>
+          <cell r="M287">
+            <v>57.277568370777445</v>
+          </cell>
+          <cell r="N287">
+            <v>57.536861232580819</v>
+          </cell>
+          <cell r="O287">
+            <v>57.979176291563427</v>
+          </cell>
+          <cell r="P287">
+            <v>58.18062827993532</v>
+          </cell>
+          <cell r="Q287">
+            <v>58.763445541007187</v>
+          </cell>
+          <cell r="R287">
+            <v>59.325415155685299</v>
+          </cell>
+          <cell r="S287">
+            <v>59.561453546624307</v>
+          </cell>
+          <cell r="T287">
+            <v>59.786119486965397</v>
+          </cell>
+          <cell r="U287">
+            <v>60.419839279036417</v>
+          </cell>
+          <cell r="V287">
+            <v>60.680990431738536</v>
+          </cell>
+          <cell r="W287">
+            <v>60.481127828638584</v>
+          </cell>
+          <cell r="X287">
+            <v>61.407626193252426</v>
+          </cell>
+          <cell r="Y287">
+            <v>62.304930701510763</v>
+          </cell>
+          <cell r="Z287">
+            <v>62.902515270417695</v>
+          </cell>
+          <cell r="AA287">
+            <v>63.806063740259965</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="B300">
+            <v>100</v>
+          </cell>
+          <cell r="C300">
+            <v>100</v>
+          </cell>
+          <cell r="D300">
+            <v>100</v>
+          </cell>
+          <cell r="E300">
+            <v>100</v>
+          </cell>
+          <cell r="F300">
+            <v>100</v>
+          </cell>
+          <cell r="G300">
+            <v>100</v>
+          </cell>
+          <cell r="H300">
+            <v>100</v>
+          </cell>
+          <cell r="I300">
+            <v>100</v>
+          </cell>
+          <cell r="J300">
+            <v>100</v>
+          </cell>
+          <cell r="K300">
+            <v>100</v>
+          </cell>
+          <cell r="L300">
+            <v>100</v>
+          </cell>
+          <cell r="M300">
+            <v>100</v>
+          </cell>
+          <cell r="N300">
+            <v>100</v>
+          </cell>
+          <cell r="O300">
+            <v>100</v>
+          </cell>
+          <cell r="P300">
+            <v>100</v>
+          </cell>
+          <cell r="Q300">
+            <v>100</v>
+          </cell>
+          <cell r="R300">
+            <v>100</v>
+          </cell>
+          <cell r="S300">
+            <v>100</v>
+          </cell>
+          <cell r="T300">
+            <v>100</v>
+          </cell>
+          <cell r="U300">
+            <v>100</v>
+          </cell>
+          <cell r="V300">
+            <v>100</v>
+          </cell>
+          <cell r="W300">
+            <v>100</v>
+          </cell>
+          <cell r="X300">
+            <v>100</v>
+          </cell>
+          <cell r="Y300">
+            <v>100</v>
+          </cell>
+          <cell r="Z300">
+            <v>100</v>
+          </cell>
+          <cell r="AA300">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>2000 - 2001</v>
+          </cell>
+          <cell r="C394" t="str">
+            <v>2001 - 2002</v>
+          </cell>
+          <cell r="D394" t="str">
+            <v>2002 - 2003</v>
+          </cell>
+          <cell r="E394" t="str">
+            <v>2003 - 2004</v>
+          </cell>
+          <cell r="F394" t="str">
+            <v>2004 - 2005</v>
+          </cell>
+          <cell r="G394" t="str">
+            <v>2005 - 2006</v>
+          </cell>
+          <cell r="H394" t="str">
+            <v>2006 - 2007</v>
+          </cell>
+          <cell r="I394" t="str">
+            <v>2007 - 2008</v>
+          </cell>
+          <cell r="J394" t="str">
+            <v>2008 - 2009</v>
+          </cell>
+          <cell r="K394" t="str">
+            <v>2009 - 2010</v>
+          </cell>
+          <cell r="L394" t="str">
+            <v>2010 - 2011</v>
+          </cell>
+          <cell r="M394" t="str">
+            <v>2011 - 2012</v>
+          </cell>
+          <cell r="N394" t="str">
+            <v>2012 - 2013</v>
+          </cell>
+          <cell r="O394" t="str">
+            <v>2013 - 2014</v>
+          </cell>
+          <cell r="P394" t="str">
+            <v>2014 - 2015</v>
+          </cell>
+          <cell r="Q394" t="str">
+            <v>2015 - 2016</v>
+          </cell>
+          <cell r="R394" t="str">
+            <v>2016 - 2017</v>
+          </cell>
+          <cell r="S394" t="str">
+            <v>2017 - 2018</v>
+          </cell>
+          <cell r="T394" t="str">
+            <v>2018 - 2019</v>
+          </cell>
+          <cell r="U394" t="str">
+            <v>2019 - 2020</v>
+          </cell>
+          <cell r="V394" t="str">
+            <v>2020 - 2021</v>
+          </cell>
+          <cell r="W394" t="str">
+            <v>2021 - 2022</v>
+          </cell>
+          <cell r="X394" t="str">
+            <v>2022 - 2023</v>
+          </cell>
+          <cell r="Y394" t="str">
+            <v>2023 - 2024</v>
+          </cell>
+          <cell r="Z394" t="str">
+            <v>2024 - 2025</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396">
+            <v>3.8562683489500387</v>
+          </cell>
+          <cell r="C396">
+            <v>9.2878291850552159</v>
+          </cell>
+          <cell r="D396">
+            <v>6.0428051145636488</v>
+          </cell>
+          <cell r="E396">
+            <v>19.998767119576328</v>
+          </cell>
+          <cell r="F396">
+            <v>7.4350511467602161</v>
+          </cell>
+          <cell r="G396">
+            <v>9.419780488144184</v>
+          </cell>
+          <cell r="H396">
+            <v>11.907004288213045</v>
+          </cell>
+          <cell r="I396">
+            <v>19.311584458678269</v>
+          </cell>
+          <cell r="J396">
+            <v>4.3995566697454791</v>
+          </cell>
+          <cell r="K396">
+            <v>5.9289755273239848</v>
+          </cell>
+          <cell r="L396">
+            <v>10.651156564646968</v>
+          </cell>
+          <cell r="M396">
+            <v>1.2943519713714409</v>
+          </cell>
+          <cell r="N396">
+            <v>3.7728134644513744</v>
+          </cell>
+          <cell r="O396">
+            <v>7.8222781287357037</v>
+          </cell>
+          <cell r="P396">
+            <v>-5.3884595491042973</v>
+          </cell>
+          <cell r="Q396">
+            <v>0.71146397623145674</v>
+          </cell>
+          <cell r="R396">
+            <v>9.1743592984062019</v>
+          </cell>
+          <cell r="S396">
+            <v>4.5469930768544202</v>
+          </cell>
+          <cell r="T396">
+            <v>-2.3304999357333713</v>
+          </cell>
+          <cell r="U396">
+            <v>6.2086830642616775</v>
+          </cell>
+          <cell r="V396">
+            <v>6.8946280591658962</v>
+          </cell>
+          <cell r="W396">
+            <v>7.6543502080105981</v>
+          </cell>
+          <cell r="X396">
+            <v>8.6248310999405646</v>
+          </cell>
+          <cell r="Y396">
+            <v>5.0943457973083923</v>
+          </cell>
+          <cell r="Z396">
+            <v>0.22392066090787921</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397">
+            <v>8.5977263466860308</v>
+          </cell>
+          <cell r="C397">
+            <v>7.7508822699549569</v>
+          </cell>
+          <cell r="D397">
+            <v>7.6842439060482661</v>
+          </cell>
+          <cell r="E397">
+            <v>9.8351437395220529</v>
+          </cell>
+          <cell r="F397">
+            <v>11.790161369020112</v>
+          </cell>
+          <cell r="G397">
+            <v>9.5503494617030782</v>
+          </cell>
+          <cell r="H397">
+            <v>8.3735850397367528</v>
+          </cell>
+          <cell r="I397">
+            <v>11.037279142134111</v>
+          </cell>
+          <cell r="J397">
+            <v>0.27307167938968746</v>
+          </cell>
+          <cell r="K397">
+            <v>14.929498856953401</v>
+          </cell>
+          <cell r="L397">
+            <v>4.5879765064649831</v>
+          </cell>
+          <cell r="M397">
+            <v>9.2402278727153941</v>
+          </cell>
+          <cell r="N397">
+            <v>6.7853948276301708</v>
+          </cell>
+          <cell r="O397">
+            <v>10.563465472400679</v>
+          </cell>
+          <cell r="P397">
+            <v>3.6598674343968298</v>
+          </cell>
+          <cell r="Q397">
+            <v>7.8233876950490497</v>
+          </cell>
+          <cell r="R397">
+            <v>8.836331365596422</v>
+          </cell>
+          <cell r="S397">
+            <v>11.920281512291297</v>
+          </cell>
+          <cell r="T397">
+            <v>6.0323273883342381</v>
+          </cell>
+          <cell r="U397">
+            <v>-13.8707610612623</v>
+          </cell>
+          <cell r="V397">
+            <v>9.9928242723429861</v>
+          </cell>
+          <cell r="W397">
+            <v>14.787659207089547</v>
+          </cell>
+          <cell r="X397">
+            <v>6.5079304707486898</v>
+          </cell>
+          <cell r="Y397">
+            <v>6.8292801099833582</v>
+          </cell>
+          <cell r="Z397">
+            <v>3.0778534327532867</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402">
+            <v>10.364849667386665</v>
+          </cell>
+          <cell r="C402">
+            <v>8.0390035321422459</v>
+          </cell>
+          <cell r="D402">
+            <v>9.5732951684526597</v>
+          </cell>
+          <cell r="E402">
+            <v>13.037698351205805</v>
+          </cell>
+          <cell r="F402">
+            <v>11.722255830661936</v>
+          </cell>
+          <cell r="G402">
+            <v>11.766191697825647</v>
+          </cell>
+          <cell r="H402">
+            <v>10.337202724937484</v>
+          </cell>
+          <cell r="I402">
+            <v>10.423862098628149</v>
+          </cell>
+          <cell r="J402">
+            <v>6.6354614066437705</v>
+          </cell>
+          <cell r="K402">
+            <v>11.972661224691805</v>
+          </cell>
+          <cell r="L402">
+            <v>9.2375162802133417</v>
+          </cell>
+          <cell r="M402">
+            <v>10.905136199575566</v>
+          </cell>
+          <cell r="N402">
+            <v>11.397354569169522</v>
+          </cell>
+          <cell r="O402">
+            <v>9.4591787574127721</v>
+          </cell>
+          <cell r="P402">
+            <v>9.011679201597957</v>
+          </cell>
+          <cell r="Q402">
+            <v>10.352334328074122</v>
+          </cell>
+          <cell r="R402">
+            <v>9.7458376019097699</v>
+          </cell>
+          <cell r="S402">
+            <v>10.496084067641689</v>
+          </cell>
+          <cell r="T402">
+            <v>8.7636468856581757</v>
+          </cell>
+          <cell r="U402">
+            <v>-7.1745559504802117</v>
+          </cell>
+          <cell r="V402">
+            <v>7.4696296571646172</v>
+          </cell>
+          <cell r="W402">
+            <v>13.831464849151388</v>
+          </cell>
+          <cell r="X402">
+            <v>12.492548522477051</v>
+          </cell>
+          <cell r="Y402">
+            <v>10.20400234643526</v>
+          </cell>
+          <cell r="Z402">
+            <v>7.9968138097116679</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415">
+            <v>8.8394257352917975</v>
+          </cell>
+          <cell r="C415">
+            <v>8.1045849777290329</v>
+          </cell>
+          <cell r="D415">
+            <v>8.4414233474862925</v>
+          </cell>
+          <cell r="E415">
+            <v>12.846964435412318</v>
+          </cell>
+          <cell r="F415">
+            <v>11.145544777261463</v>
+          </cell>
+          <cell r="G415">
+            <v>10.699756738487977</v>
+          </cell>
+          <cell r="H415">
+            <v>9.8898705788279955</v>
+          </cell>
+          <cell r="I415">
+            <v>11.835603624048161</v>
+          </cell>
+          <cell r="J415">
+            <v>4.2262404595586389</v>
+          </cell>
+          <cell r="K415">
+            <v>12.025966836852348</v>
+          </cell>
+          <cell r="L415">
+            <v>7.9282352542534511</v>
+          </cell>
+          <cell r="M415">
+            <v>9.0286651696070948</v>
+          </cell>
+          <cell r="N415">
+            <v>8.9507273876512414</v>
+          </cell>
+          <cell r="O415">
+            <v>9.5948503520951931</v>
+          </cell>
+          <cell r="P415">
+            <v>5.5829392343181468</v>
+          </cell>
+          <cell r="Q415">
+            <v>8.5213038282147835</v>
+          </cell>
+          <cell r="R415">
+            <v>9.4120652182858748</v>
+          </cell>
+          <cell r="S415">
+            <v>10.319352424276644</v>
+          </cell>
+          <cell r="T415">
+            <v>6.8582527519006788</v>
+          </cell>
+          <cell r="U415">
+            <v>-8.0249030741325669</v>
+          </cell>
+          <cell r="V415">
+            <v>8.1276491471909793</v>
+          </cell>
+          <cell r="W415">
+            <v>13.485723769004537</v>
+          </cell>
+          <cell r="X415">
+            <v>10.374333525482555</v>
+          </cell>
+          <cell r="Y415">
+            <v>8.772084465490579</v>
+          </cell>
+          <cell r="Z415">
+            <v>5.9285829032294401</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435">
+            <v>3.8639288662351419</v>
+          </cell>
+          <cell r="C435">
+            <v>3.6080425204229698</v>
+          </cell>
+          <cell r="D435">
+            <v>4.5747486592166098</v>
+          </cell>
+          <cell r="E435">
+            <v>4.9891114832411034</v>
+          </cell>
+          <cell r="F435">
+            <v>3.4969126446215455</v>
+          </cell>
+          <cell r="G435">
+            <v>4.5815351990400757</v>
+          </cell>
+          <cell r="H435">
+            <v>5.3700163362550484</v>
+          </cell>
+          <cell r="I435">
+            <v>3.3900642948923689</v>
+          </cell>
+          <cell r="J435">
+            <v>-0.14469733608144963</v>
+          </cell>
+          <cell r="K435">
+            <v>1.3237302684346588</v>
+          </cell>
+          <cell r="L435">
+            <v>3.3840782714027</v>
+          </cell>
+          <cell r="M435">
+            <v>3.0799487738872813</v>
+          </cell>
+          <cell r="N435">
+            <v>2.9331064222362357</v>
+          </cell>
+          <cell r="O435">
+            <v>1.8730139656827163</v>
+          </cell>
+          <cell r="P435">
+            <v>0.73611896593881454</v>
+          </cell>
+          <cell r="Q435">
+            <v>-0.96300132987261122</v>
+          </cell>
+          <cell r="R435">
+            <v>4.2491447423698645</v>
+          </cell>
+          <cell r="S435">
+            <v>1.1176535637619054</v>
+          </cell>
+          <cell r="T435">
+            <v>1.204950181773043</v>
+          </cell>
+          <cell r="U435">
+            <v>-0.19421886196009552</v>
+          </cell>
+          <cell r="V435">
+            <v>-0.2909612687144687</v>
+          </cell>
+          <cell r="W435">
+            <v>0.48018751594077003</v>
+          </cell>
+          <cell r="X435">
+            <v>1.2043335890745936</v>
+          </cell>
+          <cell r="Y435">
+            <v>-1.4946813342777432</v>
+          </cell>
+          <cell r="Z435">
+            <v>3.0859917831299555</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436">
+            <v>1.3379502482438141</v>
+          </cell>
+          <cell r="C436">
+            <v>3.6748651649366906</v>
+          </cell>
+          <cell r="D436">
+            <v>4.9645694771510023</v>
+          </cell>
+          <cell r="E436">
+            <v>4.4068792758271229</v>
+          </cell>
+          <cell r="F436">
+            <v>5.0508709302653472</v>
+          </cell>
+          <cell r="G436">
+            <v>3.7320716864625894</v>
+          </cell>
+          <cell r="H436">
+            <v>4.945437868198681</v>
+          </cell>
+          <cell r="I436">
+            <v>5.4714985552338078</v>
+          </cell>
+          <cell r="J436">
+            <v>-1.416099240391361</v>
+          </cell>
+          <cell r="K436">
+            <v>9.8235825205154299</v>
+          </cell>
+          <cell r="L436">
+            <v>1.6017135235883728</v>
+          </cell>
+          <cell r="M436">
+            <v>7.68801960078018</v>
+          </cell>
+          <cell r="N436">
+            <v>6.8155009548634666</v>
+          </cell>
+          <cell r="O436">
+            <v>7.5003612810670575</v>
+          </cell>
+          <cell r="P436">
+            <v>6.5069084534475934</v>
+          </cell>
+          <cell r="Q436">
+            <v>8.1887349340195641</v>
+          </cell>
+          <cell r="R436">
+            <v>7.019457759628466</v>
+          </cell>
+          <cell r="S436">
+            <v>7.302984107180805</v>
+          </cell>
+          <cell r="T436">
+            <v>5.4696287387019993</v>
+          </cell>
+          <cell r="U436">
+            <v>-13.121097355718078</v>
+          </cell>
+          <cell r="V436">
+            <v>8.5294081090508342</v>
+          </cell>
+          <cell r="W436">
+            <v>6.5228829965925428</v>
+          </cell>
+          <cell r="X436">
+            <v>3.6269357928687924</v>
+          </cell>
+          <cell r="Y436">
+            <v>5.6399069224808471</v>
+          </cell>
+          <cell r="Z436">
+            <v>1.5239268382415645</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441">
+            <v>3.8504730238576883</v>
+          </cell>
+          <cell r="C441">
+            <v>3.771936081718394</v>
+          </cell>
+          <cell r="D441">
+            <v>5.3066814298613991</v>
+          </cell>
+          <cell r="E441">
+            <v>8.2936780316530161</v>
+          </cell>
+          <cell r="F441">
+            <v>5.2819632342929594</v>
+          </cell>
+          <cell r="G441">
+            <v>6.4136363188305126</v>
+          </cell>
+          <cell r="H441">
+            <v>7.695710341755003</v>
+          </cell>
+          <cell r="I441">
+            <v>3.9886933128141351</v>
+          </cell>
+          <cell r="J441">
+            <v>3.4257677575938175</v>
+          </cell>
+          <cell r="K441">
+            <v>7.553215154649223</v>
+          </cell>
+          <cell r="L441">
+            <v>5.1684657298538923</v>
+          </cell>
+          <cell r="M441">
+            <v>7.3808691902351313</v>
+          </cell>
+          <cell r="N441">
+            <v>7.5711768242778987</v>
+          </cell>
+          <cell r="O441">
+            <v>6.7174996920232246</v>
+          </cell>
+          <cell r="P441">
+            <v>7.4136407800169764</v>
+          </cell>
+          <cell r="Q441">
+            <v>8.1741539634557085</v>
+          </cell>
+          <cell r="R441">
+            <v>7.3564353009879113</v>
+          </cell>
+          <cell r="S441">
+            <v>6.742605900669929</v>
+          </cell>
+          <cell r="T441">
+            <v>7.2433588277661158</v>
+          </cell>
+          <cell r="U441">
+            <v>-9.1272079402560991</v>
+          </cell>
+          <cell r="V441">
+            <v>5.3665446534042758</v>
+          </cell>
+          <cell r="W441">
+            <v>9.2289937899219012</v>
+          </cell>
+          <cell r="X441">
+            <v>7.0608205359761627</v>
+          </cell>
+          <cell r="Y441">
+            <v>6.7057387530641535</v>
+          </cell>
+          <cell r="Z441">
+            <v>5.9030673752943841</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454">
+            <v>3.0492313441098133</v>
+          </cell>
+          <cell r="C454">
+            <v>3.7162550018348526</v>
+          </cell>
+          <cell r="D454">
+            <v>5.0869111341206121</v>
+          </cell>
+          <cell r="E454">
+            <v>6.569228512800791</v>
+          </cell>
+          <cell r="F454">
+            <v>4.9425051178358075</v>
+          </cell>
+          <cell r="G454">
+            <v>5.3164168221744461</v>
+          </cell>
+          <cell r="H454">
+            <v>6.5192915503707241</v>
+          </cell>
+          <cell r="I454">
+            <v>4.344487304883387</v>
+          </cell>
+          <cell r="J454">
+            <v>1.4483230628297576</v>
+          </cell>
+          <cell r="K454">
+            <v>7.3344999604172898</v>
+          </cell>
+          <cell r="L454">
+            <v>3.8582328274785311</v>
+          </cell>
+          <cell r="M454">
+            <v>6.8969517105742</v>
+          </cell>
+          <cell r="N454">
+            <v>6.7505313017787785</v>
+          </cell>
+          <cell r="O454">
+            <v>6.3479874825022762</v>
+          </cell>
+          <cell r="P454">
+            <v>6.3483097167204932</v>
+          </cell>
+          <cell r="Q454">
+            <v>7.14945674959813</v>
+          </cell>
+          <cell r="R454">
+            <v>6.9309883258640355</v>
+          </cell>
+          <cell r="S454">
+            <v>6.3414855714878371</v>
+          </cell>
+          <cell r="T454">
+            <v>6.118525662562547</v>
+          </cell>
+          <cell r="U454">
+            <v>-9.518294740699119</v>
+          </cell>
+          <cell r="V454">
+            <v>5.7147331321929471</v>
+          </cell>
+          <cell r="W454">
+            <v>7.5809821277173199</v>
+          </cell>
+          <cell r="X454">
+            <v>5.5189496785154546</v>
+          </cell>
+          <cell r="Y454">
+            <v>5.6920161281656618</v>
+          </cell>
+          <cell r="Z454">
+            <v>4.403389306011249</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12642,60 +14617,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CB60"/>
+  <dimension ref="A1:CC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CC12" sqref="CC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
-    <col min="3" max="80" width="13.5703125" style="17" customWidth="1"/>
-    <col min="81" max="16384" width="8.85546875" style="17"/>
+    <col min="3" max="81" width="13.5703125" style="17" customWidth="1"/>
+    <col min="82" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>88</v>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="str">
+        <f>[1]Annual!A3</f>
+        <v>As of January 2026</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -12936,8 +14911,11 @@
       <c r="CB9" s="30">
         <v>2024</v>
       </c>
+      <c r="CC9" s="30">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -13104,82 +15082,111 @@
         <v>508644.29562133801</v>
       </c>
       <c r="BD10" s="19">
+        <f>[1]Annual!B88</f>
         <v>515479.83105914737</v>
       </c>
       <c r="BE10" s="19">
+        <f>[1]Annual!C88</f>
         <v>535358.11662950239</v>
       </c>
       <c r="BF10" s="19">
+        <f>[1]Annual!D88</f>
         <v>585081.26403037924</v>
       </c>
       <c r="BG10" s="19">
+        <f>[1]Annual!E88</f>
         <v>620436.58457756066</v>
       </c>
       <c r="BH10" s="19">
+        <f>[1]Annual!F88</f>
         <v>744516.25225188024</v>
       </c>
       <c r="BI10" s="19">
+        <f>[1]Annual!G88</f>
         <v>799871.41640274995</v>
       </c>
       <c r="BJ10" s="19">
+        <f>[1]Annual!H88</f>
         <v>875217.54801529867</v>
       </c>
       <c r="BK10" s="19">
+        <f>[1]Annual!I88</f>
         <v>979429.73898867343</v>
       </c>
       <c r="BL10" s="19">
+        <f>[1]Annual!J88</f>
         <v>1168573.1402468833</v>
       </c>
       <c r="BM10" s="19">
+        <f>[1]Annual!K88</f>
         <v>1219985.1777794692</v>
       </c>
       <c r="BN10" s="19">
+        <f>[1]Annual!L88</f>
         <v>1292317.8004069938</v>
       </c>
       <c r="BO10" s="19">
+        <f>[1]Annual!M88</f>
         <v>1429964.5926411448</v>
       </c>
       <c r="BP10" s="19">
+        <f>[1]Annual!N88</f>
         <v>1448473.3675359092</v>
       </c>
       <c r="BQ10" s="19">
+        <f>[1]Annual!O88</f>
         <v>1503121.5657752962</v>
       </c>
       <c r="BR10" s="19">
+        <f>[1]Annual!P88</f>
         <v>1620699.915263247</v>
       </c>
       <c r="BS10" s="19">
+        <f>[1]Annual!Q88</f>
         <v>1533369.1559169192</v>
       </c>
       <c r="BT10" s="19">
+        <f>[1]Annual!R88</f>
         <v>1544278.5250839123</v>
       </c>
       <c r="BU10" s="19">
+        <f>[1]Annual!S88</f>
         <v>1685956.1855432384</v>
       </c>
       <c r="BV10" s="19">
+        <f>[1]Annual!T88</f>
         <v>1762616.4965786883</v>
       </c>
       <c r="BW10" s="19">
+        <f>[1]Annual!U88</f>
         <v>1721538.720258696</v>
       </c>
       <c r="BX10" s="19">
+        <f>[1]Annual!V88</f>
         <v>1828423.603228105</v>
       </c>
       <c r="BY10" s="19">
+        <f>[1]Annual!W88</f>
         <v>1954486.610016682</v>
       </c>
       <c r="BZ10" s="19">
+        <f>[1]Annual!X88</f>
         <v>2104089.8599160332</v>
       </c>
       <c r="CA10" s="19">
+        <f>[1]Annual!Y88</f>
         <v>2285564.0565247671</v>
       </c>
       <c r="CB10" s="19">
+        <f>[1]Annual!Z88</f>
         <v>2401998.5929831276</v>
       </c>
+      <c r="CC10" s="19">
+        <f>[1]Annual!AA88</f>
+        <v>2407377.1641075336</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -13346,82 +15353,111 @@
         <v>1123139.21148392</v>
       </c>
       <c r="BD11" s="19">
+        <f>[1]Annual!B89</f>
         <v>1293230.8123216361</v>
       </c>
       <c r="BE11" s="19">
+        <f>[1]Annual!C89</f>
         <v>1404419.2585960752</v>
       </c>
       <c r="BF11" s="19">
+        <f>[1]Annual!D89</f>
         <v>1513274.1419064312</v>
       </c>
       <c r="BG11" s="19">
+        <f>[1]Annual!E89</f>
         <v>1629557.8179376805</v>
       </c>
       <c r="BH11" s="19">
+        <f>[1]Annual!F89</f>
         <v>1789827.1716504705</v>
       </c>
       <c r="BI11" s="19">
+        <f>[1]Annual!G89</f>
         <v>2000850.6834146297</v>
       </c>
       <c r="BJ11" s="19">
+        <f>[1]Annual!H89</f>
         <v>2191938.9158876012</v>
       </c>
       <c r="BK11" s="19">
+        <f>[1]Annual!I89</f>
         <v>2375482.7850285335</v>
       </c>
       <c r="BL11" s="19">
+        <f>[1]Annual!J89</f>
         <v>2637671.450985474</v>
       </c>
       <c r="BM11" s="19">
+        <f>[1]Annual!K89</f>
         <v>2644874.1847134624</v>
       </c>
       <c r="BN11" s="19">
+        <f>[1]Annual!L89</f>
         <v>3039740.6458881143</v>
       </c>
       <c r="BO11" s="19">
+        <f>[1]Annual!M89</f>
         <v>3179203.2325789281</v>
       </c>
       <c r="BP11" s="19">
+        <f>[1]Annual!N89</f>
         <v>3472968.8558059549</v>
       </c>
       <c r="BQ11" s="19">
+        <f>[1]Annual!O89</f>
         <v>3708623.5049130186</v>
       </c>
       <c r="BR11" s="19">
+        <f>[1]Annual!P89</f>
         <v>4100382.6683558412</v>
       </c>
       <c r="BS11" s="19">
+        <f>[1]Annual!Q89</f>
         <v>4250451.2383206487</v>
       </c>
       <c r="BT11" s="19">
+        <f>[1]Annual!R89</f>
         <v>4582980.5174834859</v>
       </c>
       <c r="BU11" s="19">
+        <f>[1]Annual!S89</f>
         <v>4987947.8624290526</v>
       </c>
       <c r="BV11" s="19">
+        <f>[1]Annual!T89</f>
         <v>5582525.2893169122</v>
       </c>
       <c r="BW11" s="19">
+        <f>[1]Annual!U89</f>
         <v>5919281.4913050616</v>
       </c>
       <c r="BX11" s="19">
+        <f>[1]Annual!V89</f>
         <v>5098232.0991026126</v>
       </c>
       <c r="BY11" s="19">
+        <f>[1]Annual!W89</f>
         <v>5607689.4737621192</v>
       </c>
       <c r="BZ11" s="19">
+        <f>[1]Annual!X89</f>
         <v>6436935.4825338945</v>
       </c>
       <c r="CA11" s="19">
+        <f>[1]Annual!Y89</f>
         <v>6855846.7681841524</v>
       </c>
       <c r="CB11" s="19">
+        <f>[1]Annual!Z89</f>
         <v>7324051.7478946894</v>
       </c>
+      <c r="CC11" s="19">
+        <f>[1]Annual!AA89</f>
+        <v>7549475.326033894</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -13588,82 +15624,111 @@
         <v>1715803.6829949301</v>
       </c>
       <c r="BD12" s="19">
+        <f>[1]Annual!B94</f>
         <v>1888845.5620071718</v>
       </c>
       <c r="BE12" s="19">
+        <f>[1]Annual!C94</f>
         <v>2084621.56495832</v>
       </c>
       <c r="BF12" s="19">
+        <f>[1]Annual!D94</f>
         <v>2252204.3661971181</v>
       </c>
       <c r="BG12" s="19">
+        <f>[1]Annual!E94</f>
         <v>2467814.5379699469</v>
       </c>
       <c r="BH12" s="19">
+        <f>[1]Annual!F94</f>
         <v>2789560.7532976717</v>
       </c>
       <c r="BI12" s="19">
+        <f>[1]Annual!G94</f>
         <v>3116560.2013509646</v>
       </c>
       <c r="BJ12" s="19">
+        <f>[1]Annual!H94</f>
         <v>3483260.64902006</v>
       </c>
       <c r="BK12" s="19">
+        <f>[1]Annual!I94</f>
         <v>3843332.3637472363</v>
       </c>
       <c r="BL12" s="19">
+        <f>[1]Annual!J94</f>
         <v>4243956.0293361945</v>
       </c>
       <c r="BM12" s="19">
+        <f>[1]Annual!K94</f>
         <v>4525562.0937777292</v>
       </c>
       <c r="BN12" s="19">
+        <f>[1]Annual!L94</f>
         <v>5067392.3117788061</v>
       </c>
       <c r="BO12" s="19">
+        <f>[1]Annual!M94</f>
         <v>5535493.5015616529</v>
       </c>
       <c r="BP12" s="19">
+        <f>[1]Annual!N94</f>
         <v>6139146.6072256053</v>
       </c>
       <c r="BQ12" s="19">
+        <f>[1]Annual!O94</f>
         <v>6838846.913572249</v>
       </c>
       <c r="BR12" s="19">
+        <f>[1]Annual!P94</f>
         <v>7485745.6680728551</v>
       </c>
       <c r="BS12" s="19">
+        <f>[1]Annual!Q94</f>
         <v>8160337.0535270972</v>
       </c>
       <c r="BT12" s="19">
+        <f>[1]Annual!R94</f>
         <v>9005122.4276059344</v>
       </c>
       <c r="BU12" s="19">
+        <f>[1]Annual!S94</f>
         <v>9882747.0352535639</v>
       </c>
       <c r="BV12" s="19">
+        <f>[1]Annual!T94</f>
         <v>10920048.472266145</v>
       </c>
       <c r="BW12" s="19">
+        <f>[1]Annual!U94</f>
         <v>11877042.96011826</v>
       </c>
       <c r="BX12" s="19">
+        <f>[1]Annual!V94</f>
         <v>11024917.867682004</v>
       </c>
       <c r="BY12" s="19">
+        <f>[1]Annual!W94</f>
         <v>11848438.402404422</v>
       </c>
       <c r="BZ12" s="19">
+        <f>[1]Annual!X94</f>
         <v>13487250.995206343</v>
       </c>
       <c r="CA12" s="19">
+        <f>[1]Annual!Y94</f>
         <v>15172152.370130764</v>
       </c>
       <c r="CB12" s="19">
+        <f>[1]Annual!Z94</f>
         <v>16720319.15398364</v>
       </c>
+      <c r="CC12" s="19">
+        <f>[1]Annual!AA94</f>
+        <v>18057411.945117269</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -13744,8 +15809,9 @@
       <c r="BZ13" s="19"/>
       <c r="CA13" s="19"/>
       <c r="CB13" s="19"/>
+      <c r="CC13" s="19"/>
     </row>
-    <row r="14" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -13912,82 +15978,111 @@
         <v>3347587.1901001884</v>
       </c>
       <c r="BD14" s="24">
+        <f>[1]Annual!B107</f>
         <v>3697556.2053879555</v>
       </c>
       <c r="BE14" s="24">
+        <f>[1]Annual!C107</f>
         <v>4024398.9401838975</v>
       </c>
       <c r="BF14" s="24">
+        <f>[1]Annual!D107</f>
         <v>4350559.7721339278</v>
       </c>
       <c r="BG14" s="24">
+        <f>[1]Annual!E107</f>
         <v>4717808.9404851878</v>
       </c>
       <c r="BH14" s="24">
+        <f>[1]Annual!F107</f>
         <v>5323904.1772000222</v>
       </c>
       <c r="BI14" s="24">
+        <f>[1]Annual!G107</f>
         <v>5917282.301168344</v>
       </c>
       <c r="BJ14" s="24">
+        <f>[1]Annual!H107</f>
         <v>6550417.11292296</v>
       </c>
       <c r="BK14" s="24">
+        <f>[1]Annual!I107</f>
         <v>7198244.8877644427</v>
       </c>
       <c r="BL14" s="24">
+        <f>[1]Annual!J107</f>
         <v>8050200.6205685521</v>
       </c>
       <c r="BM14" s="24">
+        <f>[1]Annual!K107</f>
         <v>8390421.4562706612</v>
       </c>
       <c r="BN14" s="24">
+        <f>[1]Annual!L107</f>
         <v>9399450.7580739148</v>
       </c>
       <c r="BO14" s="24">
+        <f>[1]Annual!M107</f>
         <v>10144661.326781726</v>
       </c>
       <c r="BP14" s="24">
+        <f>[1]Annual!N107</f>
         <v>11060588.830567468</v>
       </c>
       <c r="BQ14" s="24">
+        <f>[1]Annual!O107</f>
         <v>12050591.984260563</v>
       </c>
       <c r="BR14" s="24">
+        <f>[1]Annual!P107</f>
         <v>13206828.251691943</v>
       </c>
       <c r="BS14" s="24">
+        <f>[1]Annual!Q107</f>
         <v>13944157.447764665</v>
       </c>
       <c r="BT14" s="24">
+        <f>[1]Annual!R107</f>
         <v>15132381.470173333</v>
       </c>
       <c r="BU14" s="24">
+        <f>[1]Annual!S107</f>
         <v>16556651.083225854</v>
       </c>
       <c r="BV14" s="24">
+        <f>[1]Annual!T107</f>
         <v>18265190.258161746</v>
       </c>
       <c r="BW14" s="24">
+        <f>[1]Annual!U107</f>
         <v>19517863.171682019</v>
       </c>
       <c r="BX14" s="24">
+        <f>[1]Annual!V107</f>
         <v>17951573.570012722</v>
       </c>
       <c r="BY14" s="24">
+        <f>[1]Annual!W107</f>
         <v>19410614.486183222</v>
       </c>
       <c r="BZ14" s="24">
+        <f>[1]Annual!X107</f>
         <v>22028276.337656271</v>
       </c>
       <c r="CA14" s="24">
+        <f>[1]Annual!Y107</f>
         <v>24313563.194839686</v>
       </c>
       <c r="CB14" s="24">
+        <f>[1]Annual!Z107</f>
         <v>26446369.494861454</v>
       </c>
+      <c r="CC14" s="24">
+        <f>[1]Annual!AA107</f>
+        <v>28014264.435258694</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -14066,7 +16161,7 @@
       <c r="BV15" s="19"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -14143,7 +16238,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -14220,7 +16315,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -14301,8 +16396,9 @@
       <c r="BZ18" s="19"/>
       <c r="CA18" s="19"/>
       <c r="CB18" s="19"/>
+      <c r="CC18" s="19"/>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -14385,8 +16481,9 @@
       <c r="BZ19" s="19"/>
       <c r="CA19" s="19"/>
       <c r="CB19" s="19"/>
+      <c r="CC19" s="19"/>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -14469,10 +16566,12 @@
       <c r="BZ20" s="19"/>
       <c r="CA20" s="19"/>
       <c r="CB20" s="19"/>
+      <c r="CC20" s="19"/>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>88</v>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="str">
+        <f>$A$3</f>
+        <v>As of January 2026</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -14553,8 +16652,9 @@
       <c r="BZ21" s="19"/>
       <c r="CA21" s="19"/>
       <c r="CB21" s="19"/>
+      <c r="CC21" s="19"/>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -14635,8 +16735,9 @@
       <c r="BZ22" s="19"/>
       <c r="CA22" s="19"/>
       <c r="CB22" s="19"/>
+      <c r="CC22" s="19"/>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>83</v>
       </c>
@@ -14719,8 +16820,9 @@
       <c r="BZ23" s="19"/>
       <c r="CA23" s="19"/>
       <c r="CB23" s="19"/>
+      <c r="CC23" s="19"/>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>87</v>
       </c>
@@ -14803,8 +16905,9 @@
       <c r="BZ24" s="19"/>
       <c r="CA24" s="19"/>
       <c r="CB24" s="19"/>
+      <c r="CC24" s="19"/>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>85</v>
       </c>
@@ -14886,8 +16989,9 @@
       <c r="BY25" s="19"/>
       <c r="BZ25" s="19"/>
       <c r="CA25" s="19"/>
+      <c r="CB25" s="19"/>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -14967,8 +17071,9 @@
       <c r="BY26" s="19"/>
       <c r="BZ26" s="19"/>
       <c r="CA26" s="19"/>
+      <c r="CB26" s="19"/>
     </row>
-    <row r="27" spans="1:80" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
@@ -15134,80 +17239,108 @@
       <c r="BC27" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="BD27" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF27" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG27" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH27" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI27" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ27" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK27" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL27" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM27" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN27" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="BO27" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP27" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="BQ27" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR27" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS27" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT27" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU27" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW27" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX27" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="BY27" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ27" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="CA27" s="28" t="s">
-        <v>112</v>
+      <c r="BD27" s="28" t="str">
+        <f>[1]Annual!B394</f>
+        <v>2000 - 2001</v>
+      </c>
+      <c r="BE27" s="28" t="str">
+        <f>[1]Annual!C394</f>
+        <v>2001 - 2002</v>
+      </c>
+      <c r="BF27" s="28" t="str">
+        <f>[1]Annual!D394</f>
+        <v>2002 - 2003</v>
+      </c>
+      <c r="BG27" s="28" t="str">
+        <f>[1]Annual!E394</f>
+        <v>2003 - 2004</v>
+      </c>
+      <c r="BH27" s="28" t="str">
+        <f>[1]Annual!F394</f>
+        <v>2004 - 2005</v>
+      </c>
+      <c r="BI27" s="28" t="str">
+        <f>[1]Annual!G394</f>
+        <v>2005 - 2006</v>
+      </c>
+      <c r="BJ27" s="28" t="str">
+        <f>[1]Annual!H394</f>
+        <v>2006 - 2007</v>
+      </c>
+      <c r="BK27" s="28" t="str">
+        <f>[1]Annual!I394</f>
+        <v>2007 - 2008</v>
+      </c>
+      <c r="BL27" s="28" t="str">
+        <f>[1]Annual!J394</f>
+        <v>2008 - 2009</v>
+      </c>
+      <c r="BM27" s="28" t="str">
+        <f>[1]Annual!K394</f>
+        <v>2009 - 2010</v>
+      </c>
+      <c r="BN27" s="28" t="str">
+        <f>[1]Annual!L394</f>
+        <v>2010 - 2011</v>
+      </c>
+      <c r="BO27" s="28" t="str">
+        <f>[1]Annual!M394</f>
+        <v>2011 - 2012</v>
+      </c>
+      <c r="BP27" s="28" t="str">
+        <f>[1]Annual!N394</f>
+        <v>2012 - 2013</v>
+      </c>
+      <c r="BQ27" s="28" t="str">
+        <f>[1]Annual!O394</f>
+        <v>2013 - 2014</v>
+      </c>
+      <c r="BR27" s="28" t="str">
+        <f>[1]Annual!P394</f>
+        <v>2014 - 2015</v>
+      </c>
+      <c r="BS27" s="28" t="str">
+        <f>[1]Annual!Q394</f>
+        <v>2015 - 2016</v>
+      </c>
+      <c r="BT27" s="28" t="str">
+        <f>[1]Annual!R394</f>
+        <v>2016 - 2017</v>
+      </c>
+      <c r="BU27" s="28" t="str">
+        <f>[1]Annual!S394</f>
+        <v>2017 - 2018</v>
+      </c>
+      <c r="BV27" s="28" t="str">
+        <f>[1]Annual!T394</f>
+        <v>2018 - 2019</v>
+      </c>
+      <c r="BW27" s="28" t="str">
+        <f>[1]Annual!U394</f>
+        <v>2019 - 2020</v>
+      </c>
+      <c r="BX27" s="28" t="str">
+        <f>[1]Annual!V394</f>
+        <v>2020 - 2021</v>
+      </c>
+      <c r="BY27" s="28" t="str">
+        <f>[1]Annual!W394</f>
+        <v>2021 - 2022</v>
+      </c>
+      <c r="BZ27" s="28" t="str">
+        <f>[1]Annual!X394</f>
+        <v>2022 - 2023</v>
+      </c>
+      <c r="CA27" s="28" t="str">
+        <f>[1]Annual!Y394</f>
+        <v>2023 - 2024</v>
+      </c>
+      <c r="CB27" s="28" t="str">
+        <f>[1]Annual!Z394</f>
+        <v>2024 - 2025</v>
       </c>
     </row>
-    <row r="28" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -15374,79 +17507,107 @@
         <v>1.3438673032422486</v>
       </c>
       <c r="BD28" s="26">
+        <f>[1]Annual!B396</f>
         <v>3.8562683489500387</v>
       </c>
       <c r="BE28" s="26">
+        <f>[1]Annual!C396</f>
         <v>9.2878291850552159</v>
       </c>
       <c r="BF28" s="26">
+        <f>[1]Annual!D396</f>
         <v>6.0428051145636488</v>
       </c>
       <c r="BG28" s="26">
+        <f>[1]Annual!E396</f>
         <v>19.998767119576328</v>
       </c>
       <c r="BH28" s="26">
+        <f>[1]Annual!F396</f>
         <v>7.4350511467602161</v>
       </c>
       <c r="BI28" s="26">
+        <f>[1]Annual!G396</f>
         <v>9.419780488144184</v>
       </c>
       <c r="BJ28" s="26">
+        <f>[1]Annual!H396</f>
         <v>11.907004288213045</v>
       </c>
       <c r="BK28" s="26">
+        <f>[1]Annual!I396</f>
         <v>19.311584458678269</v>
       </c>
       <c r="BL28" s="26">
+        <f>[1]Annual!J396</f>
         <v>4.3995566697454791</v>
       </c>
       <c r="BM28" s="26">
+        <f>[1]Annual!K396</f>
         <v>5.9289755273239848</v>
       </c>
       <c r="BN28" s="26">
+        <f>[1]Annual!L396</f>
         <v>10.651156564646968</v>
       </c>
       <c r="BO28" s="26">
+        <f>[1]Annual!M396</f>
         <v>1.2943519713714409</v>
       </c>
       <c r="BP28" s="26">
+        <f>[1]Annual!N396</f>
         <v>3.7728134644513744</v>
       </c>
       <c r="BQ28" s="26">
+        <f>[1]Annual!O396</f>
         <v>7.8222781287357037</v>
       </c>
       <c r="BR28" s="26">
+        <f>[1]Annual!P396</f>
         <v>-5.3884595491042973</v>
       </c>
       <c r="BS28" s="26">
+        <f>[1]Annual!Q396</f>
         <v>0.71146397623145674</v>
       </c>
       <c r="BT28" s="26">
+        <f>[1]Annual!R396</f>
         <v>9.1743592984062019</v>
       </c>
       <c r="BU28" s="26">
+        <f>[1]Annual!S396</f>
         <v>4.5469930768544202</v>
       </c>
       <c r="BV28" s="26">
+        <f>[1]Annual!T396</f>
         <v>-2.3304999357333713</v>
       </c>
       <c r="BW28" s="34">
+        <f>[1]Annual!U396</f>
         <v>6.2086830642616775</v>
       </c>
       <c r="BX28" s="34">
+        <f>[1]Annual!V396</f>
         <v>6.8946280591658962</v>
       </c>
       <c r="BY28" s="34">
+        <f>[1]Annual!W396</f>
         <v>7.6543502080105981</v>
       </c>
       <c r="BZ28" s="34">
+        <f>[1]Annual!X396</f>
         <v>8.6248310999405646</v>
       </c>
       <c r="CA28" s="34">
+        <f>[1]Annual!Y396</f>
         <v>5.0943457973083923</v>
       </c>
+      <c r="CB28" s="34">
+        <f>[1]Annual!Z396</f>
+        <v>0.22392066090787921</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -15613,79 +17774,107 @@
         <v>15.144301505719014</v>
       </c>
       <c r="BD29" s="26">
+        <f>[1]Annual!B397</f>
         <v>8.5977263466860308</v>
       </c>
       <c r="BE29" s="26">
+        <f>[1]Annual!C397</f>
         <v>7.7508822699549569</v>
       </c>
       <c r="BF29" s="26">
+        <f>[1]Annual!D397</f>
         <v>7.6842439060482661</v>
       </c>
       <c r="BG29" s="26">
+        <f>[1]Annual!E397</f>
         <v>9.8351437395220529</v>
       </c>
       <c r="BH29" s="26">
+        <f>[1]Annual!F397</f>
         <v>11.790161369020112</v>
       </c>
       <c r="BI29" s="26">
+        <f>[1]Annual!G397</f>
         <v>9.5503494617030782</v>
       </c>
       <c r="BJ29" s="26">
+        <f>[1]Annual!H397</f>
         <v>8.3735850397367528</v>
       </c>
       <c r="BK29" s="26">
+        <f>[1]Annual!I397</f>
         <v>11.037279142134111</v>
       </c>
       <c r="BL29" s="26">
+        <f>[1]Annual!J397</f>
         <v>0.27307167938968746</v>
       </c>
       <c r="BM29" s="26">
+        <f>[1]Annual!K397</f>
         <v>14.929498856953401</v>
       </c>
       <c r="BN29" s="26">
+        <f>[1]Annual!L397</f>
         <v>4.5879765064649831</v>
       </c>
       <c r="BO29" s="26">
+        <f>[1]Annual!M397</f>
         <v>9.2402278727153941</v>
       </c>
       <c r="BP29" s="26">
+        <f>[1]Annual!N397</f>
         <v>6.7853948276301708</v>
       </c>
       <c r="BQ29" s="26">
+        <f>[1]Annual!O397</f>
         <v>10.563465472400679</v>
       </c>
       <c r="BR29" s="26">
+        <f>[1]Annual!P397</f>
         <v>3.6598674343968298</v>
       </c>
       <c r="BS29" s="26">
+        <f>[1]Annual!Q397</f>
         <v>7.8233876950490497</v>
       </c>
       <c r="BT29" s="26">
+        <f>[1]Annual!R397</f>
         <v>8.836331365596422</v>
       </c>
       <c r="BU29" s="26">
+        <f>[1]Annual!S397</f>
         <v>11.920281512291297</v>
       </c>
       <c r="BV29" s="26">
+        <f>[1]Annual!T397</f>
         <v>6.0323273883342381</v>
       </c>
       <c r="BW29" s="34">
+        <f>[1]Annual!U397</f>
         <v>-13.8707610612623</v>
       </c>
       <c r="BX29" s="34">
+        <f>[1]Annual!V397</f>
         <v>9.9928242723429861</v>
       </c>
       <c r="BY29" s="34">
+        <f>[1]Annual!W397</f>
         <v>14.787659207089547</v>
       </c>
       <c r="BZ29" s="34">
+        <f>[1]Annual!X397</f>
         <v>6.5079304707486898</v>
       </c>
       <c r="CA29" s="34">
+        <f>[1]Annual!Y397</f>
         <v>6.8292801099833582</v>
       </c>
+      <c r="CB29" s="34">
+        <f>[1]Annual!Z397</f>
+        <v>3.0778534327532867</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -15852,79 +18041,107 @@
         <v>10.085181581090083</v>
       </c>
       <c r="BD30" s="26">
+        <f>[1]Annual!B402</f>
         <v>10.364849667386665</v>
       </c>
       <c r="BE30" s="26">
+        <f>[1]Annual!C402</f>
         <v>8.0390035321422459</v>
       </c>
       <c r="BF30" s="26">
+        <f>[1]Annual!D402</f>
         <v>9.5732951684526597</v>
       </c>
       <c r="BG30" s="26">
+        <f>[1]Annual!E402</f>
         <v>13.037698351205805</v>
       </c>
       <c r="BH30" s="26">
+        <f>[1]Annual!F402</f>
         <v>11.722255830661936</v>
       </c>
       <c r="BI30" s="26">
+        <f>[1]Annual!G402</f>
         <v>11.766191697825647</v>
       </c>
       <c r="BJ30" s="26">
+        <f>[1]Annual!H402</f>
         <v>10.337202724937484</v>
       </c>
       <c r="BK30" s="26">
+        <f>[1]Annual!I402</f>
         <v>10.423862098628149</v>
       </c>
       <c r="BL30" s="26">
+        <f>[1]Annual!J402</f>
         <v>6.6354614066437705</v>
       </c>
       <c r="BM30" s="26">
+        <f>[1]Annual!K402</f>
         <v>11.972661224691805</v>
       </c>
       <c r="BN30" s="26">
+        <f>[1]Annual!L402</f>
         <v>9.2375162802133417</v>
       </c>
       <c r="BO30" s="26">
+        <f>[1]Annual!M402</f>
         <v>10.905136199575566</v>
       </c>
       <c r="BP30" s="26">
+        <f>[1]Annual!N402</f>
         <v>11.397354569169522</v>
       </c>
       <c r="BQ30" s="26">
+        <f>[1]Annual!O402</f>
         <v>9.4591787574127721</v>
       </c>
       <c r="BR30" s="26">
+        <f>[1]Annual!P402</f>
         <v>9.011679201597957</v>
       </c>
       <c r="BS30" s="26">
+        <f>[1]Annual!Q402</f>
         <v>10.352334328074122</v>
       </c>
       <c r="BT30" s="26">
+        <f>[1]Annual!R402</f>
         <v>9.7458376019097699</v>
       </c>
       <c r="BU30" s="26">
+        <f>[1]Annual!S402</f>
         <v>10.496084067641689</v>
       </c>
       <c r="BV30" s="26">
+        <f>[1]Annual!T402</f>
         <v>8.7636468856581757</v>
       </c>
       <c r="BW30" s="34">
+        <f>[1]Annual!U402</f>
         <v>-7.1745559504802117</v>
       </c>
       <c r="BX30" s="34">
+        <f>[1]Annual!V402</f>
         <v>7.4696296571646172</v>
       </c>
       <c r="BY30" s="34">
+        <f>[1]Annual!W402</f>
         <v>13.831464849151388</v>
       </c>
       <c r="BZ30" s="34">
+        <f>[1]Annual!X402</f>
         <v>12.492548522477051</v>
       </c>
       <c r="CA30" s="34">
+        <f>[1]Annual!Y402</f>
         <v>10.20400234643526</v>
       </c>
+      <c r="CB30" s="34">
+        <f>[1]Annual!Z402</f>
+        <v>7.9968138097116679</v>
+      </c>
     </row>
-    <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -16004,8 +18221,9 @@
       <c r="BY31" s="34"/>
       <c r="BZ31" s="34"/>
       <c r="CA31" s="34"/>
+      <c r="CB31" s="34"/>
     </row>
-    <row r="32" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -16172,85 +18390,113 @@
         <v>10.454365787238459</v>
       </c>
       <c r="BD32" s="27">
+        <f>[1]Annual!B415</f>
         <v>8.8394257352917975</v>
       </c>
       <c r="BE32" s="27">
+        <f>[1]Annual!C415</f>
         <v>8.1045849777290329</v>
       </c>
       <c r="BF32" s="27">
+        <f>[1]Annual!D415</f>
         <v>8.4414233474862925</v>
       </c>
       <c r="BG32" s="27">
+        <f>[1]Annual!E415</f>
         <v>12.846964435412318</v>
       </c>
       <c r="BH32" s="27">
+        <f>[1]Annual!F415</f>
         <v>11.145544777261463</v>
       </c>
       <c r="BI32" s="27">
+        <f>[1]Annual!G415</f>
         <v>10.699756738487977</v>
       </c>
       <c r="BJ32" s="27">
+        <f>[1]Annual!H415</f>
         <v>9.8898705788279955</v>
       </c>
       <c r="BK32" s="27">
+        <f>[1]Annual!I415</f>
         <v>11.835603624048161</v>
       </c>
       <c r="BL32" s="27">
+        <f>[1]Annual!J415</f>
         <v>4.2262404595586389</v>
       </c>
       <c r="BM32" s="27">
+        <f>[1]Annual!K415</f>
         <v>12.025966836852348</v>
       </c>
       <c r="BN32" s="27">
+        <f>[1]Annual!L415</f>
         <v>7.9282352542534511</v>
       </c>
       <c r="BO32" s="27">
+        <f>[1]Annual!M415</f>
         <v>9.0286651696070948</v>
       </c>
       <c r="BP32" s="27">
+        <f>[1]Annual!N415</f>
         <v>8.9507273876512414</v>
       </c>
       <c r="BQ32" s="27">
+        <f>[1]Annual!O415</f>
         <v>9.5948503520951931</v>
       </c>
       <c r="BR32" s="27">
+        <f>[1]Annual!P415</f>
         <v>5.5829392343181468</v>
       </c>
       <c r="BS32" s="27">
+        <f>[1]Annual!Q415</f>
         <v>8.5213038282147835</v>
       </c>
       <c r="BT32" s="27">
+        <f>[1]Annual!R415</f>
         <v>9.4120652182858748</v>
       </c>
       <c r="BU32" s="27">
+        <f>[1]Annual!S415</f>
         <v>10.319352424276644</v>
       </c>
       <c r="BV32" s="27">
+        <f>[1]Annual!T415</f>
         <v>6.8582527519006788</v>
       </c>
       <c r="BW32" s="27">
+        <f>[1]Annual!U415</f>
         <v>-8.0249030741325669</v>
       </c>
       <c r="BX32" s="27">
+        <f>[1]Annual!V415</f>
         <v>8.1276491471909793</v>
       </c>
       <c r="BY32" s="27">
+        <f>[1]Annual!W415</f>
         <v>13.485723769004537</v>
       </c>
       <c r="BZ32" s="27">
+        <f>[1]Annual!X415</f>
         <v>10.374333525482555</v>
       </c>
       <c r="CA32" s="27">
+        <f>[1]Annual!Y415</f>
         <v>8.772084465490579</v>
       </c>
+      <c r="CB32" s="27">
+        <f>[1]Annual!Z415</f>
+        <v>5.9285829032294401</v>
+      </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -16331,7 +18577,7 @@
       <c r="BZ34" s="19"/>
       <c r="CA34" s="19"/>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -16412,7 +18658,7 @@
       <c r="BZ35" s="19"/>
       <c r="CA35" s="19"/>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -16493,7 +18739,7 @@
       <c r="BZ36" s="19"/>
       <c r="CA36" s="19"/>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -16576,8 +18822,9 @@
       <c r="BZ37" s="19"/>
       <c r="CA37" s="19"/>
       <c r="CB37" s="19"/>
+      <c r="CC37" s="19"/>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -16660,10 +18907,12 @@
       <c r="BZ38" s="19"/>
       <c r="CA38" s="19"/>
       <c r="CB38" s="19"/>
+      <c r="CC38" s="19"/>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>88</v>
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="str">
+        <f>$A$3</f>
+        <v>As of January 2026</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -16744,8 +18993,9 @@
       <c r="BZ39" s="19"/>
       <c r="CA39" s="19"/>
       <c r="CB39" s="19"/>
+      <c r="CC39" s="19"/>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -16826,8 +19076,9 @@
       <c r="BZ40" s="19"/>
       <c r="CA40" s="19"/>
       <c r="CB40" s="19"/>
+      <c r="CC40" s="19"/>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>82</v>
       </c>
@@ -16910,8 +19161,9 @@
       <c r="BZ41" s="19"/>
       <c r="CA41" s="19"/>
       <c r="CB41" s="19"/>
+      <c r="CC41" s="19"/>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>86</v>
       </c>
@@ -16994,8 +19246,9 @@
       <c r="BZ42" s="19"/>
       <c r="CA42" s="19"/>
       <c r="CB42" s="19"/>
+      <c r="CC42" s="19"/>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>23</v>
       </c>
@@ -17078,8 +19331,9 @@
       <c r="BZ43" s="19"/>
       <c r="CA43" s="19"/>
       <c r="CB43" s="19"/>
+      <c r="CC43" s="19"/>
     </row>
-    <row r="44" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -17160,8 +19414,9 @@
       <c r="BZ44" s="19"/>
       <c r="CA44" s="19"/>
       <c r="CB44" s="19"/>
+      <c r="CC44" s="19"/>
     </row>
-    <row r="45" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>20</v>
       </c>
@@ -17402,8 +19657,11 @@
       <c r="CB45" s="30">
         <v>2024</v>
       </c>
+      <c r="CC45" s="30">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="46" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>21</v>
       </c>
@@ -17570,82 +19828,111 @@
         <v>15.194355418898439</v>
       </c>
       <c r="BD46" s="22">
+        <f>[1]Annual!B242</f>
         <v>13.941095210615254</v>
       </c>
       <c r="BE46" s="22">
+        <f>[1]Annual!C242</f>
         <v>13.302809303618366</v>
       </c>
       <c r="BF46" s="22">
+        <f>[1]Annual!D242</f>
         <v>13.44841341516381</v>
       </c>
       <c r="BG46" s="22">
+        <f>[1]Annual!E242</f>
         <v>13.150947662449294</v>
       </c>
       <c r="BH46" s="22">
+        <f>[1]Annual!F242</f>
         <v>13.984403690816247</v>
       </c>
       <c r="BI46" s="22">
+        <f>[1]Annual!G242</f>
         <v>13.517547003711798</v>
       </c>
       <c r="BJ46" s="22">
+        <f>[1]Annual!H242</f>
         <v>13.361249107154258</v>
       </c>
       <c r="BK46" s="22">
+        <f>[1]Annual!I242</f>
         <v>13.606507617620867</v>
       </c>
       <c r="BL46" s="22">
+        <f>[1]Annual!J242</f>
         <v>14.516074757952453</v>
       </c>
       <c r="BM46" s="22">
+        <f>[1]Annual!K242</f>
         <v>14.540213315121395</v>
       </c>
       <c r="BN46" s="22">
+        <f>[1]Annual!L242</f>
         <v>13.74886505253429</v>
       </c>
       <c r="BO46" s="22">
+        <f>[1]Annual!M242</f>
         <v>14.095735151513274</v>
       </c>
       <c r="BP46" s="22">
+        <f>[1]Annual!N242</f>
         <v>13.095807011041332</v>
       </c>
       <c r="BQ46" s="22">
+        <f>[1]Annual!O242</f>
         <v>12.473425104248347</v>
       </c>
       <c r="BR46" s="22">
+        <f>[1]Annual!P242</f>
         <v>12.271681620873787</v>
       </c>
       <c r="BS46" s="22">
+        <f>[1]Annual!Q242</f>
         <v>10.996499155011534</v>
       </c>
       <c r="BT46" s="22">
+        <f>[1]Annual!R242</f>
         <v>10.205125532473266</v>
       </c>
       <c r="BU46" s="22">
+        <f>[1]Annual!S242</f>
         <v>10.182954131656141</v>
       </c>
       <c r="BV46" s="26">
+        <f>[1]Annual!T242</f>
         <v>9.6501403580565963</v>
       </c>
       <c r="BW46" s="26">
+        <f>[1]Annual!U242</f>
         <v>8.8203237471017513</v>
       </c>
       <c r="BX46" s="34">
+        <f>[1]Annual!V242</f>
         <v>10.185311031910887</v>
       </c>
       <c r="BY46" s="34">
+        <f>[1]Annual!W242</f>
         <v>10.069164020582223</v>
       </c>
       <c r="BZ46" s="34">
+        <f>[1]Annual!X242</f>
         <v>9.5517680442350059</v>
       </c>
       <c r="CA46" s="34">
+        <f>[1]Annual!Y242</f>
         <v>9.4003665287935068</v>
       </c>
       <c r="CB46" s="34">
+        <f>[1]Annual!Z242</f>
         <v>9.0825267848195104</v>
       </c>
+      <c r="CC46" s="34">
+        <f>[1]Annual!AA242</f>
+        <v>8.5933977301849627</v>
+      </c>
     </row>
-    <row r="47" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -17812,82 +20099,111 @@
         <v>33.550708247581326</v>
       </c>
       <c r="BD47" s="22">
+        <f>[1]Annual!B243</f>
         <v>34.975284768820643</v>
       </c>
       <c r="BE47" s="22">
+        <f>[1]Annual!C243</f>
         <v>34.897615258091172</v>
       </c>
       <c r="BF47" s="22">
+        <f>[1]Annual!D243</f>
         <v>34.783435262726613</v>
       </c>
       <c r="BG47" s="22">
+        <f>[1]Annual!E243</f>
         <v>34.540564030770057</v>
       </c>
       <c r="BH47" s="22">
+        <f>[1]Annual!F243</f>
         <v>33.618696206357839</v>
       </c>
       <c r="BI47" s="22">
+        <f>[1]Annual!G243</f>
         <v>33.813676305752217</v>
       </c>
       <c r="BJ47" s="22">
+        <f>[1]Annual!H243</f>
         <v>33.462585330073786</v>
       </c>
       <c r="BK47" s="22">
+        <f>[1]Annual!I243</f>
         <v>33.000860933008447</v>
       </c>
       <c r="BL47" s="22">
+        <f>[1]Annual!J243</f>
         <v>32.765288410901569</v>
       </c>
       <c r="BM47" s="22">
+        <f>[1]Annual!K243</f>
         <v>31.522542681533483</v>
       </c>
       <c r="BN47" s="22">
+        <f>[1]Annual!L243</f>
         <v>32.339556045623688</v>
       </c>
       <c r="BO47" s="22">
+        <f>[1]Annual!M243</f>
         <v>31.338682782695642</v>
       </c>
       <c r="BP47" s="22">
+        <f>[1]Annual!N243</f>
         <v>31.399493363390608</v>
       </c>
       <c r="BQ47" s="22">
+        <f>[1]Annual!O243</f>
         <v>30.775446631641834</v>
       </c>
       <c r="BR47" s="22">
+        <f>[1]Annual!P243</f>
         <v>31.047444475024015</v>
       </c>
       <c r="BS47" s="22">
+        <f>[1]Annual!Q243</f>
         <v>30.481950983722022</v>
       </c>
       <c r="BT47" s="22">
+        <f>[1]Annual!R243</f>
         <v>30.285917167213672</v>
       </c>
       <c r="BU47" s="22">
+        <f>[1]Annual!S243</f>
         <v>30.126550576900929</v>
       </c>
       <c r="BV47" s="26">
+        <f>[1]Annual!T243</f>
         <v>30.563740154978003</v>
       </c>
       <c r="BW47" s="26">
+        <f>[1]Annual!U243</f>
         <v>30.327507879516236</v>
       </c>
       <c r="BX47" s="34">
+        <f>[1]Annual!V243</f>
         <v>28.399917585046552</v>
       </c>
       <c r="BY47" s="34">
+        <f>[1]Annual!W243</f>
         <v>28.88980911837572</v>
       </c>
       <c r="BZ47" s="34">
+        <f>[1]Annual!X243</f>
         <v>29.221239936645727</v>
       </c>
       <c r="CA47" s="34">
+        <f>[1]Annual!Y243</f>
         <v>28.197622509066207</v>
       </c>
       <c r="CB47" s="34">
+        <f>[1]Annual!Z243</f>
         <v>27.693977993152359</v>
       </c>
+      <c r="CC47" s="34">
+        <f>[1]Annual!AA243</f>
+        <v>26.948683030678254</v>
+      </c>
     </row>
-    <row r="48" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
@@ -18054,82 +20370,111 @@
         <v>51.25493633352022</v>
       </c>
       <c r="BD48" s="22">
+        <f>[1]Annual!B248</f>
         <v>51.083620020564105</v>
       </c>
       <c r="BE48" s="22">
+        <f>[1]Annual!C248</f>
         <v>51.799575438290468</v>
       </c>
       <c r="BF48" s="22">
+        <f>[1]Annual!D248</f>
         <v>51.768151322109588</v>
       </c>
       <c r="BG48" s="22">
+        <f>[1]Annual!E248</f>
         <v>52.308488306780653</v>
       </c>
       <c r="BH48" s="22">
+        <f>[1]Annual!F248</f>
         <v>52.396900102825917</v>
       </c>
       <c r="BI48" s="22">
+        <f>[1]Annual!G248</f>
         <v>52.668776690535992</v>
       </c>
       <c r="BJ48" s="22">
+        <f>[1]Annual!H248</f>
         <v>53.176165562771956</v>
       </c>
       <c r="BK48" s="22">
+        <f>[1]Annual!I248</f>
         <v>53.392631449370697</v>
       </c>
       <c r="BL48" s="22">
+        <f>[1]Annual!J248</f>
         <v>52.718636831145972</v>
       </c>
       <c r="BM48" s="22">
+        <f>[1]Annual!K248</f>
         <v>53.937244003345121</v>
       </c>
       <c r="BN48" s="22">
+        <f>[1]Annual!L248</f>
         <v>53.91157890184202</v>
       </c>
       <c r="BO48" s="22">
+        <f>[1]Annual!M248</f>
         <v>54.565582065791084</v>
       </c>
       <c r="BP48" s="22">
+        <f>[1]Annual!N248</f>
         <v>55.504699625568065</v>
       </c>
       <c r="BQ48" s="22">
+        <f>[1]Annual!O248</f>
         <v>56.751128264109816</v>
       </c>
       <c r="BR48" s="22">
+        <f>[1]Annual!P248</f>
         <v>56.680873904102199</v>
       </c>
       <c r="BS48" s="22">
+        <f>[1]Annual!Q248</f>
         <v>58.521549861266443</v>
       </c>
       <c r="BT48" s="22">
+        <f>[1]Annual!R248</f>
         <v>59.508957300313057</v>
       </c>
       <c r="BU48" s="22">
+        <f>[1]Annual!S248</f>
         <v>59.690495291442936</v>
       </c>
       <c r="BV48" s="26">
+        <f>[1]Annual!T248</f>
         <v>59.786119486965397</v>
       </c>
       <c r="BW48" s="26">
+        <f>[1]Annual!U248</f>
         <v>60.852168373382007</v>
       </c>
       <c r="BX48" s="34">
+        <f>[1]Annual!V248</f>
         <v>61.414771383042556</v>
       </c>
       <c r="BY48" s="34">
+        <f>[1]Annual!W248</f>
         <v>61.041026861042056</v>
       </c>
       <c r="BZ48" s="34">
+        <f>[1]Annual!X248</f>
         <v>61.226992019119265</v>
       </c>
       <c r="CA48" s="34">
+        <f>[1]Annual!Y248</f>
         <v>62.402010962140274</v>
       </c>
       <c r="CB48" s="34">
+        <f>[1]Annual!Z248</f>
         <v>63.223495222028149</v>
       </c>
+      <c r="CC48" s="34">
+        <f>[1]Annual!AA248</f>
+        <v>64.457919239136785</v>
+      </c>
     </row>
-    <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -18210,8 +20555,9 @@
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
       <c r="CB49" s="34"/>
+      <c r="CC49" s="34"/>
     </row>
-    <row r="50" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>22</v>
       </c>
@@ -18378,82 +20724,111 @@
         <v>100</v>
       </c>
       <c r="BD50" s="32">
+        <f>[1]Annual!B261</f>
         <v>100</v>
       </c>
       <c r="BE50" s="32">
+        <f>[1]Annual!C261</f>
         <v>100</v>
       </c>
       <c r="BF50" s="32">
+        <f>[1]Annual!D261</f>
         <v>100</v>
       </c>
       <c r="BG50" s="32">
+        <f>[1]Annual!E261</f>
         <v>100</v>
       </c>
       <c r="BH50" s="32">
+        <f>[1]Annual!F261</f>
         <v>100</v>
       </c>
       <c r="BI50" s="32">
+        <f>[1]Annual!G261</f>
         <v>100</v>
       </c>
       <c r="BJ50" s="32">
+        <f>[1]Annual!H261</f>
         <v>100</v>
       </c>
       <c r="BK50" s="32">
+        <f>[1]Annual!I261</f>
         <v>100</v>
       </c>
       <c r="BL50" s="32">
+        <f>[1]Annual!J261</f>
         <v>100</v>
       </c>
       <c r="BM50" s="32">
+        <f>[1]Annual!K261</f>
         <v>100</v>
       </c>
       <c r="BN50" s="32">
+        <f>[1]Annual!L261</f>
         <v>100</v>
       </c>
       <c r="BO50" s="32">
+        <f>[1]Annual!M261</f>
         <v>100</v>
       </c>
       <c r="BP50" s="32">
+        <f>[1]Annual!N261</f>
         <v>100</v>
       </c>
       <c r="BQ50" s="32">
+        <f>[1]Annual!O261</f>
         <v>100</v>
       </c>
       <c r="BR50" s="32">
+        <f>[1]Annual!P261</f>
         <v>100</v>
       </c>
       <c r="BS50" s="32">
+        <f>[1]Annual!Q261</f>
         <v>100</v>
       </c>
       <c r="BT50" s="32">
+        <f>[1]Annual!R261</f>
         <v>100</v>
       </c>
       <c r="BU50" s="32">
+        <f>[1]Annual!S261</f>
         <v>100</v>
       </c>
       <c r="BV50" s="27">
+        <f>[1]Annual!T261</f>
         <v>100</v>
       </c>
       <c r="BW50" s="27">
+        <f>[1]Annual!U261</f>
         <v>100</v>
       </c>
       <c r="BX50" s="27">
+        <f>[1]Annual!V261</f>
         <v>100</v>
       </c>
       <c r="BY50" s="27">
+        <f>[1]Annual!W261</f>
         <v>100</v>
       </c>
       <c r="BZ50" s="27">
+        <f>[1]Annual!X261</f>
         <v>100</v>
       </c>
       <c r="CA50" s="27">
+        <f>[1]Annual!Y261</f>
         <v>100</v>
       </c>
       <c r="CB50" s="27">
+        <f>[1]Annual!Z261</f>
         <v>100</v>
       </c>
+      <c r="CC50" s="27">
+        <f>[1]Annual!AA261</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="51" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -18535,8 +20910,9 @@
       <c r="BZ51" s="22"/>
       <c r="CA51" s="22"/>
       <c r="CB51" s="22"/>
+      <c r="CC51" s="22"/>
     </row>
-    <row r="52" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -18616,8 +20992,9 @@
       <c r="BZ52" s="22"/>
       <c r="CA52" s="22"/>
       <c r="CB52" s="22"/>
+      <c r="CC52" s="22"/>
     </row>
-    <row r="53" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -18697,8 +21074,9 @@
       <c r="BZ53" s="22"/>
       <c r="CA53" s="22"/>
       <c r="CB53" s="22"/>
+      <c r="CC53" s="22"/>
     </row>
-    <row r="54" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -18778,8 +21156,9 @@
       <c r="BZ54" s="22"/>
       <c r="CA54" s="22"/>
       <c r="CB54" s="22"/>
+      <c r="CC54" s="22"/>
     </row>
-    <row r="55" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -18859,8 +21238,9 @@
       <c r="BZ55" s="22"/>
       <c r="CA55" s="22"/>
       <c r="CB55" s="22"/>
+      <c r="CC55" s="22"/>
     </row>
-    <row r="56" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -18940,8 +21320,9 @@
       <c r="BZ56" s="22"/>
       <c r="CA56" s="22"/>
       <c r="CB56" s="22"/>
+      <c r="CC56" s="22"/>
     </row>
-    <row r="57" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -19021,8 +21402,9 @@
       <c r="BZ57" s="22"/>
       <c r="CA57" s="22"/>
       <c r="CB57" s="22"/>
+      <c r="CC57" s="22"/>
     </row>
-    <row r="58" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -19102,8 +21484,9 @@
       <c r="BZ58" s="22"/>
       <c r="CA58" s="22"/>
       <c r="CB58" s="22"/>
+      <c r="CC58" s="22"/>
     </row>
-    <row r="59" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -19183,8 +21566,9 @@
       <c r="BZ59" s="22"/>
       <c r="CA59" s="22"/>
       <c r="CB59" s="22"/>
+      <c r="CC59" s="22"/>
     </row>
-    <row r="60" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -19264,6 +21648,7 @@
       <c r="BZ60" s="22"/>
       <c r="CA60" s="22"/>
       <c r="CB60" s="22"/>
+      <c r="CC60" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -19274,59 +21659,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:CB60"/>
+  <dimension ref="A1:CC60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CC11" sqref="CC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="16" customWidth="1"/>
-    <col min="3" max="80" width="13.5703125" style="17" customWidth="1"/>
-    <col min="81" max="16384" width="8.85546875" style="17"/>
+    <col min="3" max="81" width="13.5703125" style="17" customWidth="1"/>
+    <col min="82" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>88</v>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="str">
+        <f>Current_2018based!$A$3</f>
+        <v>As of January 2026</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>20</v>
       </c>
@@ -19567,8 +21953,11 @@
       <c r="CB9" s="30">
         <v>2024</v>
       </c>
+      <c r="CC9" s="30">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -19735,82 +22124,111 @@
         <v>1029173.6330228868</v>
       </c>
       <c r="BD10" s="19">
+        <f>[1]Annual!B127</f>
         <v>1064005.0869465019</v>
       </c>
       <c r="BE10" s="19">
+        <f>[1]Annual!C127</f>
         <v>1105117.4866392382</v>
       </c>
       <c r="BF10" s="19">
+        <f>[1]Annual!D127</f>
         <v>1144990.5954578116</v>
       </c>
       <c r="BG10" s="19">
+        <f>[1]Annual!E127</f>
         <v>1197371.0373716741</v>
       </c>
       <c r="BH10" s="19">
+        <f>[1]Annual!F127</f>
         <v>1257109.2132941873</v>
       </c>
       <c r="BI10" s="19">
+        <f>[1]Annual!G127</f>
         <v>1301069.2243305743</v>
       </c>
       <c r="BJ10" s="19">
+        <f>[1]Annual!H127</f>
         <v>1360678.1688071573</v>
       </c>
       <c r="BK10" s="19">
+        <f>[1]Annual!I127</f>
         <v>1433746.8087559578</v>
       </c>
       <c r="BL10" s="19">
+        <f>[1]Annual!J127</f>
         <v>1482351.7473987523</v>
       </c>
       <c r="BM10" s="19">
+        <f>[1]Annual!K127</f>
         <v>1480206.8239089095</v>
       </c>
       <c r="BN10" s="19">
+        <f>[1]Annual!L127</f>
         <v>1499800.7696724271</v>
       </c>
       <c r="BO10" s="19">
+        <f>[1]Annual!M127</f>
         <v>1550555.2016332422</v>
       </c>
       <c r="BP10" s="19">
+        <f>[1]Annual!N127</f>
         <v>1598311.5075543907</v>
       </c>
       <c r="BQ10" s="19">
+        <f>[1]Annual!O127</f>
         <v>1645191.6850298091</v>
       </c>
       <c r="BR10" s="19">
+        <f>[1]Annual!P127</f>
         <v>1676006.3550526681</v>
       </c>
       <c r="BS10" s="19">
+        <f>[1]Annual!Q127</f>
         <v>1688343.7557025508</v>
       </c>
       <c r="BT10" s="19">
+        <f>[1]Annual!R127</f>
         <v>1672084.9828823139</v>
       </c>
       <c r="BU10" s="19">
+        <f>[1]Annual!S127</f>
         <v>1743134.2940204137</v>
       </c>
       <c r="BV10" s="19">
+        <f>[1]Annual!T127</f>
         <v>1762616.4965786885</v>
       </c>
       <c r="BW10" s="19">
+        <f>[1]Annual!U127</f>
         <v>1783855.1472581751</v>
       </c>
       <c r="BX10" s="19">
+        <f>[1]Annual!V127</f>
         <v>1780390.5640921537</v>
       </c>
       <c r="BY10" s="19">
+        <f>[1]Annual!W127</f>
         <v>1775210.3171187984</v>
       </c>
       <c r="BZ10" s="19">
+        <f>[1]Annual!X127</f>
         <v>1783734.6554432954</v>
       </c>
       <c r="CA10" s="19">
+        <f>[1]Annual!Y127</f>
         <v>1805216.771038763</v>
       </c>
       <c r="CB10" s="19">
+        <f>[1]Annual!Z127</f>
         <v>1778234.5329187952</v>
       </c>
+      <c r="CC10" s="19">
+        <f>[1]Annual!AA127</f>
+        <v>1833110.7044894486</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -19977,82 +22395,111 @@
         <v>2094359.3252327673</v>
       </c>
       <c r="BD11" s="19">
+        <f>[1]Annual!B128</f>
         <v>2233331.908558073</v>
       </c>
       <c r="BE11" s="19">
+        <f>[1]Annual!C128</f>
         <v>2263212.7783727339</v>
       </c>
       <c r="BF11" s="19">
+        <f>[1]Annual!D128</f>
         <v>2346382.7963735494</v>
       </c>
       <c r="BG11" s="19">
+        <f>[1]Annual!E128</f>
         <v>2462870.600499433</v>
       </c>
       <c r="BH11" s="19">
+        <f>[1]Annual!F128</f>
         <v>2571406.3345832815</v>
       </c>
       <c r="BI11" s="19">
+        <f>[1]Annual!G128</f>
         <v>2701284.7496357504</v>
       </c>
       <c r="BJ11" s="19">
+        <f>[1]Annual!H128</f>
         <v>2802098.6329476382</v>
       </c>
       <c r="BK11" s="19">
+        <f>[1]Annual!I128</f>
         <v>2940674.679845708</v>
       </c>
       <c r="BL11" s="19">
+        <f>[1]Annual!J128</f>
         <v>3101573.6524675926</v>
       </c>
       <c r="BM11" s="19">
+        <f>[1]Annual!K128</f>
         <v>3057652.2915348206</v>
       </c>
       <c r="BN11" s="19">
+        <f>[1]Annual!L128</f>
         <v>3358023.2875841749</v>
       </c>
       <c r="BO11" s="19">
+        <f>[1]Annual!M128</f>
         <v>3411809.2007066575</v>
       </c>
       <c r="BP11" s="19">
+        <f>[1]Annual!N128</f>
         <v>3674109.760798207</v>
       </c>
       <c r="BQ11" s="19">
+        <f>[1]Annual!O128</f>
         <v>3924518.7466281406</v>
       </c>
       <c r="BR11" s="19">
+        <f>[1]Annual!P128</f>
         <v>4218871.831168456</v>
       </c>
       <c r="BS11" s="19">
+        <f>[1]Annual!Q128</f>
         <v>4493389.9589908756</v>
       </c>
       <c r="BT11" s="19">
+        <f>[1]Annual!R128</f>
         <v>4861341.7522844896</v>
       </c>
       <c r="BU11" s="19">
+        <f>[1]Annual!S128</f>
         <v>5202581.5831372812</v>
       </c>
       <c r="BV11" s="19">
+        <f>[1]Annual!T128</f>
         <v>5582525.2893169122</v>
       </c>
       <c r="BW11" s="19">
+        <f>[1]Annual!U128</f>
         <v>5887868.6968866978</v>
       </c>
       <c r="BX11" s="19">
+        <f>[1]Annual!V128</f>
         <v>5115315.7129913447</v>
       </c>
       <c r="BY11" s="19">
+        <f>[1]Annual!W128</f>
         <v>5551621.8662187792</v>
       </c>
       <c r="BZ11" s="19">
+        <f>[1]Annual!X128</f>
         <v>5913747.6649654768</v>
       </c>
       <c r="CA11" s="19">
+        <f>[1]Annual!Y128</f>
         <v>6128235.4957260517</v>
       </c>
       <c r="CB11" s="19">
+        <f>[1]Annual!Z128</f>
         <v>6473862.2736754334</v>
       </c>
+      <c r="CC11" s="19">
+        <f>[1]Annual!AA128</f>
+        <v>6572519.1983347684</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -20219,82 +22666,111 @@
         <v>3568568.5965783703</v>
       </c>
       <c r="BD12" s="19">
+        <f>[1]Annual!B133</f>
         <v>3688046.2446433334</v>
       </c>
       <c r="BE12" s="19">
+        <f>[1]Annual!C133</f>
         <v>3830053.4704007208</v>
       </c>
       <c r="BF12" s="19">
+        <f>[1]Annual!D133</f>
         <v>3974520.639199873</v>
       </c>
       <c r="BG12" s="19">
+        <f>[1]Annual!E133</f>
         <v>4185435.7878863006</v>
       </c>
       <c r="BH12" s="19">
+        <f>[1]Annual!F133</f>
         <v>4532562.3563551698</v>
       </c>
       <c r="BI12" s="19">
+        <f>[1]Annual!G133</f>
         <v>4771970.6335892519</v>
       </c>
       <c r="BJ12" s="19">
+        <f>[1]Annual!H133</f>
         <v>5078027.4752690587</v>
       </c>
       <c r="BK12" s="19">
+        <f>[1]Annual!I133</f>
         <v>5468817.7608404998</v>
       </c>
       <c r="BL12" s="19">
+        <f>[1]Annual!J133</f>
         <v>5686952.1291571362</v>
       </c>
       <c r="BM12" s="19">
+        <f>[1]Annual!K133</f>
         <v>5881773.9015875971</v>
       </c>
       <c r="BN12" s="19">
+        <f>[1]Annual!L133</f>
         <v>6326036.9392845146</v>
       </c>
       <c r="BO12" s="19">
+        <f>[1]Annual!M133</f>
         <v>6652995.9905493334</v>
       </c>
       <c r="BP12" s="19">
+        <f>[1]Annual!N133</f>
         <v>7144044.9218433676</v>
       </c>
       <c r="BQ12" s="19">
+        <f>[1]Annual!O133</f>
         <v>7684933.195281975</v>
       </c>
       <c r="BR12" s="19">
+        <f>[1]Annual!P133</f>
         <v>8201168.5590072311</v>
       </c>
       <c r="BS12" s="19">
+        <f>[1]Annual!Q133</f>
         <v>8809173.7357357219</v>
       </c>
       <c r="BT12" s="19">
+        <f>[1]Annual!R133</f>
         <v>9529249.1598030627</v>
       </c>
       <c r="BU12" s="19">
+        <f>[1]Annual!S133</f>
         <v>10230262.208913909</v>
       </c>
       <c r="BV12" s="19">
+        <f>[1]Annual!T133</f>
         <v>10920048.472266145</v>
       </c>
       <c r="BW12" s="19">
+        <f>[1]Annual!U133</f>
         <v>11711026.767278373</v>
       </c>
       <c r="BX12" s="19">
+        <f>[1]Annual!V133</f>
         <v>10642137.002289824</v>
       </c>
       <c r="BY12" s="19">
+        <f>[1]Annual!W133</f>
         <v>11213252.036594167</v>
       </c>
       <c r="BZ12" s="19">
+        <f>[1]Annual!X133</f>
         <v>12248122.370699735</v>
       </c>
       <c r="CA12" s="19">
+        <f>[1]Annual!Y133</f>
         <v>13112940.310321592</v>
       </c>
       <c r="CB12" s="19">
+        <f>[1]Annual!Z133</f>
         <v>13992259.830376996</v>
       </c>
+      <c r="CC12" s="19">
+        <f>[1]Annual!AA133</f>
+        <v>14818232.355490401</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -20375,8 +22851,9 @@
       <c r="BZ13" s="35"/>
       <c r="CA13" s="35"/>
       <c r="CB13" s="35"/>
+      <c r="CC13" s="35"/>
     </row>
-    <row r="14" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20543,82 +23020,111 @@
         <v>6692101.554834025</v>
       </c>
       <c r="BD14" s="24">
+        <f>[1]Annual!B146</f>
         <v>6985383.2401479082</v>
       </c>
       <c r="BE14" s="24">
+        <f>[1]Annual!C146</f>
         <v>7198383.7354126927</v>
       </c>
       <c r="BF14" s="24">
+        <f>[1]Annual!D146</f>
         <v>7465894.0310312342</v>
       </c>
       <c r="BG14" s="24">
+        <f>[1]Annual!E146</f>
         <v>7845677.4257574081</v>
       </c>
       <c r="BH14" s="24">
+        <f>[1]Annual!F146</f>
         <v>8361077.9042326389</v>
       </c>
       <c r="BI14" s="24">
+        <f>[1]Annual!G146</f>
         <v>8774324.6075555757</v>
       </c>
       <c r="BJ14" s="24">
+        <f>[1]Annual!H146</f>
         <v>9240804.2770238537</v>
       </c>
       <c r="BK14" s="24">
+        <f>[1]Annual!I146</f>
         <v>9843239.2494421657</v>
       </c>
       <c r="BL14" s="24">
+        <f>[1]Annual!J146</f>
         <v>10270877.52902348</v>
       </c>
       <c r="BM14" s="24">
+        <f>[1]Annual!K146</f>
         <v>10419633.017031327</v>
       </c>
       <c r="BN14" s="24">
+        <f>[1]Annual!L146</f>
         <v>11183860.996541116</v>
       </c>
       <c r="BO14" s="24">
+        <f>[1]Annual!M146</f>
         <v>11615360.392889233</v>
       </c>
       <c r="BP14" s="24">
+        <f>[1]Annual!N146</f>
         <v>12416466.190195967</v>
       </c>
       <c r="BQ14" s="24">
+        <f>[1]Annual!O146</f>
         <v>13254643.626939924</v>
       </c>
       <c r="BR14" s="24">
+        <f>[1]Annual!P146</f>
         <v>14096046.745228356</v>
       </c>
       <c r="BS14" s="24">
+        <f>[1]Annual!Q146</f>
         <v>14990907.450429149</v>
       </c>
       <c r="BT14" s="24">
+        <f>[1]Annual!R146</f>
         <v>16062675.894969866</v>
       </c>
       <c r="BU14" s="36">
+        <f>[1]Annual!S146</f>
         <v>17175978.086071603</v>
       </c>
       <c r="BV14" s="36">
+        <f>[1]Annual!T146</f>
         <v>18265190.258161746</v>
       </c>
       <c r="BW14" s="36">
+        <f>[1]Annual!U146</f>
         <v>19382750.611423247</v>
       </c>
       <c r="BX14" s="24">
+        <f>[1]Annual!V146</f>
         <v>17537843.279373322</v>
       </c>
       <c r="BY14" s="24">
+        <f>[1]Annual!W146</f>
         <v>18540084.219931744</v>
       </c>
       <c r="BZ14" s="24">
+        <f>[1]Annual!X146</f>
         <v>19945604.69110851</v>
       </c>
       <c r="CA14" s="24">
+        <f>[1]Annual!Y146</f>
         <v>21046392.577086408</v>
       </c>
       <c r="CB14" s="24">
+        <f>[1]Annual!Z146</f>
         <v>22244356.636971224</v>
       </c>
+      <c r="CC14" s="24">
+        <f>[1]Annual!AA146</f>
+        <v>23223862.258314617</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
@@ -20697,7 +23203,7 @@
       <c r="BV15" s="19"/>
       <c r="BW15" s="19"/>
     </row>
-    <row r="16" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -20774,7 +23280,7 @@
       <c r="BV16" s="19"/>
       <c r="BW16" s="19"/>
     </row>
-    <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -20851,7 +23357,7 @@
       <c r="BV17" s="19"/>
       <c r="BW17" s="19"/>
     </row>
-    <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -20932,8 +23438,9 @@
       <c r="BZ18" s="19"/>
       <c r="CA18" s="19"/>
       <c r="CB18" s="19"/>
+      <c r="CC18" s="19"/>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
@@ -21016,8 +23523,9 @@
       <c r="BZ19" s="19"/>
       <c r="CA19" s="19"/>
       <c r="CB19" s="19"/>
+      <c r="CC19" s="19"/>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
@@ -21100,10 +23608,12 @@
       <c r="BZ20" s="19"/>
       <c r="CA20" s="19"/>
       <c r="CB20" s="19"/>
+      <c r="CC20" s="19"/>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>88</v>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="str">
+        <f>$A$3</f>
+        <v>As of January 2026</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -21184,8 +23694,9 @@
       <c r="BZ21" s="19"/>
       <c r="CA21" s="19"/>
       <c r="CB21" s="19"/>
+      <c r="CC21" s="19"/>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -21266,8 +23777,9 @@
       <c r="BZ22" s="19"/>
       <c r="CA22" s="19"/>
       <c r="CB22" s="19"/>
+      <c r="CC22" s="19"/>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
@@ -21350,8 +23862,9 @@
       <c r="BZ23" s="19"/>
       <c r="CA23" s="19"/>
       <c r="CB23" s="19"/>
+      <c r="CC23" s="19"/>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>87</v>
       </c>
@@ -21434,8 +23947,9 @@
       <c r="BZ24" s="19"/>
       <c r="CA24" s="19"/>
       <c r="CB24" s="19"/>
+      <c r="CC24" s="19"/>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
@@ -21517,8 +24031,9 @@
       <c r="BY25" s="19"/>
       <c r="BZ25" s="19"/>
       <c r="CA25" s="19"/>
+      <c r="CB25" s="19"/>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -21598,247 +24113,330 @@
       <c r="BY26" s="19"/>
       <c r="BZ26" s="19"/>
       <c r="CA26" s="19"/>
+      <c r="CB26" s="19"/>
     </row>
-    <row r="27" spans="1:80" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="V27" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="W27" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="X27" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y27" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z27" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA27" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD27" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF27" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG27" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH27" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI27" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ27" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL27" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM27" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP27" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ27" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT27" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU27" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV27" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX27" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY27" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="AZ27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA27" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB27" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC27" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD27" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE27" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF27" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG27" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH27" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI27" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ27" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK27" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL27" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM27" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="BN27" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="BO27" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP27" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="BQ27" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="BR27" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS27" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT27" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU27" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="BV27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW27" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="BX27" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="BY27" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ27" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="CA27" s="28" t="s">
-        <v>112</v>
+      <c r="B27" s="28" t="str">
+        <f>Current_2018based!B27</f>
+        <v>1946 - 1947</v>
+      </c>
+      <c r="C27" s="28" t="str">
+        <f>Current_2018based!C27</f>
+        <v>1947 - 1948</v>
+      </c>
+      <c r="D27" s="28" t="str">
+        <f>Current_2018based!D27</f>
+        <v>1948 - 1949</v>
+      </c>
+      <c r="E27" s="28" t="str">
+        <f>Current_2018based!E27</f>
+        <v>1949 - 1950</v>
+      </c>
+      <c r="F27" s="28" t="str">
+        <f>Current_2018based!F27</f>
+        <v>1950 - 1951</v>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f>Current_2018based!G27</f>
+        <v>1951 - 1952</v>
+      </c>
+      <c r="H27" s="28" t="str">
+        <f>Current_2018based!H27</f>
+        <v>1952 - 1953</v>
+      </c>
+      <c r="I27" s="28" t="str">
+        <f>Current_2018based!I27</f>
+        <v>1953 - 1954</v>
+      </c>
+      <c r="J27" s="28" t="str">
+        <f>Current_2018based!J27</f>
+        <v>1954 - 1955</v>
+      </c>
+      <c r="K27" s="28" t="str">
+        <f>Current_2018based!K27</f>
+        <v>1955 - 1956</v>
+      </c>
+      <c r="L27" s="28" t="str">
+        <f>Current_2018based!L27</f>
+        <v>1956 - 1957</v>
+      </c>
+      <c r="M27" s="28" t="str">
+        <f>Current_2018based!M27</f>
+        <v>1957 - 1958</v>
+      </c>
+      <c r="N27" s="28" t="str">
+        <f>Current_2018based!N27</f>
+        <v>1958 - 1959</v>
+      </c>
+      <c r="O27" s="28" t="str">
+        <f>Current_2018based!O27</f>
+        <v>1959 - 1960</v>
+      </c>
+      <c r="P27" s="28" t="str">
+        <f>Current_2018based!P27</f>
+        <v>1960 - 1961</v>
+      </c>
+      <c r="Q27" s="28" t="str">
+        <f>Current_2018based!Q27</f>
+        <v>1961 - 1962</v>
+      </c>
+      <c r="R27" s="28" t="str">
+        <f>Current_2018based!R27</f>
+        <v>1962 - 1963</v>
+      </c>
+      <c r="S27" s="28" t="str">
+        <f>Current_2018based!S27</f>
+        <v>1963 - 1964</v>
+      </c>
+      <c r="T27" s="28" t="str">
+        <f>Current_2018based!T27</f>
+        <v>1964 - 1965</v>
+      </c>
+      <c r="U27" s="28" t="str">
+        <f>Current_2018based!U27</f>
+        <v>1965 - 1966</v>
+      </c>
+      <c r="V27" s="28" t="str">
+        <f>Current_2018based!V27</f>
+        <v>1966 - 1967</v>
+      </c>
+      <c r="W27" s="28" t="str">
+        <f>Current_2018based!W27</f>
+        <v>1967 - 1968</v>
+      </c>
+      <c r="X27" s="28" t="str">
+        <f>Current_2018based!X27</f>
+        <v>1968 - 1969</v>
+      </c>
+      <c r="Y27" s="28" t="str">
+        <f>Current_2018based!Y27</f>
+        <v>1969 - 1970</v>
+      </c>
+      <c r="Z27" s="28" t="str">
+        <f>Current_2018based!Z27</f>
+        <v>1970 - 1971</v>
+      </c>
+      <c r="AA27" s="28" t="str">
+        <f>Current_2018based!AA27</f>
+        <v>1971 - 1972</v>
+      </c>
+      <c r="AB27" s="28" t="str">
+        <f>Current_2018based!AB27</f>
+        <v>1972 - 1973</v>
+      </c>
+      <c r="AC27" s="28" t="str">
+        <f>Current_2018based!AC27</f>
+        <v>1973 - 1974</v>
+      </c>
+      <c r="AD27" s="28" t="str">
+        <f>Current_2018based!AD27</f>
+        <v>1974 - 1975</v>
+      </c>
+      <c r="AE27" s="28" t="str">
+        <f>Current_2018based!AE27</f>
+        <v>1975 - 1976</v>
+      </c>
+      <c r="AF27" s="28" t="str">
+        <f>Current_2018based!AF27</f>
+        <v>1976 - 1977</v>
+      </c>
+      <c r="AG27" s="28" t="str">
+        <f>Current_2018based!AG27</f>
+        <v>1977 - 1978</v>
+      </c>
+      <c r="AH27" s="28" t="str">
+        <f>Current_2018based!AH27</f>
+        <v>1978 - 1979</v>
+      </c>
+      <c r="AI27" s="28" t="str">
+        <f>Current_2018based!AI27</f>
+        <v>1979 - 1980</v>
+      </c>
+      <c r="AJ27" s="28" t="str">
+        <f>Current_2018based!AJ27</f>
+        <v>1980 - 1981</v>
+      </c>
+      <c r="AK27" s="28" t="str">
+        <f>Current_2018based!AK27</f>
+        <v>1981 - 1982</v>
+      </c>
+      <c r="AL27" s="28" t="str">
+        <f>Current_2018based!AL27</f>
+        <v>1982 - 1983</v>
+      </c>
+      <c r="AM27" s="28" t="str">
+        <f>Current_2018based!AM27</f>
+        <v>1983 - 1984</v>
+      </c>
+      <c r="AN27" s="28" t="str">
+        <f>Current_2018based!AN27</f>
+        <v>1984 - 1985</v>
+      </c>
+      <c r="AO27" s="28" t="str">
+        <f>Current_2018based!AO27</f>
+        <v>1985 - 1986</v>
+      </c>
+      <c r="AP27" s="28" t="str">
+        <f>Current_2018based!AP27</f>
+        <v>1986 - 1987</v>
+      </c>
+      <c r="AQ27" s="28" t="str">
+        <f>Current_2018based!AQ27</f>
+        <v>1987- 1988</v>
+      </c>
+      <c r="AR27" s="28" t="str">
+        <f>Current_2018based!AR27</f>
+        <v>1988 - 1989</v>
+      </c>
+      <c r="AS27" s="28" t="str">
+        <f>Current_2018based!AS27</f>
+        <v>1989 - 1990</v>
+      </c>
+      <c r="AT27" s="28" t="str">
+        <f>Current_2018based!AT27</f>
+        <v>1990 - 1991</v>
+      </c>
+      <c r="AU27" s="28" t="str">
+        <f>Current_2018based!AU27</f>
+        <v>1991 - 1992</v>
+      </c>
+      <c r="AV27" s="28" t="str">
+        <f>Current_2018based!AV27</f>
+        <v>1992 - 1993</v>
+      </c>
+      <c r="AW27" s="28" t="str">
+        <f>Current_2018based!AW27</f>
+        <v>1993 - 1994</v>
+      </c>
+      <c r="AX27" s="28" t="str">
+        <f>Current_2018based!AX27</f>
+        <v>1994 - 1995</v>
+      </c>
+      <c r="AY27" s="28" t="str">
+        <f>Current_2018based!AY27</f>
+        <v>1995 - 1996</v>
+      </c>
+      <c r="AZ27" s="28" t="str">
+        <f>Current_2018based!AZ27</f>
+        <v>1996 - 1997</v>
+      </c>
+      <c r="BA27" s="28" t="str">
+        <f>Current_2018based!BA27</f>
+        <v>1997 - 1998</v>
+      </c>
+      <c r="BB27" s="28" t="str">
+        <f>Current_2018based!BB27</f>
+        <v>1998 - 1999</v>
+      </c>
+      <c r="BC27" s="28" t="str">
+        <f>Current_2018based!BC27</f>
+        <v>1999 - 2000</v>
+      </c>
+      <c r="BD27" s="28" t="str">
+        <f>Current_2018based!BD27</f>
+        <v>2000 - 2001</v>
+      </c>
+      <c r="BE27" s="28" t="str">
+        <f>Current_2018based!BE27</f>
+        <v>2001 - 2002</v>
+      </c>
+      <c r="BF27" s="28" t="str">
+        <f>Current_2018based!BF27</f>
+        <v>2002 - 2003</v>
+      </c>
+      <c r="BG27" s="28" t="str">
+        <f>Current_2018based!BG27</f>
+        <v>2003 - 2004</v>
+      </c>
+      <c r="BH27" s="28" t="str">
+        <f>Current_2018based!BH27</f>
+        <v>2004 - 2005</v>
+      </c>
+      <c r="BI27" s="28" t="str">
+        <f>Current_2018based!BI27</f>
+        <v>2005 - 2006</v>
+      </c>
+      <c r="BJ27" s="28" t="str">
+        <f>Current_2018based!BJ27</f>
+        <v>2006 - 2007</v>
+      </c>
+      <c r="BK27" s="28" t="str">
+        <f>Current_2018based!BK27</f>
+        <v>2007 - 2008</v>
+      </c>
+      <c r="BL27" s="28" t="str">
+        <f>Current_2018based!BL27</f>
+        <v>2008 - 2009</v>
+      </c>
+      <c r="BM27" s="28" t="str">
+        <f>Current_2018based!BM27</f>
+        <v>2009 - 2010</v>
+      </c>
+      <c r="BN27" s="28" t="str">
+        <f>Current_2018based!BN27</f>
+        <v>2010 - 2011</v>
+      </c>
+      <c r="BO27" s="28" t="str">
+        <f>Current_2018based!BO27</f>
+        <v>2011 - 2012</v>
+      </c>
+      <c r="BP27" s="28" t="str">
+        <f>Current_2018based!BP27</f>
+        <v>2012 - 2013</v>
+      </c>
+      <c r="BQ27" s="28" t="str">
+        <f>Current_2018based!BQ27</f>
+        <v>2013 - 2014</v>
+      </c>
+      <c r="BR27" s="28" t="str">
+        <f>Current_2018based!BR27</f>
+        <v>2014 - 2015</v>
+      </c>
+      <c r="BS27" s="28" t="str">
+        <f>Current_2018based!BS27</f>
+        <v>2015 - 2016</v>
+      </c>
+      <c r="BT27" s="28" t="str">
+        <f>Current_2018based!BT27</f>
+        <v>2016 - 2017</v>
+      </c>
+      <c r="BU27" s="28" t="str">
+        <f>Current_2018based!BU27</f>
+        <v>2017 - 2018</v>
+      </c>
+      <c r="BV27" s="28" t="str">
+        <f>Current_2018based!BV27</f>
+        <v>2018 - 2019</v>
+      </c>
+      <c r="BW27" s="28" t="str">
+        <f>Current_2018based!BW27</f>
+        <v>2019 - 2020</v>
+      </c>
+      <c r="BX27" s="28" t="str">
+        <f>Current_2018based!BX27</f>
+        <v>2020 - 2021</v>
+      </c>
+      <c r="BY27" s="28" t="str">
+        <f>Current_2018based!BY27</f>
+        <v>2021 - 2022</v>
+      </c>
+      <c r="BZ27" s="28" t="str">
+        <f>Current_2018based!BZ27</f>
+        <v>2022 - 2023</v>
+      </c>
+      <c r="CA27" s="28" t="str">
+        <f>Current_2018based!CA27</f>
+        <v>2023 - 2024</v>
+      </c>
+      <c r="CB27" s="28" t="str">
+        <f>Current_2018based!CB27</f>
+        <v>2024 - 2025</v>
       </c>
     </row>
-    <row r="28" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>21</v>
       </c>
@@ -22005,79 +24603,107 @@
         <v>3.3844036318664479</v>
       </c>
       <c r="BD28" s="26">
+        <f>[1]Annual!B435</f>
         <v>3.8639288662351419</v>
       </c>
       <c r="BE28" s="26">
+        <f>[1]Annual!C435</f>
         <v>3.6080425204229698</v>
       </c>
       <c r="BF28" s="26">
+        <f>[1]Annual!D435</f>
         <v>4.5747486592166098</v>
       </c>
       <c r="BG28" s="26">
+        <f>[1]Annual!E435</f>
         <v>4.9891114832411034</v>
       </c>
       <c r="BH28" s="26">
+        <f>[1]Annual!F435</f>
         <v>3.4969126446215455</v>
       </c>
       <c r="BI28" s="26">
+        <f>[1]Annual!G435</f>
         <v>4.5815351990400757</v>
       </c>
       <c r="BJ28" s="26">
+        <f>[1]Annual!H435</f>
         <v>5.3700163362550484</v>
       </c>
       <c r="BK28" s="26">
+        <f>[1]Annual!I435</f>
         <v>3.3900642948923689</v>
       </c>
       <c r="BL28" s="26">
+        <f>[1]Annual!J435</f>
         <v>-0.14469733608144963</v>
       </c>
       <c r="BM28" s="26">
+        <f>[1]Annual!K435</f>
         <v>1.3237302684346588</v>
       </c>
       <c r="BN28" s="26">
+        <f>[1]Annual!L435</f>
         <v>3.3840782714027</v>
       </c>
       <c r="BO28" s="26">
+        <f>[1]Annual!M435</f>
         <v>3.0799487738872813</v>
       </c>
       <c r="BP28" s="26">
+        <f>[1]Annual!N435</f>
         <v>2.9331064222362357</v>
       </c>
       <c r="BQ28" s="26">
+        <f>[1]Annual!O435</f>
         <v>1.8730139656827163</v>
       </c>
       <c r="BR28" s="26">
+        <f>[1]Annual!P435</f>
         <v>0.73611896593881454</v>
       </c>
       <c r="BS28" s="26">
+        <f>[1]Annual!Q435</f>
         <v>-0.96300132987261122</v>
       </c>
       <c r="BT28" s="26">
+        <f>[1]Annual!R435</f>
         <v>4.2491447423698645</v>
       </c>
       <c r="BU28" s="26">
+        <f>[1]Annual!S435</f>
         <v>1.1176535637619054</v>
       </c>
       <c r="BV28" s="26">
+        <f>[1]Annual!T435</f>
         <v>1.204950181773043</v>
       </c>
       <c r="BW28" s="34">
+        <f>[1]Annual!U435</f>
         <v>-0.19421886196009552</v>
       </c>
       <c r="BX28" s="34">
+        <f>[1]Annual!V435</f>
         <v>-0.2909612687144687</v>
       </c>
       <c r="BY28" s="34">
+        <f>[1]Annual!W435</f>
         <v>0.48018751594077003</v>
       </c>
       <c r="BZ28" s="34">
+        <f>[1]Annual!X435</f>
         <v>1.2043335890745936</v>
       </c>
       <c r="CA28" s="34">
+        <f>[1]Annual!Y435</f>
         <v>-1.4946813342777432</v>
       </c>
+      <c r="CB28" s="34">
+        <f>[1]Annual!Z435</f>
+        <v>3.0859917831299555</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -22244,79 +24870,107 @@
         <v>6.6355644120969828</v>
       </c>
       <c r="BD29" s="26">
+        <f>[1]Annual!B436</f>
         <v>1.3379502482438141</v>
       </c>
       <c r="BE29" s="26">
+        <f>[1]Annual!C436</f>
         <v>3.6748651649366906</v>
       </c>
       <c r="BF29" s="26">
+        <f>[1]Annual!D436</f>
         <v>4.9645694771510023</v>
       </c>
       <c r="BG29" s="26">
+        <f>[1]Annual!E436</f>
         <v>4.4068792758271229</v>
       </c>
       <c r="BH29" s="26">
+        <f>[1]Annual!F436</f>
         <v>5.0508709302653472</v>
       </c>
       <c r="BI29" s="26">
+        <f>[1]Annual!G436</f>
         <v>3.7320716864625894</v>
       </c>
       <c r="BJ29" s="26">
+        <f>[1]Annual!H436</f>
         <v>4.945437868198681</v>
       </c>
       <c r="BK29" s="26">
+        <f>[1]Annual!I436</f>
         <v>5.4714985552338078</v>
       </c>
       <c r="BL29" s="26">
+        <f>[1]Annual!J436</f>
         <v>-1.416099240391361</v>
       </c>
       <c r="BM29" s="26">
+        <f>[1]Annual!K436</f>
         <v>9.8235825205154299</v>
       </c>
       <c r="BN29" s="26">
+        <f>[1]Annual!L436</f>
         <v>1.6017135235883728</v>
       </c>
       <c r="BO29" s="26">
+        <f>[1]Annual!M436</f>
         <v>7.68801960078018</v>
       </c>
       <c r="BP29" s="26">
+        <f>[1]Annual!N436</f>
         <v>6.8155009548634666</v>
       </c>
       <c r="BQ29" s="26">
+        <f>[1]Annual!O436</f>
         <v>7.5003612810670575</v>
       </c>
       <c r="BR29" s="26">
+        <f>[1]Annual!P436</f>
         <v>6.5069084534475934</v>
       </c>
       <c r="BS29" s="26">
+        <f>[1]Annual!Q436</f>
         <v>8.1887349340195641</v>
       </c>
       <c r="BT29" s="26">
+        <f>[1]Annual!R436</f>
         <v>7.019457759628466</v>
       </c>
       <c r="BU29" s="26">
+        <f>[1]Annual!S436</f>
         <v>7.302984107180805</v>
       </c>
       <c r="BV29" s="26">
+        <f>[1]Annual!T436</f>
         <v>5.4696287387019993</v>
       </c>
       <c r="BW29" s="34">
+        <f>[1]Annual!U436</f>
         <v>-13.121097355718078</v>
       </c>
       <c r="BX29" s="34">
+        <f>[1]Annual!V436</f>
         <v>8.5294081090508342</v>
       </c>
       <c r="BY29" s="34">
+        <f>[1]Annual!W436</f>
         <v>6.5228829965925428</v>
       </c>
       <c r="BZ29" s="34">
+        <f>[1]Annual!X436</f>
         <v>3.6269357928687924</v>
       </c>
       <c r="CA29" s="34">
+        <f>[1]Annual!Y436</f>
         <v>5.6399069224808471</v>
       </c>
+      <c r="CB29" s="34">
+        <f>[1]Annual!Z436</f>
+        <v>1.5239268382415645</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>3</v>
       </c>
@@ -22483,79 +25137,107 @@
         <v>3.3480573236572155</v>
       </c>
       <c r="BD30" s="26">
+        <f>[1]Annual!B441</f>
         <v>3.8504730238576883</v>
       </c>
       <c r="BE30" s="26">
+        <f>[1]Annual!C441</f>
         <v>3.771936081718394</v>
       </c>
       <c r="BF30" s="26">
+        <f>[1]Annual!D441</f>
         <v>5.3066814298613991</v>
       </c>
       <c r="BG30" s="26">
+        <f>[1]Annual!E441</f>
         <v>8.2936780316530161</v>
       </c>
       <c r="BH30" s="26">
+        <f>[1]Annual!F441</f>
         <v>5.2819632342929594</v>
       </c>
       <c r="BI30" s="26">
+        <f>[1]Annual!G441</f>
         <v>6.4136363188305126</v>
       </c>
       <c r="BJ30" s="26">
+        <f>[1]Annual!H441</f>
         <v>7.695710341755003</v>
       </c>
       <c r="BK30" s="26">
+        <f>[1]Annual!I441</f>
         <v>3.9886933128141351</v>
       </c>
       <c r="BL30" s="26">
+        <f>[1]Annual!J441</f>
         <v>3.4257677575938175</v>
       </c>
       <c r="BM30" s="26">
+        <f>[1]Annual!K441</f>
         <v>7.553215154649223</v>
       </c>
       <c r="BN30" s="26">
+        <f>[1]Annual!L441</f>
         <v>5.1684657298538923</v>
       </c>
       <c r="BO30" s="26">
+        <f>[1]Annual!M441</f>
         <v>7.3808691902351313</v>
       </c>
       <c r="BP30" s="26">
+        <f>[1]Annual!N441</f>
         <v>7.5711768242778987</v>
       </c>
       <c r="BQ30" s="26">
+        <f>[1]Annual!O441</f>
         <v>6.7174996920232246</v>
       </c>
       <c r="BR30" s="26">
+        <f>[1]Annual!P441</f>
         <v>7.4136407800169764</v>
       </c>
       <c r="BS30" s="26">
+        <f>[1]Annual!Q441</f>
         <v>8.1741539634557085</v>
       </c>
       <c r="BT30" s="26">
+        <f>[1]Annual!R441</f>
         <v>7.3564353009879113</v>
       </c>
       <c r="BU30" s="26">
+        <f>[1]Annual!S441</f>
         <v>6.742605900669929</v>
       </c>
       <c r="BV30" s="26">
+        <f>[1]Annual!T441</f>
         <v>7.2433588277661158</v>
       </c>
       <c r="BW30" s="34">
+        <f>[1]Annual!U441</f>
         <v>-9.1272079402560991</v>
       </c>
       <c r="BX30" s="34">
+        <f>[1]Annual!V441</f>
         <v>5.3665446534042758</v>
       </c>
       <c r="BY30" s="34">
+        <f>[1]Annual!W441</f>
         <v>9.2289937899219012</v>
       </c>
       <c r="BZ30" s="34">
+        <f>[1]Annual!X441</f>
         <v>7.0608205359761627</v>
       </c>
       <c r="CA30" s="34">
+        <f>[1]Annual!Y441</f>
         <v>6.7057387530641535</v>
       </c>
+      <c r="CB30" s="34">
+        <f>[1]Annual!Z441</f>
+        <v>5.9030673752943841</v>
+      </c>
     </row>
-    <row r="31" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -22635,8 +25317,9 @@
       <c r="BY31" s="34"/>
       <c r="BZ31" s="34"/>
       <c r="CA31" s="34"/>
+      <c r="CB31" s="34"/>
     </row>
-    <row r="32" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>22</v>
       </c>
@@ -22803,85 +25486,113 @@
         <v>4.3825048335741457</v>
       </c>
       <c r="BD32" s="27">
+        <f>[1]Annual!B454</f>
         <v>3.0492313441098133</v>
       </c>
       <c r="BE32" s="27">
+        <f>[1]Annual!C454</f>
         <v>3.7162550018348526</v>
       </c>
       <c r="BF32" s="27">
+        <f>[1]Annual!D454</f>
         <v>5.0869111341206121</v>
       </c>
       <c r="BG32" s="27">
+        <f>[1]Annual!E454</f>
         <v>6.569228512800791</v>
       </c>
       <c r="BH32" s="27">
+        <f>[1]Annual!F454</f>
         <v>4.9425051178358075</v>
       </c>
       <c r="BI32" s="27">
+        <f>[1]Annual!G454</f>
         <v>5.3164168221744461</v>
       </c>
       <c r="BJ32" s="27">
+        <f>[1]Annual!H454</f>
         <v>6.5192915503707241</v>
       </c>
       <c r="BK32" s="27">
+        <f>[1]Annual!I454</f>
         <v>4.344487304883387</v>
       </c>
       <c r="BL32" s="27">
+        <f>[1]Annual!J454</f>
         <v>1.4483230628297576</v>
       </c>
       <c r="BM32" s="27">
+        <f>[1]Annual!K454</f>
         <v>7.3344999604172898</v>
       </c>
       <c r="BN32" s="27">
+        <f>[1]Annual!L454</f>
         <v>3.8582328274785311</v>
       </c>
       <c r="BO32" s="27">
+        <f>[1]Annual!M454</f>
         <v>6.8969517105742</v>
       </c>
       <c r="BP32" s="27">
+        <f>[1]Annual!N454</f>
         <v>6.7505313017787785</v>
       </c>
       <c r="BQ32" s="27">
+        <f>[1]Annual!O454</f>
         <v>6.3479874825022762</v>
       </c>
       <c r="BR32" s="27">
+        <f>[1]Annual!P454</f>
         <v>6.3483097167204932</v>
       </c>
       <c r="BS32" s="27">
+        <f>[1]Annual!Q454</f>
         <v>7.14945674959813</v>
       </c>
       <c r="BT32" s="27">
+        <f>[1]Annual!R454</f>
         <v>6.9309883258640355</v>
       </c>
       <c r="BU32" s="27">
+        <f>[1]Annual!S454</f>
         <v>6.3414855714878371</v>
       </c>
       <c r="BV32" s="27">
+        <f>[1]Annual!T454</f>
         <v>6.118525662562547</v>
       </c>
       <c r="BW32" s="27">
+        <f>[1]Annual!U454</f>
         <v>-9.518294740699119</v>
       </c>
       <c r="BX32" s="27">
+        <f>[1]Annual!V454</f>
         <v>5.7147331321929471</v>
       </c>
       <c r="BY32" s="27">
+        <f>[1]Annual!W454</f>
         <v>7.5809821277173199</v>
       </c>
       <c r="BZ32" s="27">
+        <f>[1]Annual!X454</f>
         <v>5.5189496785154546</v>
       </c>
       <c r="CA32" s="27">
+        <f>[1]Annual!Y454</f>
         <v>5.6920161281656618</v>
       </c>
+      <c r="CB32" s="27">
+        <f>[1]Annual!Z454</f>
+        <v>4.403389306011249</v>
+      </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -22961,8 +25672,9 @@
       <c r="BY34" s="19"/>
       <c r="BZ34" s="19"/>
       <c r="CA34" s="19"/>
+      <c r="CB34" s="19"/>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -23043,7 +25755,7 @@
       <c r="BZ35" s="19"/>
       <c r="CA35" s="19"/>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -23124,7 +25836,7 @@
       <c r="BZ36" s="19"/>
       <c r="CA36" s="19"/>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -23207,7 +25919,7 @@
       <c r="BZ37" s="19"/>
       <c r="CA37" s="19"/>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>16</v>
       </c>
@@ -23290,9 +26002,10 @@
       <c r="BZ38" s="19"/>
       <c r="CA38" s="19"/>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>88</v>
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="str">
+        <f>$A$3</f>
+        <v>As of January 2026</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
@@ -23373,8 +26086,9 @@
       <c r="BZ39" s="19"/>
       <c r="CA39" s="19"/>
       <c r="CB39" s="19"/>
+      <c r="CC39" s="19"/>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
@@ -23455,8 +26169,9 @@
       <c r="BZ40" s="19"/>
       <c r="CA40" s="19"/>
       <c r="CB40" s="19"/>
+      <c r="CC40" s="19"/>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>27</v>
       </c>
@@ -23539,8 +26254,9 @@
       <c r="BZ41" s="19"/>
       <c r="CA41" s="19"/>
       <c r="CB41" s="19"/>
+      <c r="CC41" s="19"/>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>86</v>
       </c>
@@ -23623,8 +26339,9 @@
       <c r="BZ42" s="19"/>
       <c r="CA42" s="19"/>
       <c r="CB42" s="19"/>
+      <c r="CC42" s="19"/>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>24</v>
       </c>
@@ -23707,8 +26424,9 @@
       <c r="BZ43" s="19"/>
       <c r="CA43" s="19"/>
       <c r="CB43" s="19"/>
+      <c r="CC43" s="19"/>
     </row>
-    <row r="44" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -23789,8 +26507,9 @@
       <c r="BZ44" s="19"/>
       <c r="CA44" s="19"/>
       <c r="CB44" s="19"/>
+      <c r="CC44" s="19"/>
     </row>
-    <row r="45" spans="1:80" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81" s="31" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>20</v>
       </c>
@@ -24031,8 +26750,11 @@
       <c r="CB45" s="30">
         <v>2024</v>
       </c>
+      <c r="CC45" s="30">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="46" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>21</v>
       </c>
@@ -24199,82 +26921,111 @@
         <v>15.378930289536111</v>
       </c>
       <c r="BD46" s="22">
+        <f>[1]Annual!B281</f>
         <v>15.23187848636881</v>
       </c>
       <c r="BE46" s="22">
+        <f>[1]Annual!C281</f>
         <v>15.352300283778639</v>
       </c>
       <c r="BF46" s="22">
+        <f>[1]Annual!D281</f>
         <v>15.336282442514907</v>
       </c>
       <c r="BG46" s="22">
+        <f>[1]Annual!E281</f>
         <v>15.261537944966964</v>
       </c>
       <c r="BH46" s="22">
+        <f>[1]Annual!F281</f>
         <v>15.035252962513354</v>
       </c>
       <c r="BI46" s="22">
+        <f>[1]Annual!G281</f>
         <v>14.828140996860578</v>
       </c>
       <c r="BJ46" s="22">
+        <f>[1]Annual!H281</f>
         <v>14.724672528670688</v>
       </c>
       <c r="BK46" s="22">
+        <f>[1]Annual!I281</f>
         <v>14.565802703995139</v>
       </c>
       <c r="BL46" s="22">
+        <f>[1]Annual!J281</f>
         <v>14.432571542304128</v>
       </c>
       <c r="BM46" s="22">
+        <f>[1]Annual!K281</f>
         <v>14.205940089151406</v>
       </c>
       <c r="BN46" s="22">
+        <f>[1]Annual!L281</f>
         <v>13.410402455254742</v>
       </c>
       <c r="BO46" s="22">
+        <f>[1]Annual!M281</f>
         <v>13.349178580653176</v>
       </c>
       <c r="BP46" s="22">
+        <f>[1]Annual!N281</f>
         <v>12.872515279882263</v>
       </c>
       <c r="BQ46" s="22">
+        <f>[1]Annual!O281</f>
         <v>12.412191012710249</v>
       </c>
       <c r="BR46" s="22">
+        <f>[1]Annual!P281</f>
         <v>11.889903498085461</v>
       </c>
       <c r="BS46" s="22">
+        <f>[1]Annual!Q281</f>
         <v>11.26245199822255</v>
       </c>
       <c r="BT46" s="22">
+        <f>[1]Annual!R281</f>
         <v>10.409753604042638</v>
       </c>
       <c r="BU46" s="22">
+        <f>[1]Annual!S281</f>
         <v>10.148675582172299</v>
       </c>
       <c r="BV46" s="22">
+        <f>[1]Annual!T281</f>
         <v>9.6501403580565963</v>
       </c>
       <c r="BW46" s="26">
+        <f>[1]Annual!U281</f>
         <v>9.2033126929201572</v>
       </c>
       <c r="BX46" s="26">
+        <f>[1]Annual!V281</f>
         <v>10.151707571626631</v>
       </c>
       <c r="BY46" s="26">
+        <f>[1]Annual!W281</f>
         <v>9.5749851837800009</v>
       </c>
       <c r="BZ46" s="26">
+        <f>[1]Annual!X281</f>
         <v>8.9429961290592548</v>
       </c>
       <c r="CA46" s="26">
+        <f>[1]Annual!Y281</f>
         <v>8.5773215738840456</v>
       </c>
       <c r="CB46" s="26">
+        <f>[1]Annual!Z281</f>
         <v>7.9940928925913788</v>
       </c>
+      <c r="CC46" s="26">
+        <f>[1]Annual!AA281</f>
+        <v>7.8932207059278321</v>
+      </c>
     </row>
-    <row r="47" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -24441,82 +27192,111 @@
         <v>31.295988383797184</v>
       </c>
       <c r="BD47" s="22">
+        <f>[1]Annual!B282</f>
         <v>31.971501516512134</v>
       </c>
       <c r="BE47" s="22">
+        <f>[1]Annual!C282</f>
         <v>31.440568627076409</v>
       </c>
       <c r="BF47" s="22">
+        <f>[1]Annual!D282</f>
         <v>31.428021702706282</v>
       </c>
       <c r="BG47" s="22">
+        <f>[1]Annual!E282</f>
         <v>31.39143335684199</v>
       </c>
       <c r="BH47" s="22">
+        <f>[1]Annual!F282</f>
         <v>30.754483620844571</v>
       </c>
       <c r="BI47" s="22">
+        <f>[1]Annual!G282</f>
         <v>30.786241339984993</v>
       </c>
       <c r="BJ47" s="22">
+        <f>[1]Annual!H282</f>
         <v>30.323103367904015</v>
       </c>
       <c r="BK47" s="22">
+        <f>[1]Annual!I282</f>
         <v>29.875070648235653</v>
       </c>
       <c r="BL47" s="22">
+        <f>[1]Annual!J282</f>
         <v>30.197747404768048</v>
       </c>
       <c r="BM47" s="22">
+        <f>[1]Annual!K282</f>
         <v>29.345105403779193</v>
       </c>
       <c r="BN47" s="22">
+        <f>[1]Annual!L282</f>
         <v>30.025617169443773</v>
       </c>
       <c r="BO47" s="22">
+        <f>[1]Annual!M282</f>
         <v>29.373253048569385</v>
       </c>
       <c r="BP47" s="22">
+        <f>[1]Annual!N282</f>
         <v>29.590623487536909</v>
       </c>
       <c r="BQ47" s="22">
+        <f>[1]Annual!O282</f>
         <v>29.608632695726328</v>
       </c>
       <c r="BR47" s="22">
+        <f>[1]Annual!P282</f>
         <v>29.929468221979217</v>
       </c>
       <c r="BS47" s="22">
+        <f>[1]Annual!Q282</f>
         <v>29.974102460770258</v>
       </c>
       <c r="BT47" s="22">
+        <f>[1]Annual!R282</f>
         <v>30.264831240272059</v>
       </c>
       <c r="BU47" s="22">
+        <f>[1]Annual!S282</f>
         <v>30.289870871203394</v>
       </c>
       <c r="BV47" s="22">
+        <f>[1]Annual!T282</f>
         <v>30.563740154978003</v>
       </c>
       <c r="BW47" s="26">
+        <f>[1]Annual!U282</f>
         <v>30.37684802804343</v>
       </c>
       <c r="BX47" s="26">
+        <f>[1]Annual!V282</f>
         <v>29.167301996634841</v>
       </c>
       <c r="BY47" s="26">
+        <f>[1]Annual!W282</f>
         <v>29.943886987581429</v>
       </c>
       <c r="BZ47" s="26">
+        <f>[1]Annual!X282</f>
         <v>29.6493776776883</v>
       </c>
       <c r="CA47" s="26">
+        <f>[1]Annual!Y282</f>
         <v>29.117747724605188</v>
       </c>
       <c r="CB47" s="26">
+        <f>[1]Annual!Z282</f>
         <v>29.103391836990927</v>
       </c>
+      <c r="CC47" s="26">
+        <f>[1]Annual!AA282</f>
+        <v>28.300715553812211</v>
+      </c>
     </row>
-    <row r="48" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
@@ -24683,82 +27463,111 @@
         <v>53.325081326666698</v>
       </c>
       <c r="BD48" s="22">
+        <f>[1]Annual!B287</f>
         <v>52.796619997119052</v>
       </c>
       <c r="BE48" s="22">
+        <f>[1]Annual!C287</f>
         <v>53.207131089144951</v>
       </c>
       <c r="BF48" s="22">
+        <f>[1]Annual!D287</f>
         <v>53.235695854778811</v>
       </c>
       <c r="BG48" s="22">
+        <f>[1]Annual!E287</f>
         <v>53.347028698191046</v>
       </c>
       <c r="BH48" s="22">
+        <f>[1]Annual!F287</f>
         <v>54.210263416642071</v>
       </c>
       <c r="BI48" s="22">
+        <f>[1]Annual!G287</f>
         <v>54.385617663154441</v>
       </c>
       <c r="BJ48" s="22">
+        <f>[1]Annual!H287</f>
         <v>54.952224103425308</v>
       </c>
       <c r="BK48" s="22">
+        <f>[1]Annual!I287</f>
         <v>55.559126647769205</v>
       </c>
       <c r="BL48" s="22">
+        <f>[1]Annual!J287</f>
         <v>55.369681052927831</v>
       </c>
       <c r="BM48" s="22">
+        <f>[1]Annual!K287</f>
         <v>56.448954507069402</v>
       </c>
       <c r="BN48" s="22">
+        <f>[1]Annual!L287</f>
         <v>56.56398037530149</v>
       </c>
       <c r="BO48" s="22">
+        <f>[1]Annual!M287</f>
         <v>57.277568370777445</v>
       </c>
       <c r="BP48" s="22">
+        <f>[1]Annual!N287</f>
         <v>57.536861232580819</v>
       </c>
       <c r="BQ48" s="22">
+        <f>[1]Annual!O287</f>
         <v>57.979176291563427</v>
       </c>
       <c r="BR48" s="22">
+        <f>[1]Annual!P287</f>
         <v>58.18062827993532</v>
       </c>
       <c r="BS48" s="22">
+        <f>[1]Annual!Q287</f>
         <v>58.763445541007187</v>
       </c>
       <c r="BT48" s="22">
+        <f>[1]Annual!R287</f>
         <v>59.325415155685299</v>
       </c>
       <c r="BU48" s="22">
+        <f>[1]Annual!S287</f>
         <v>59.561453546624307</v>
       </c>
       <c r="BV48" s="22">
+        <f>[1]Annual!T287</f>
         <v>59.786119486965397</v>
       </c>
       <c r="BW48" s="26">
+        <f>[1]Annual!U287</f>
         <v>60.419839279036417</v>
       </c>
       <c r="BX48" s="26">
+        <f>[1]Annual!V287</f>
         <v>60.680990431738536</v>
       </c>
       <c r="BY48" s="26">
+        <f>[1]Annual!W287</f>
         <v>60.481127828638584</v>
       </c>
       <c r="BZ48" s="26">
+        <f>[1]Annual!X287</f>
         <v>61.407626193252426</v>
       </c>
       <c r="CA48" s="26">
+        <f>[1]Annual!Y287</f>
         <v>62.304930701510763</v>
       </c>
       <c r="CB48" s="26">
+        <f>[1]Annual!Z287</f>
         <v>62.902515270417695</v>
       </c>
+      <c r="CC48" s="26">
+        <f>[1]Annual!AA287</f>
+        <v>63.806063740259965</v>
+      </c>
     </row>
-    <row r="49" spans="1:80" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:81" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -24839,8 +27648,9 @@
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
       <c r="CB49" s="34"/>
+      <c r="CC49" s="34"/>
     </row>
-    <row r="50" spans="1:80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>22</v>
       </c>
@@ -25007,82 +27817,111 @@
         <v>100</v>
       </c>
       <c r="BD50" s="32">
+        <f>[1]Annual!B300</f>
         <v>100</v>
       </c>
       <c r="BE50" s="32">
+        <f>[1]Annual!C300</f>
         <v>100</v>
       </c>
       <c r="BF50" s="32">
+        <f>[1]Annual!D300</f>
         <v>100</v>
       </c>
       <c r="BG50" s="32">
+        <f>[1]Annual!E300</f>
         <v>100</v>
       </c>
       <c r="BH50" s="32">
+        <f>[1]Annual!F300</f>
         <v>100</v>
       </c>
       <c r="BI50" s="32">
+        <f>[1]Annual!G300</f>
         <v>100</v>
       </c>
       <c r="BJ50" s="32">
+        <f>[1]Annual!H300</f>
         <v>100</v>
       </c>
       <c r="BK50" s="32">
+        <f>[1]Annual!I300</f>
         <v>100</v>
       </c>
       <c r="BL50" s="32">
+        <f>[1]Annual!J300</f>
         <v>100</v>
       </c>
       <c r="BM50" s="32">
+        <f>[1]Annual!K300</f>
         <v>100</v>
       </c>
       <c r="BN50" s="32">
+        <f>[1]Annual!L300</f>
         <v>100</v>
       </c>
       <c r="BO50" s="32">
+        <f>[1]Annual!M300</f>
         <v>100</v>
       </c>
       <c r="BP50" s="32">
+        <f>[1]Annual!N300</f>
         <v>100</v>
       </c>
       <c r="BQ50" s="32">
+        <f>[1]Annual!O300</f>
         <v>100</v>
       </c>
       <c r="BR50" s="32">
+        <f>[1]Annual!P300</f>
         <v>100</v>
       </c>
       <c r="BS50" s="32">
+        <f>[1]Annual!Q300</f>
         <v>100</v>
       </c>
       <c r="BT50" s="32">
+        <f>[1]Annual!R300</f>
         <v>100</v>
       </c>
       <c r="BU50" s="32">
+        <f>[1]Annual!S300</f>
         <v>100</v>
       </c>
       <c r="BV50" s="32">
+        <f>[1]Annual!T300</f>
         <v>100</v>
       </c>
       <c r="BW50" s="27">
+        <f>[1]Annual!U300</f>
         <v>100</v>
       </c>
       <c r="BX50" s="27">
+        <f>[1]Annual!V300</f>
         <v>100</v>
       </c>
       <c r="BY50" s="27">
+        <f>[1]Annual!W300</f>
         <v>100</v>
       </c>
       <c r="BZ50" s="27">
+        <f>[1]Annual!X300</f>
         <v>100</v>
       </c>
       <c r="CA50" s="27">
+        <f>[1]Annual!Y300</f>
         <v>100</v>
       </c>
       <c r="CB50" s="27">
+        <f>[1]Annual!Z300</f>
         <v>100</v>
       </c>
+      <c r="CC50" s="27">
+        <f>[1]Annual!AA300</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="51" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>19</v>
       </c>
@@ -25161,7 +28000,7 @@
       <c r="BV51" s="22"/>
       <c r="BW51" s="22"/>
     </row>
-    <row r="52" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -25241,8 +28080,9 @@
       <c r="BZ52" s="22"/>
       <c r="CA52" s="22"/>
       <c r="CB52" s="22"/>
+      <c r="CC52" s="22"/>
     </row>
-    <row r="53" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -25322,8 +28162,9 @@
       <c r="BZ53" s="22"/>
       <c r="CA53" s="22"/>
       <c r="CB53" s="22"/>
+      <c r="CC53" s="22"/>
     </row>
-    <row r="54" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -25403,8 +28244,9 @@
       <c r="BZ54" s="22"/>
       <c r="CA54" s="22"/>
       <c r="CB54" s="22"/>
+      <c r="CC54" s="22"/>
     </row>
-    <row r="55" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -25484,8 +28326,9 @@
       <c r="BZ55" s="22"/>
       <c r="CA55" s="22"/>
       <c r="CB55" s="22"/>
+      <c r="CC55" s="22"/>
     </row>
-    <row r="56" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -25565,8 +28408,9 @@
       <c r="BZ56" s="22"/>
       <c r="CA56" s="22"/>
       <c r="CB56" s="22"/>
+      <c r="CC56" s="22"/>
     </row>
-    <row r="57" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -25646,8 +28490,9 @@
       <c r="BZ57" s="22"/>
       <c r="CA57" s="22"/>
       <c r="CB57" s="22"/>
+      <c r="CC57" s="22"/>
     </row>
-    <row r="58" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -25727,8 +28572,9 @@
       <c r="BZ58" s="22"/>
       <c r="CA58" s="22"/>
       <c r="CB58" s="22"/>
+      <c r="CC58" s="22"/>
     </row>
-    <row r="59" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -25808,8 +28654,9 @@
       <c r="BZ59" s="22"/>
       <c r="CA59" s="22"/>
       <c r="CB59" s="22"/>
+      <c r="CC59" s="22"/>
     </row>
-    <row r="60" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -25889,6 +28736,7 @@
       <c r="BZ60" s="22"/>
       <c r="CA60" s="22"/>
       <c r="CB60" s="22"/>
+      <c r="CC60" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
